--- a/estatioapp/integtests/src/test/java/org/estatio/integtests/capex/OrderInvoiceImportForDemo.xlsx
+++ b/estatioapp/integtests/src/test/java/org/estatio/integtests/capex/OrderInvoiceImportForDemo.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\estatio\estatio\estatioapp\module\capex\dom\src\main\java\org\estatio\capex\fixture\order\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="135" yWindow="0" windowWidth="28305" windowHeight="16995" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="28300" windowHeight="17000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="OXFORD" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Order Number</t>
   </si>
@@ -203,16 +198,37 @@
   <si>
     <t>Invoice n°2016/0206</t>
   </si>
+  <si>
+    <r>
+      <t>Invoice n°1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>56</t>
+    </r>
+  </si>
+  <si>
+    <t>INVOICE NET AMOUNT</t>
+  </si>
+  <si>
+    <t>INVOICE VAT AMOUNT</t>
+  </si>
+  <si>
+    <t>INVOICE GROSS AMOUNT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -285,8 +301,14 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +343,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -507,9 +535,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -530,8 +558,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -740,40 +770,40 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -801,55 +831,55 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -868,16 +898,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="24">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -899,6 +933,8 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1236,34 +1272,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z769"/>
+  <dimension ref="A1:Z770"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="83" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="109" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="109" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="109" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="83" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="71" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="109" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="109" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="109" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
     <col min="16" max="16" width="43" customWidth="1"/>
-    <col min="17" max="26" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" customWidth="1"/>
+    <col min="20" max="26" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,9 +1347,15 @@
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="Q1" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="120" t="s">
+        <v>55</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -1319,7 +1364,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1332,13 +1377,13 @@
       <c r="H2" s="94"/>
       <c r="I2" s="95"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="115" t="s">
         <v>45</v>
       </c>
@@ -1353,7 +1398,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="74"/>
@@ -1381,7 +1426,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>34</v>
       </c>
@@ -1411,7 +1456,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="75"/>
@@ -1439,8 +1484,8 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119" t="s">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A6" s="116" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -1471,7 +1516,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="18" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="77">
@@ -1525,7 +1570,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="18" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="77"/>
@@ -1557,7 +1602,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="18" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="77"/>
@@ -1585,7 +1630,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="18" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="114" t="s">
         <v>27</v>
@@ -1635,13 +1680,15 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="18" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="77"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="111"/>
       <c r="G11" s="98"/>
       <c r="H11" s="98"/>
       <c r="I11" s="99"/>
@@ -1651,10 +1698,18 @@
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
       <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="P11" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="121">
+        <v>100</v>
+      </c>
+      <c r="R11" s="121">
+        <v>20</v>
+      </c>
+      <c r="S11" s="121">
+        <v>120</v>
+      </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
@@ -1663,41 +1718,18 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="114" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="77">
-        <v>42634</v>
-      </c>
-      <c r="D12" s="77">
-        <v>42636</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="98">
-        <v>1146</v>
-      </c>
-      <c r="H12" s="98">
-        <f>G12*0.2</f>
-        <v>229.20000000000002</v>
-      </c>
-      <c r="I12" s="99">
-        <f>G12+H12</f>
-        <v>1375.2</v>
-      </c>
-      <c r="J12" s="23">
-        <f>G12</f>
-        <v>1146</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
@@ -1714,18 +1746,41 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="18" customHeight="1">
       <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="B13" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="77">
+        <v>42634</v>
+      </c>
+      <c r="D13" s="77">
+        <v>42636</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="98">
+        <v>1146</v>
+      </c>
+      <c r="H13" s="98">
+        <f>G13*0.2</f>
+        <v>229.20000000000002</v>
+      </c>
+      <c r="I13" s="99">
+        <f>G13+H13</f>
+        <v>1375.2</v>
+      </c>
+      <c r="J13" s="23">
+        <f>G13</f>
+        <v>1146</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
@@ -1742,45 +1797,23 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
-        <v>36</v>
-      </c>
+    <row r="14" spans="1:26" ht="18" customHeight="1">
+      <c r="A14" s="38"/>
       <c r="B14" s="39"/>
-      <c r="C14" s="77">
-        <v>42681</v>
-      </c>
+      <c r="C14" s="77"/>
       <c r="D14" s="88"/>
-      <c r="E14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="98">
-        <v>12515</v>
-      </c>
-      <c r="H14" s="98">
-        <v>2503</v>
-      </c>
-      <c r="I14" s="99">
-        <f>G14+H14</f>
-        <v>15018</v>
-      </c>
-      <c r="J14" s="23">
-        <f>G14</f>
-        <v>12515</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="P14" s="26"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -1792,23 +1825,45 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="A15" s="112" t="s">
+        <v>36</v>
+      </c>
       <c r="B15" s="39"/>
-      <c r="C15" s="77"/>
+      <c r="C15" s="77">
+        <v>42681</v>
+      </c>
       <c r="D15" s="88"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
+      <c r="E15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="98">
+        <v>12515</v>
+      </c>
+      <c r="H15" s="98">
+        <v>2503</v>
+      </c>
+      <c r="I15" s="99">
+        <f>G15+H15</f>
+        <v>15018</v>
+      </c>
+      <c r="J15" s="23">
+        <f>G15</f>
+        <v>12515</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
       <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
+      <c r="P15" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -1820,27 +1875,23 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="78"/>
+    <row r="16" spans="1:26" ht="18" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
@@ -1852,44 +1903,27 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="77">
-        <v>42569</v>
+    <row r="17" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A17" s="116" t="s">
+        <v>37</v>
       </c>
+      <c r="B17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="78"/>
       <c r="D17" s="88"/>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="98">
-        <f>8003.3+14.82</f>
-        <v>8018.12</v>
-      </c>
-      <c r="H17" s="98">
-        <v>1603.62</v>
-      </c>
-      <c r="I17" s="99">
-        <f t="shared" ref="I17" si="0">G17+H17</f>
-        <v>9621.74</v>
-      </c>
-      <c r="J17" s="23">
-        <f t="shared" ref="J17" si="1">G17</f>
-        <v>8018.12</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="110" t="s">
-        <v>48</v>
-      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -1901,23 +1935,44 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="77"/>
+      <c r="C18" s="77">
+        <v>42569</v>
+      </c>
       <c r="D18" s="88"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
+      <c r="E18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="98">
+        <f>8003.3+14.82</f>
+        <v>8018.12</v>
+      </c>
+      <c r="H18" s="98">
+        <v>1603.62</v>
+      </c>
+      <c r="I18" s="99">
+        <f t="shared" ref="I18" si="0">G18+H18</f>
+        <v>9621.74</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" ref="J18" si="1">G18</f>
+        <v>8018.12</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
       <c r="N18" s="113"/>
       <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
+      <c r="P18" s="110" t="s">
+        <v>48</v>
+      </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -1929,27 +1984,23 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="78"/>
+    <row r="19" spans="1:26" ht="18" customHeight="1">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -1961,41 +2012,27 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="77">
-        <v>42569</v>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A20" s="116" t="s">
+        <v>38</v>
       </c>
+      <c r="B20" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="78"/>
       <c r="D20" s="88"/>
-      <c r="E20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="98">
-        <v>3690.41</v>
-      </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99">
-        <f t="shared" ref="I20" si="2">G20+H20</f>
-        <v>3690.41</v>
-      </c>
-      <c r="J20" s="23">
-        <f t="shared" ref="J20" si="3">G20</f>
-        <v>3690.41</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -2007,23 +2044,41 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
+    <row r="21" spans="1:26" ht="18" customHeight="1">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="77">
+        <v>42569</v>
+      </c>
+      <c r="D21" s="88"/>
+      <c r="E21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="98">
+        <v>3690.41</v>
+      </c>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99">
+        <f t="shared" ref="I21" si="2">G21+H21</f>
+        <v>3690.41</v>
+      </c>
+      <c r="J21" s="23">
+        <f t="shared" ref="J21" si="3">G21</f>
+        <v>3690.41</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -2035,23 +2090,23 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
+    <row r="22" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -2063,37 +2118,23 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="106">
-        <f>SUM(G4:G20)</f>
-        <v>33067.53</v>
-      </c>
-      <c r="H23" s="106">
-        <f>SUM(H4:H20)</f>
-        <v>5875.42</v>
-      </c>
-      <c r="I23" s="106">
-        <f>SUM(I4:I20)</f>
-        <v>38942.949999999997</v>
-      </c>
-      <c r="J23" s="63">
-        <f>SUM(J4:J21)</f>
-        <v>33067.53</v>
-      </c>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="42"/>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
@@ -2105,23 +2146,37 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="69"/>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="106">
+        <f>SUM(G4:G21)</f>
+        <v>33067.53</v>
+      </c>
+      <c r="H24" s="106">
+        <f>SUM(H4:H21)</f>
+        <v>5875.42</v>
+      </c>
+      <c r="I24" s="106">
+        <f>SUM(I4:I21)</f>
+        <v>38942.949999999997</v>
+      </c>
+      <c r="J24" s="63">
+        <f>SUM(J4:J22)</f>
+        <v>33067.53</v>
+      </c>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="42"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
@@ -2133,23 +2188,23 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="42"/>
+    <row r="25" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="69"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -2161,7 +2216,7 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="39"/>
       <c r="C26" s="81"/>
@@ -2189,7 +2244,7 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="39"/>
       <c r="C27" s="81"/>
@@ -2217,7 +2272,7 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="39"/>
       <c r="C28" s="81"/>
@@ -2245,7 +2300,7 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="39"/>
       <c r="C29" s="81"/>
@@ -2273,7 +2328,7 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="39"/>
       <c r="C30" s="81"/>
@@ -2301,7 +2356,7 @@
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
     </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="12.75" customHeight="1">
       <c r="A31" s="27"/>
       <c r="B31" s="39"/>
       <c r="C31" s="81"/>
@@ -2329,7 +2384,7 @@
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
     </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="39"/>
       <c r="C32" s="81"/>
@@ -2357,7 +2412,7 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="12.75" customHeight="1">
       <c r="A33" s="27"/>
       <c r="B33" s="39"/>
       <c r="C33" s="81"/>
@@ -2385,7 +2440,7 @@
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="12.75" customHeight="1">
       <c r="A34" s="27"/>
       <c r="B34" s="39"/>
       <c r="C34" s="81"/>
@@ -2413,7 +2468,7 @@
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="12.75" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="39"/>
       <c r="C35" s="81"/>
@@ -2441,7 +2496,7 @@
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="12.75" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="39"/>
       <c r="C36" s="81"/>
@@ -2469,7 +2524,7 @@
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="12.75" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="39"/>
       <c r="C37" s="81"/>
@@ -2497,7 +2552,7 @@
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
     </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="12.75" customHeight="1">
       <c r="A38" s="27"/>
       <c r="B38" s="39"/>
       <c r="C38" s="81"/>
@@ -2525,7 +2580,7 @@
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
     </row>
-    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="12.75" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="39"/>
       <c r="C39" s="81"/>
@@ -2553,7 +2608,7 @@
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="12.75" customHeight="1">
       <c r="A40" s="27"/>
       <c r="B40" s="39"/>
       <c r="C40" s="81"/>
@@ -2581,7 +2636,7 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
     </row>
-    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="12.75" customHeight="1">
       <c r="A41" s="27"/>
       <c r="B41" s="39"/>
       <c r="C41" s="81"/>
@@ -2609,7 +2664,7 @@
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
     </row>
-    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="12.75" customHeight="1">
       <c r="A42" s="27"/>
       <c r="B42" s="39"/>
       <c r="C42" s="81"/>
@@ -2637,7 +2692,7 @@
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
     </row>
-    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="12.75" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="39"/>
       <c r="C43" s="81"/>
@@ -2665,7 +2720,7 @@
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
     </row>
-    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="12.75" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="39"/>
       <c r="C44" s="81"/>
@@ -2693,7 +2748,7 @@
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
     </row>
-    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="12.75" customHeight="1">
       <c r="A45" s="27"/>
       <c r="B45" s="39"/>
       <c r="C45" s="81"/>
@@ -2721,7 +2776,7 @@
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
     </row>
-    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="12.75" customHeight="1">
       <c r="A46" s="27"/>
       <c r="B46" s="39"/>
       <c r="C46" s="81"/>
@@ -2749,7 +2804,7 @@
       <c r="Y46" s="10"/>
       <c r="Z46" s="10"/>
     </row>
-    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="12.75" customHeight="1">
       <c r="A47" s="27"/>
       <c r="B47" s="39"/>
       <c r="C47" s="81"/>
@@ -2777,7 +2832,7 @@
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
     </row>
-    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="12.75" customHeight="1">
       <c r="A48" s="27"/>
       <c r="B48" s="39"/>
       <c r="C48" s="81"/>
@@ -2805,7 +2860,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="12.75" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="39"/>
       <c r="C49" s="81"/>
@@ -2833,7 +2888,7 @@
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
     </row>
-    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="12.75" customHeight="1">
       <c r="A50" s="27"/>
       <c r="B50" s="39"/>
       <c r="C50" s="81"/>
@@ -2861,7 +2916,7 @@
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
     </row>
-    <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="12.75" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="39"/>
       <c r="C51" s="81"/>
@@ -2889,7 +2944,7 @@
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
     </row>
-    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="12.75" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="39"/>
       <c r="C52" s="81"/>
@@ -2917,7 +2972,7 @@
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
     </row>
-    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="12.75" customHeight="1">
       <c r="A53" s="27"/>
       <c r="B53" s="39"/>
       <c r="C53" s="81"/>
@@ -2945,7 +3000,7 @@
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
     </row>
-    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="12.75" customHeight="1">
       <c r="A54" s="27"/>
       <c r="B54" s="39"/>
       <c r="C54" s="81"/>
@@ -2973,7 +3028,7 @@
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
     </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="12.75" customHeight="1">
       <c r="A55" s="27"/>
       <c r="B55" s="39"/>
       <c r="C55" s="81"/>
@@ -3001,7 +3056,7 @@
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="12.75" customHeight="1">
       <c r="A56" s="27"/>
       <c r="B56" s="39"/>
       <c r="C56" s="81"/>
@@ -3029,7 +3084,7 @@
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="12.75" customHeight="1">
       <c r="A57" s="27"/>
       <c r="B57" s="39"/>
       <c r="C57" s="81"/>
@@ -3057,7 +3112,7 @@
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
     </row>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="12.75" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="39"/>
       <c r="C58" s="81"/>
@@ -3085,7 +3140,7 @@
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
     </row>
-    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="12.75" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="39"/>
       <c r="C59" s="81"/>
@@ -3113,7 +3168,7 @@
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
     </row>
-    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="12.75" customHeight="1">
       <c r="A60" s="27"/>
       <c r="B60" s="39"/>
       <c r="C60" s="81"/>
@@ -3141,7 +3196,7 @@
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
     </row>
-    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="12.75" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="39"/>
       <c r="C61" s="81"/>
@@ -3169,7 +3224,7 @@
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
     </row>
-    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="12.75" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="39"/>
       <c r="C62" s="81"/>
@@ -3197,7 +3252,7 @@
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
     </row>
-    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="12.75" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="39"/>
       <c r="C63" s="81"/>
@@ -3225,7 +3280,7 @@
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
     </row>
-    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="12.75" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="39"/>
       <c r="C64" s="81"/>
@@ -3253,7 +3308,7 @@
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="12.75" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="39"/>
       <c r="C65" s="81"/>
@@ -3281,7 +3336,7 @@
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
     </row>
-    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="12.75" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="39"/>
       <c r="C66" s="81"/>
@@ -3309,7 +3364,7 @@
       <c r="Y66" s="10"/>
       <c r="Z66" s="10"/>
     </row>
-    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="12.75" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="39"/>
       <c r="C67" s="81"/>
@@ -3337,7 +3392,7 @@
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
     </row>
-    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="12.75" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="39"/>
       <c r="C68" s="81"/>
@@ -3365,7 +3420,7 @@
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
     </row>
-    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="12.75" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="39"/>
       <c r="C69" s="81"/>
@@ -3393,7 +3448,7 @@
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
     </row>
-    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="12.75" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="39"/>
       <c r="C70" s="81"/>
@@ -3421,7 +3476,7 @@
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
     </row>
-    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="12.75" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="39"/>
       <c r="C71" s="81"/>
@@ -3449,7 +3504,7 @@
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
     </row>
-    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="12.75" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="39"/>
       <c r="C72" s="81"/>
@@ -3477,7 +3532,7 @@
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
     </row>
-    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="12.75" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="39"/>
       <c r="C73" s="81"/>
@@ -3505,7 +3560,7 @@
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
     </row>
-    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="12.75" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="39"/>
       <c r="C74" s="81"/>
@@ -3533,7 +3588,7 @@
       <c r="Y74" s="10"/>
       <c r="Z74" s="10"/>
     </row>
-    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="12.75" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="39"/>
       <c r="C75" s="81"/>
@@ -3561,7 +3616,7 @@
       <c r="Y75" s="10"/>
       <c r="Z75" s="10"/>
     </row>
-    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="12.75" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="39"/>
       <c r="C76" s="81"/>
@@ -3589,7 +3644,7 @@
       <c r="Y76" s="10"/>
       <c r="Z76" s="10"/>
     </row>
-    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="12.75" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="39"/>
       <c r="C77" s="81"/>
@@ -3617,7 +3672,7 @@
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
     </row>
-    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="12.75" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="39"/>
       <c r="C78" s="81"/>
@@ -3645,7 +3700,7 @@
       <c r="Y78" s="10"/>
       <c r="Z78" s="10"/>
     </row>
-    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="12.75" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="39"/>
       <c r="C79" s="81"/>
@@ -3673,7 +3728,7 @@
       <c r="Y79" s="10"/>
       <c r="Z79" s="10"/>
     </row>
-    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="12.75" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="39"/>
       <c r="C80" s="81"/>
@@ -3701,7 +3756,7 @@
       <c r="Y80" s="10"/>
       <c r="Z80" s="10"/>
     </row>
-    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="12.75" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="39"/>
       <c r="C81" s="81"/>
@@ -3729,7 +3784,7 @@
       <c r="Y81" s="10"/>
       <c r="Z81" s="10"/>
     </row>
-    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="12.75" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="39"/>
       <c r="C82" s="81"/>
@@ -3757,7 +3812,7 @@
       <c r="Y82" s="10"/>
       <c r="Z82" s="10"/>
     </row>
-    <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="12.75" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="39"/>
       <c r="C83" s="81"/>
@@ -3785,7 +3840,7 @@
       <c r="Y83" s="10"/>
       <c r="Z83" s="10"/>
     </row>
-    <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="12.75" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="39"/>
       <c r="C84" s="81"/>
@@ -3813,7 +3868,7 @@
       <c r="Y84" s="10"/>
       <c r="Z84" s="10"/>
     </row>
-    <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="12.75" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="39"/>
       <c r="C85" s="81"/>
@@ -3841,7 +3896,7 @@
       <c r="Y85" s="10"/>
       <c r="Z85" s="10"/>
     </row>
-    <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="12.75" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="39"/>
       <c r="C86" s="81"/>
@@ -3869,7 +3924,7 @@
       <c r="Y86" s="10"/>
       <c r="Z86" s="10"/>
     </row>
-    <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="12.75" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="39"/>
       <c r="C87" s="81"/>
@@ -3897,7 +3952,7 @@
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
     </row>
-    <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="12.75" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="39"/>
       <c r="C88" s="81"/>
@@ -3925,7 +3980,7 @@
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
     </row>
-    <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="12.75" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="39"/>
       <c r="C89" s="81"/>
@@ -3953,7 +4008,7 @@
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
     </row>
-    <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="12.75" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="39"/>
       <c r="C90" s="81"/>
@@ -3981,7 +4036,7 @@
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
     </row>
-    <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="12.75" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="39"/>
       <c r="C91" s="81"/>
@@ -4009,7 +4064,7 @@
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
     </row>
-    <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="12.75" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="39"/>
       <c r="C92" s="81"/>
@@ -4037,7 +4092,7 @@
       <c r="Y92" s="10"/>
       <c r="Z92" s="10"/>
     </row>
-    <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="12.75" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="39"/>
       <c r="C93" s="81"/>
@@ -4065,7 +4120,7 @@
       <c r="Y93" s="10"/>
       <c r="Z93" s="10"/>
     </row>
-    <row r="94" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="12.75" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="39"/>
       <c r="C94" s="81"/>
@@ -4093,7 +4148,7 @@
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
     </row>
-    <row r="95" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="12.75" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="39"/>
       <c r="C95" s="81"/>
@@ -4121,7 +4176,7 @@
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
     </row>
-    <row r="96" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="12.75" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="39"/>
       <c r="C96" s="81"/>
@@ -4149,7 +4204,7 @@
       <c r="Y96" s="10"/>
       <c r="Z96" s="10"/>
     </row>
-    <row r="97" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="12.75" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="39"/>
       <c r="C97" s="81"/>
@@ -4177,7 +4232,7 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="10"/>
     </row>
-    <row r="98" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="12.75" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="39"/>
       <c r="C98" s="81"/>
@@ -4205,7 +4260,7 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="10"/>
     </row>
-    <row r="99" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="12.75" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="39"/>
       <c r="C99" s="81"/>
@@ -4233,7 +4288,7 @@
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
     </row>
-    <row r="100" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="12.75" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="39"/>
       <c r="C100" s="81"/>
@@ -4261,7 +4316,7 @@
       <c r="Y100" s="10"/>
       <c r="Z100" s="10"/>
     </row>
-    <row r="101" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="12.75" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="39"/>
       <c r="C101" s="81"/>
@@ -4289,7 +4344,7 @@
       <c r="Y101" s="10"/>
       <c r="Z101" s="10"/>
     </row>
-    <row r="102" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="12.75" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="39"/>
       <c r="C102" s="81"/>
@@ -4317,7 +4372,7 @@
       <c r="Y102" s="10"/>
       <c r="Z102" s="10"/>
     </row>
-    <row r="103" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="12.75" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="39"/>
       <c r="C103" s="81"/>
@@ -4345,7 +4400,7 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="10"/>
     </row>
-    <row r="104" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="12.75" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="39"/>
       <c r="C104" s="81"/>
@@ -4373,7 +4428,7 @@
       <c r="Y104" s="10"/>
       <c r="Z104" s="10"/>
     </row>
-    <row r="105" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="12.75" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="39"/>
       <c r="C105" s="81"/>
@@ -4401,7 +4456,7 @@
       <c r="Y105" s="10"/>
       <c r="Z105" s="10"/>
     </row>
-    <row r="106" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="12.75" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="39"/>
       <c r="C106" s="81"/>
@@ -4429,7 +4484,7 @@
       <c r="Y106" s="10"/>
       <c r="Z106" s="10"/>
     </row>
-    <row r="107" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="12.75" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="39"/>
       <c r="C107" s="81"/>
@@ -4457,7 +4512,7 @@
       <c r="Y107" s="10"/>
       <c r="Z107" s="10"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="12.75" customHeight="1">
       <c r="A108" s="27"/>
       <c r="B108" s="39"/>
       <c r="C108" s="81"/>
@@ -4485,7 +4540,7 @@
       <c r="Y108" s="10"/>
       <c r="Z108" s="10"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="12.75" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="39"/>
       <c r="C109" s="81"/>
@@ -4513,7 +4568,7 @@
       <c r="Y109" s="10"/>
       <c r="Z109" s="10"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="12.75" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="39"/>
       <c r="C110" s="81"/>
@@ -4541,7 +4596,7 @@
       <c r="Y110" s="10"/>
       <c r="Z110" s="10"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="12.75" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="39"/>
       <c r="C111" s="81"/>
@@ -4569,7 +4624,7 @@
       <c r="Y111" s="10"/>
       <c r="Z111" s="10"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="12.75" customHeight="1">
       <c r="A112" s="27"/>
       <c r="B112" s="39"/>
       <c r="C112" s="81"/>
@@ -4597,7 +4652,7 @@
       <c r="Y112" s="10"/>
       <c r="Z112" s="10"/>
     </row>
-    <row r="113" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="12.75" customHeight="1">
       <c r="A113" s="27"/>
       <c r="B113" s="39"/>
       <c r="C113" s="81"/>
@@ -4625,7 +4680,7 @@
       <c r="Y113" s="10"/>
       <c r="Z113" s="10"/>
     </row>
-    <row r="114" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="12.75" customHeight="1">
       <c r="A114" s="27"/>
       <c r="B114" s="39"/>
       <c r="C114" s="81"/>
@@ -4653,7 +4708,7 @@
       <c r="Y114" s="10"/>
       <c r="Z114" s="10"/>
     </row>
-    <row r="115" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="12.75" customHeight="1">
       <c r="A115" s="27"/>
       <c r="B115" s="39"/>
       <c r="C115" s="81"/>
@@ -4681,7 +4736,7 @@
       <c r="Y115" s="10"/>
       <c r="Z115" s="10"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="12.75" customHeight="1">
       <c r="A116" s="27"/>
       <c r="B116" s="39"/>
       <c r="C116" s="81"/>
@@ -4709,7 +4764,7 @@
       <c r="Y116" s="10"/>
       <c r="Z116" s="10"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="12.75" customHeight="1">
       <c r="A117" s="27"/>
       <c r="B117" s="39"/>
       <c r="C117" s="81"/>
@@ -4737,7 +4792,7 @@
       <c r="Y117" s="10"/>
       <c r="Z117" s="10"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="12.75" customHeight="1">
       <c r="A118" s="27"/>
       <c r="B118" s="39"/>
       <c r="C118" s="81"/>
@@ -4765,7 +4820,7 @@
       <c r="Y118" s="10"/>
       <c r="Z118" s="10"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="12.75" customHeight="1">
       <c r="A119" s="27"/>
       <c r="B119" s="39"/>
       <c r="C119" s="81"/>
@@ -4793,7 +4848,7 @@
       <c r="Y119" s="10"/>
       <c r="Z119" s="10"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="12.75" customHeight="1">
       <c r="A120" s="27"/>
       <c r="B120" s="39"/>
       <c r="C120" s="81"/>
@@ -4821,7 +4876,7 @@
       <c r="Y120" s="10"/>
       <c r="Z120" s="10"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="12.75" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="39"/>
       <c r="C121" s="81"/>
@@ -4849,7 +4904,7 @@
       <c r="Y121" s="10"/>
       <c r="Z121" s="10"/>
     </row>
-    <row r="122" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="12.75" customHeight="1">
       <c r="A122" s="27"/>
       <c r="B122" s="39"/>
       <c r="C122" s="81"/>
@@ -4877,7 +4932,7 @@
       <c r="Y122" s="10"/>
       <c r="Z122" s="10"/>
     </row>
-    <row r="123" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="12.75" customHeight="1">
       <c r="A123" s="27"/>
       <c r="B123" s="39"/>
       <c r="C123" s="81"/>
@@ -4905,7 +4960,7 @@
       <c r="Y123" s="10"/>
       <c r="Z123" s="10"/>
     </row>
-    <row r="124" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="12.75" customHeight="1">
       <c r="A124" s="27"/>
       <c r="B124" s="39"/>
       <c r="C124" s="81"/>
@@ -4933,7 +4988,7 @@
       <c r="Y124" s="10"/>
       <c r="Z124" s="10"/>
     </row>
-    <row r="125" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="12.75" customHeight="1">
       <c r="A125" s="27"/>
       <c r="B125" s="39"/>
       <c r="C125" s="81"/>
@@ -4961,7 +5016,7 @@
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
     </row>
-    <row r="126" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="12.75" customHeight="1">
       <c r="A126" s="27"/>
       <c r="B126" s="39"/>
       <c r="C126" s="81"/>
@@ -4989,7 +5044,7 @@
       <c r="Y126" s="10"/>
       <c r="Z126" s="10"/>
     </row>
-    <row r="127" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="12.75" customHeight="1">
       <c r="A127" s="27"/>
       <c r="B127" s="39"/>
       <c r="C127" s="81"/>
@@ -5017,7 +5072,7 @@
       <c r="Y127" s="10"/>
       <c r="Z127" s="10"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="12.75" customHeight="1">
       <c r="A128" s="27"/>
       <c r="B128" s="39"/>
       <c r="C128" s="81"/>
@@ -5045,7 +5100,7 @@
       <c r="Y128" s="10"/>
       <c r="Z128" s="10"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="12.75" customHeight="1">
       <c r="A129" s="27"/>
       <c r="B129" s="39"/>
       <c r="C129" s="81"/>
@@ -5073,7 +5128,7 @@
       <c r="Y129" s="10"/>
       <c r="Z129" s="10"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="12.75" customHeight="1">
       <c r="A130" s="27"/>
       <c r="B130" s="39"/>
       <c r="C130" s="81"/>
@@ -5101,7 +5156,7 @@
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="12.75" customHeight="1">
       <c r="A131" s="27"/>
       <c r="B131" s="39"/>
       <c r="C131" s="81"/>
@@ -5129,7 +5184,7 @@
       <c r="Y131" s="10"/>
       <c r="Z131" s="10"/>
     </row>
-    <row r="132" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="12.75" customHeight="1">
       <c r="A132" s="27"/>
       <c r="B132" s="39"/>
       <c r="C132" s="81"/>
@@ -5157,7 +5212,7 @@
       <c r="Y132" s="10"/>
       <c r="Z132" s="10"/>
     </row>
-    <row r="133" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="12.75" customHeight="1">
       <c r="A133" s="27"/>
       <c r="B133" s="39"/>
       <c r="C133" s="81"/>
@@ -5185,7 +5240,7 @@
       <c r="Y133" s="10"/>
       <c r="Z133" s="10"/>
     </row>
-    <row r="134" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="12.75" customHeight="1">
       <c r="A134" s="27"/>
       <c r="B134" s="39"/>
       <c r="C134" s="81"/>
@@ -5213,7 +5268,7 @@
       <c r="Y134" s="10"/>
       <c r="Z134" s="10"/>
     </row>
-    <row r="135" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="12.75" customHeight="1">
       <c r="A135" s="27"/>
       <c r="B135" s="39"/>
       <c r="C135" s="81"/>
@@ -5241,7 +5296,7 @@
       <c r="Y135" s="10"/>
       <c r="Z135" s="10"/>
     </row>
-    <row r="136" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="12.75" customHeight="1">
       <c r="A136" s="27"/>
       <c r="B136" s="39"/>
       <c r="C136" s="81"/>
@@ -5269,7 +5324,7 @@
       <c r="Y136" s="10"/>
       <c r="Z136" s="10"/>
     </row>
-    <row r="137" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="12.75" customHeight="1">
       <c r="A137" s="27"/>
       <c r="B137" s="39"/>
       <c r="C137" s="81"/>
@@ -5297,7 +5352,7 @@
       <c r="Y137" s="10"/>
       <c r="Z137" s="10"/>
     </row>
-    <row r="138" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="12.75" customHeight="1">
       <c r="A138" s="27"/>
       <c r="B138" s="39"/>
       <c r="C138" s="81"/>
@@ -5325,7 +5380,7 @@
       <c r="Y138" s="10"/>
       <c r="Z138" s="10"/>
     </row>
-    <row r="139" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="12.75" customHeight="1">
       <c r="A139" s="27"/>
       <c r="B139" s="39"/>
       <c r="C139" s="81"/>
@@ -5353,7 +5408,7 @@
       <c r="Y139" s="10"/>
       <c r="Z139" s="10"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="12.75" customHeight="1">
       <c r="A140" s="27"/>
       <c r="B140" s="39"/>
       <c r="C140" s="81"/>
@@ -5381,7 +5436,7 @@
       <c r="Y140" s="10"/>
       <c r="Z140" s="10"/>
     </row>
-    <row r="141" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="12.75" customHeight="1">
       <c r="A141" s="27"/>
       <c r="B141" s="39"/>
       <c r="C141" s="81"/>
@@ -5409,7 +5464,7 @@
       <c r="Y141" s="10"/>
       <c r="Z141" s="10"/>
     </row>
-    <row r="142" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="12.75" customHeight="1">
       <c r="A142" s="27"/>
       <c r="B142" s="39"/>
       <c r="C142" s="81"/>
@@ -5437,7 +5492,7 @@
       <c r="Y142" s="10"/>
       <c r="Z142" s="10"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="12.75" customHeight="1">
       <c r="A143" s="27"/>
       <c r="B143" s="39"/>
       <c r="C143" s="81"/>
@@ -5465,7 +5520,7 @@
       <c r="Y143" s="10"/>
       <c r="Z143" s="10"/>
     </row>
-    <row r="144" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="12.75" customHeight="1">
       <c r="A144" s="27"/>
       <c r="B144" s="39"/>
       <c r="C144" s="81"/>
@@ -5493,7 +5548,7 @@
       <c r="Y144" s="10"/>
       <c r="Z144" s="10"/>
     </row>
-    <row r="145" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="12.75" customHeight="1">
       <c r="A145" s="27"/>
       <c r="B145" s="39"/>
       <c r="C145" s="81"/>
@@ -5521,7 +5576,7 @@
       <c r="Y145" s="10"/>
       <c r="Z145" s="10"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="12.75" customHeight="1">
       <c r="A146" s="27"/>
       <c r="B146" s="39"/>
       <c r="C146" s="81"/>
@@ -5549,7 +5604,7 @@
       <c r="Y146" s="10"/>
       <c r="Z146" s="10"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="12.75" customHeight="1">
       <c r="A147" s="27"/>
       <c r="B147" s="39"/>
       <c r="C147" s="81"/>
@@ -5577,7 +5632,7 @@
       <c r="Y147" s="10"/>
       <c r="Z147" s="10"/>
     </row>
-    <row r="148" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="12.75" customHeight="1">
       <c r="A148" s="27"/>
       <c r="B148" s="39"/>
       <c r="C148" s="81"/>
@@ -5605,7 +5660,7 @@
       <c r="Y148" s="10"/>
       <c r="Z148" s="10"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="12.75" customHeight="1">
       <c r="A149" s="27"/>
       <c r="B149" s="39"/>
       <c r="C149" s="81"/>
@@ -5633,7 +5688,7 @@
       <c r="Y149" s="10"/>
       <c r="Z149" s="10"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="12.75" customHeight="1">
       <c r="A150" s="27"/>
       <c r="B150" s="39"/>
       <c r="C150" s="81"/>
@@ -5661,7 +5716,7 @@
       <c r="Y150" s="10"/>
       <c r="Z150" s="10"/>
     </row>
-    <row r="151" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="12.75" customHeight="1">
       <c r="A151" s="27"/>
       <c r="B151" s="39"/>
       <c r="C151" s="81"/>
@@ -5689,7 +5744,7 @@
       <c r="Y151" s="10"/>
       <c r="Z151" s="10"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="12.75" customHeight="1">
       <c r="A152" s="27"/>
       <c r="B152" s="39"/>
       <c r="C152" s="81"/>
@@ -5717,7 +5772,7 @@
       <c r="Y152" s="10"/>
       <c r="Z152" s="10"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="12.75" customHeight="1">
       <c r="A153" s="27"/>
       <c r="B153" s="39"/>
       <c r="C153" s="81"/>
@@ -5745,7 +5800,7 @@
       <c r="Y153" s="10"/>
       <c r="Z153" s="10"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="12.75" customHeight="1">
       <c r="A154" s="27"/>
       <c r="B154" s="39"/>
       <c r="C154" s="81"/>
@@ -5773,7 +5828,7 @@
       <c r="Y154" s="10"/>
       <c r="Z154" s="10"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="12.75" customHeight="1">
       <c r="A155" s="27"/>
       <c r="B155" s="39"/>
       <c r="C155" s="81"/>
@@ -5801,7 +5856,7 @@
       <c r="Y155" s="10"/>
       <c r="Z155" s="10"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="12.75" customHeight="1">
       <c r="A156" s="27"/>
       <c r="B156" s="39"/>
       <c r="C156" s="81"/>
@@ -5829,7 +5884,7 @@
       <c r="Y156" s="10"/>
       <c r="Z156" s="10"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="12.75" customHeight="1">
       <c r="A157" s="27"/>
       <c r="B157" s="39"/>
       <c r="C157" s="81"/>
@@ -5857,7 +5912,7 @@
       <c r="Y157" s="10"/>
       <c r="Z157" s="10"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="12.75" customHeight="1">
       <c r="A158" s="27"/>
       <c r="B158" s="39"/>
       <c r="C158" s="81"/>
@@ -5885,7 +5940,7 @@
       <c r="Y158" s="10"/>
       <c r="Z158" s="10"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="12.75" customHeight="1">
       <c r="A159" s="27"/>
       <c r="B159" s="39"/>
       <c r="C159" s="81"/>
@@ -5913,7 +5968,7 @@
       <c r="Y159" s="10"/>
       <c r="Z159" s="10"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="12.75" customHeight="1">
       <c r="A160" s="27"/>
       <c r="B160" s="39"/>
       <c r="C160" s="81"/>
@@ -5941,7 +5996,7 @@
       <c r="Y160" s="10"/>
       <c r="Z160" s="10"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="12.75" customHeight="1">
       <c r="A161" s="27"/>
       <c r="B161" s="39"/>
       <c r="C161" s="81"/>
@@ -5969,7 +6024,7 @@
       <c r="Y161" s="10"/>
       <c r="Z161" s="10"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="12.75" customHeight="1">
       <c r="A162" s="27"/>
       <c r="B162" s="39"/>
       <c r="C162" s="81"/>
@@ -5997,7 +6052,7 @@
       <c r="Y162" s="10"/>
       <c r="Z162" s="10"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="12.75" customHeight="1">
       <c r="A163" s="27"/>
       <c r="B163" s="39"/>
       <c r="C163" s="81"/>
@@ -6025,7 +6080,7 @@
       <c r="Y163" s="10"/>
       <c r="Z163" s="10"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="12.75" customHeight="1">
       <c r="A164" s="27"/>
       <c r="B164" s="39"/>
       <c r="C164" s="81"/>
@@ -6053,7 +6108,7 @@
       <c r="Y164" s="10"/>
       <c r="Z164" s="10"/>
     </row>
-    <row r="165" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="12.75" customHeight="1">
       <c r="A165" s="27"/>
       <c r="B165" s="39"/>
       <c r="C165" s="81"/>
@@ -6081,7 +6136,7 @@
       <c r="Y165" s="10"/>
       <c r="Z165" s="10"/>
     </row>
-    <row r="166" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="12.75" customHeight="1">
       <c r="A166" s="27"/>
       <c r="B166" s="39"/>
       <c r="C166" s="81"/>
@@ -6109,7 +6164,7 @@
       <c r="Y166" s="10"/>
       <c r="Z166" s="10"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="12.75" customHeight="1">
       <c r="A167" s="27"/>
       <c r="B167" s="39"/>
       <c r="C167" s="81"/>
@@ -6137,7 +6192,7 @@
       <c r="Y167" s="10"/>
       <c r="Z167" s="10"/>
     </row>
-    <row r="168" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="12.75" customHeight="1">
       <c r="A168" s="27"/>
       <c r="B168" s="39"/>
       <c r="C168" s="81"/>
@@ -6165,7 +6220,7 @@
       <c r="Y168" s="10"/>
       <c r="Z168" s="10"/>
     </row>
-    <row r="169" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="12.75" customHeight="1">
       <c r="A169" s="27"/>
       <c r="B169" s="39"/>
       <c r="C169" s="81"/>
@@ -6193,7 +6248,7 @@
       <c r="Y169" s="10"/>
       <c r="Z169" s="10"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="12.75" customHeight="1">
       <c r="A170" s="27"/>
       <c r="B170" s="39"/>
       <c r="C170" s="81"/>
@@ -6221,7 +6276,7 @@
       <c r="Y170" s="10"/>
       <c r="Z170" s="10"/>
     </row>
-    <row r="171" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="12.75" customHeight="1">
       <c r="A171" s="27"/>
       <c r="B171" s="39"/>
       <c r="C171" s="81"/>
@@ -6249,7 +6304,7 @@
       <c r="Y171" s="10"/>
       <c r="Z171" s="10"/>
     </row>
-    <row r="172" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="12.75" customHeight="1">
       <c r="A172" s="27"/>
       <c r="B172" s="39"/>
       <c r="C172" s="81"/>
@@ -6277,7 +6332,7 @@
       <c r="Y172" s="10"/>
       <c r="Z172" s="10"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="12.75" customHeight="1">
       <c r="A173" s="27"/>
       <c r="B173" s="39"/>
       <c r="C173" s="81"/>
@@ -6305,7 +6360,7 @@
       <c r="Y173" s="10"/>
       <c r="Z173" s="10"/>
     </row>
-    <row r="174" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="12.75" customHeight="1">
       <c r="A174" s="27"/>
       <c r="B174" s="39"/>
       <c r="C174" s="81"/>
@@ -6333,7 +6388,7 @@
       <c r="Y174" s="10"/>
       <c r="Z174" s="10"/>
     </row>
-    <row r="175" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="12.75" customHeight="1">
       <c r="A175" s="27"/>
       <c r="B175" s="39"/>
       <c r="C175" s="81"/>
@@ -6361,7 +6416,7 @@
       <c r="Y175" s="10"/>
       <c r="Z175" s="10"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="12.75" customHeight="1">
       <c r="A176" s="27"/>
       <c r="B176" s="39"/>
       <c r="C176" s="81"/>
@@ -6389,7 +6444,7 @@
       <c r="Y176" s="10"/>
       <c r="Z176" s="10"/>
     </row>
-    <row r="177" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="12.75" customHeight="1">
       <c r="A177" s="27"/>
       <c r="B177" s="39"/>
       <c r="C177" s="81"/>
@@ -6417,7 +6472,7 @@
       <c r="Y177" s="10"/>
       <c r="Z177" s="10"/>
     </row>
-    <row r="178" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="12.75" customHeight="1">
       <c r="A178" s="27"/>
       <c r="B178" s="39"/>
       <c r="C178" s="81"/>
@@ -6445,7 +6500,7 @@
       <c r="Y178" s="10"/>
       <c r="Z178" s="10"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="12.75" customHeight="1">
       <c r="A179" s="27"/>
       <c r="B179" s="39"/>
       <c r="C179" s="81"/>
@@ -6473,7 +6528,7 @@
       <c r="Y179" s="10"/>
       <c r="Z179" s="10"/>
     </row>
-    <row r="180" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="12.75" customHeight="1">
       <c r="A180" s="27"/>
       <c r="B180" s="39"/>
       <c r="C180" s="81"/>
@@ -6501,7 +6556,7 @@
       <c r="Y180" s="10"/>
       <c r="Z180" s="10"/>
     </row>
-    <row r="181" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="12.75" customHeight="1">
       <c r="A181" s="27"/>
       <c r="B181" s="39"/>
       <c r="C181" s="81"/>
@@ -6529,7 +6584,7 @@
       <c r="Y181" s="10"/>
       <c r="Z181" s="10"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="12.75" customHeight="1">
       <c r="A182" s="27"/>
       <c r="B182" s="39"/>
       <c r="C182" s="81"/>
@@ -6557,7 +6612,7 @@
       <c r="Y182" s="10"/>
       <c r="Z182" s="10"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="12.75" customHeight="1">
       <c r="A183" s="27"/>
       <c r="B183" s="39"/>
       <c r="C183" s="81"/>
@@ -6585,7 +6640,7 @@
       <c r="Y183" s="10"/>
       <c r="Z183" s="10"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="12.75" customHeight="1">
       <c r="A184" s="27"/>
       <c r="B184" s="39"/>
       <c r="C184" s="81"/>
@@ -6613,7 +6668,7 @@
       <c r="Y184" s="10"/>
       <c r="Z184" s="10"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="12.75" customHeight="1">
       <c r="A185" s="27"/>
       <c r="B185" s="39"/>
       <c r="C185" s="81"/>
@@ -6641,7 +6696,7 @@
       <c r="Y185" s="10"/>
       <c r="Z185" s="10"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="12.75" customHeight="1">
       <c r="A186" s="27"/>
       <c r="B186" s="39"/>
       <c r="C186" s="81"/>
@@ -6669,7 +6724,7 @@
       <c r="Y186" s="10"/>
       <c r="Z186" s="10"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="12.75" customHeight="1">
       <c r="A187" s="27"/>
       <c r="B187" s="39"/>
       <c r="C187" s="81"/>
@@ -6697,7 +6752,7 @@
       <c r="Y187" s="10"/>
       <c r="Z187" s="10"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="12.75" customHeight="1">
       <c r="A188" s="27"/>
       <c r="B188" s="39"/>
       <c r="C188" s="81"/>
@@ -6725,7 +6780,7 @@
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="12.75" customHeight="1">
       <c r="A189" s="27"/>
       <c r="B189" s="39"/>
       <c r="C189" s="81"/>
@@ -6753,7 +6808,7 @@
       <c r="Y189" s="10"/>
       <c r="Z189" s="10"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="12.75" customHeight="1">
       <c r="A190" s="27"/>
       <c r="B190" s="39"/>
       <c r="C190" s="81"/>
@@ -6781,7 +6836,7 @@
       <c r="Y190" s="10"/>
       <c r="Z190" s="10"/>
     </row>
-    <row r="191" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="12.75" customHeight="1">
       <c r="A191" s="27"/>
       <c r="B191" s="39"/>
       <c r="C191" s="81"/>
@@ -6809,7 +6864,7 @@
       <c r="Y191" s="10"/>
       <c r="Z191" s="10"/>
     </row>
-    <row r="192" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="12.75" customHeight="1">
       <c r="A192" s="27"/>
       <c r="B192" s="39"/>
       <c r="C192" s="81"/>
@@ -6837,7 +6892,7 @@
       <c r="Y192" s="10"/>
       <c r="Z192" s="10"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="12.75" customHeight="1">
       <c r="A193" s="27"/>
       <c r="B193" s="39"/>
       <c r="C193" s="81"/>
@@ -6865,7 +6920,7 @@
       <c r="Y193" s="10"/>
       <c r="Z193" s="10"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="12.75" customHeight="1">
       <c r="A194" s="27"/>
       <c r="B194" s="39"/>
       <c r="C194" s="81"/>
@@ -6893,7 +6948,7 @@
       <c r="Y194" s="10"/>
       <c r="Z194" s="10"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="12.75" customHeight="1">
       <c r="A195" s="27"/>
       <c r="B195" s="39"/>
       <c r="C195" s="81"/>
@@ -6921,7 +6976,7 @@
       <c r="Y195" s="10"/>
       <c r="Z195" s="10"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="12.75" customHeight="1">
       <c r="A196" s="27"/>
       <c r="B196" s="39"/>
       <c r="C196" s="81"/>
@@ -6949,7 +7004,7 @@
       <c r="Y196" s="10"/>
       <c r="Z196" s="10"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="12.75" customHeight="1">
       <c r="A197" s="27"/>
       <c r="B197" s="39"/>
       <c r="C197" s="81"/>
@@ -6977,7 +7032,7 @@
       <c r="Y197" s="10"/>
       <c r="Z197" s="10"/>
     </row>
-    <row r="198" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="12.75" customHeight="1">
       <c r="A198" s="27"/>
       <c r="B198" s="39"/>
       <c r="C198" s="81"/>
@@ -7005,7 +7060,7 @@
       <c r="Y198" s="10"/>
       <c r="Z198" s="10"/>
     </row>
-    <row r="199" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="12.75" customHeight="1">
       <c r="A199" s="27"/>
       <c r="B199" s="39"/>
       <c r="C199" s="81"/>
@@ -7033,7 +7088,7 @@
       <c r="Y199" s="10"/>
       <c r="Z199" s="10"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="12.75" customHeight="1">
       <c r="A200" s="27"/>
       <c r="B200" s="39"/>
       <c r="C200" s="81"/>
@@ -7061,7 +7116,7 @@
       <c r="Y200" s="10"/>
       <c r="Z200" s="10"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="12.75" customHeight="1">
       <c r="A201" s="27"/>
       <c r="B201" s="39"/>
       <c r="C201" s="81"/>
@@ -7089,7 +7144,7 @@
       <c r="Y201" s="10"/>
       <c r="Z201" s="10"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="12.75" customHeight="1">
       <c r="A202" s="27"/>
       <c r="B202" s="39"/>
       <c r="C202" s="81"/>
@@ -7117,7 +7172,7 @@
       <c r="Y202" s="10"/>
       <c r="Z202" s="10"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="12.75" customHeight="1">
       <c r="A203" s="27"/>
       <c r="B203" s="39"/>
       <c r="C203" s="81"/>
@@ -7145,7 +7200,7 @@
       <c r="Y203" s="10"/>
       <c r="Z203" s="10"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="12.75" customHeight="1">
       <c r="A204" s="27"/>
       <c r="B204" s="39"/>
       <c r="C204" s="81"/>
@@ -7173,7 +7228,7 @@
       <c r="Y204" s="10"/>
       <c r="Z204" s="10"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="12.75" customHeight="1">
       <c r="A205" s="27"/>
       <c r="B205" s="39"/>
       <c r="C205" s="81"/>
@@ -7201,7 +7256,7 @@
       <c r="Y205" s="10"/>
       <c r="Z205" s="10"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="12.75" customHeight="1">
       <c r="A206" s="27"/>
       <c r="B206" s="39"/>
       <c r="C206" s="81"/>
@@ -7229,7 +7284,7 @@
       <c r="Y206" s="10"/>
       <c r="Z206" s="10"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="12.75" customHeight="1">
       <c r="A207" s="27"/>
       <c r="B207" s="39"/>
       <c r="C207" s="81"/>
@@ -7257,7 +7312,7 @@
       <c r="Y207" s="10"/>
       <c r="Z207" s="10"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="12.75" customHeight="1">
       <c r="A208" s="27"/>
       <c r="B208" s="39"/>
       <c r="C208" s="81"/>
@@ -7285,7 +7340,7 @@
       <c r="Y208" s="10"/>
       <c r="Z208" s="10"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="12.75" customHeight="1">
       <c r="A209" s="27"/>
       <c r="B209" s="39"/>
       <c r="C209" s="81"/>
@@ -7313,7 +7368,7 @@
       <c r="Y209" s="10"/>
       <c r="Z209" s="10"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="12.75" customHeight="1">
       <c r="A210" s="27"/>
       <c r="B210" s="39"/>
       <c r="C210" s="81"/>
@@ -7341,7 +7396,7 @@
       <c r="Y210" s="10"/>
       <c r="Z210" s="10"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="12.75" customHeight="1">
       <c r="A211" s="27"/>
       <c r="B211" s="39"/>
       <c r="C211" s="81"/>
@@ -7369,7 +7424,7 @@
       <c r="Y211" s="10"/>
       <c r="Z211" s="10"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="12.75" customHeight="1">
       <c r="A212" s="27"/>
       <c r="B212" s="39"/>
       <c r="C212" s="81"/>
@@ -7397,7 +7452,7 @@
       <c r="Y212" s="10"/>
       <c r="Z212" s="10"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="12.75" customHeight="1">
       <c r="A213" s="27"/>
       <c r="B213" s="39"/>
       <c r="C213" s="81"/>
@@ -7425,7 +7480,7 @@
       <c r="Y213" s="10"/>
       <c r="Z213" s="10"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="12.75" customHeight="1">
       <c r="A214" s="27"/>
       <c r="B214" s="39"/>
       <c r="C214" s="81"/>
@@ -7453,7 +7508,7 @@
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="12.75" customHeight="1">
       <c r="A215" s="27"/>
       <c r="B215" s="39"/>
       <c r="C215" s="81"/>
@@ -7481,7 +7536,7 @@
       <c r="Y215" s="10"/>
       <c r="Z215" s="10"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="12.75" customHeight="1">
       <c r="A216" s="27"/>
       <c r="B216" s="39"/>
       <c r="C216" s="81"/>
@@ -7509,7 +7564,7 @@
       <c r="Y216" s="10"/>
       <c r="Z216" s="10"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="12.75" customHeight="1">
       <c r="A217" s="27"/>
       <c r="B217" s="39"/>
       <c r="C217" s="81"/>
@@ -7537,7 +7592,7 @@
       <c r="Y217" s="10"/>
       <c r="Z217" s="10"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="12.75" customHeight="1">
       <c r="A218" s="27"/>
       <c r="B218" s="39"/>
       <c r="C218" s="81"/>
@@ -7565,7 +7620,7 @@
       <c r="Y218" s="10"/>
       <c r="Z218" s="10"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="12.75" customHeight="1">
       <c r="A219" s="27"/>
       <c r="B219" s="39"/>
       <c r="C219" s="81"/>
@@ -7593,7 +7648,7 @@
       <c r="Y219" s="10"/>
       <c r="Z219" s="10"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="12.75" customHeight="1">
       <c r="A220" s="27"/>
       <c r="B220" s="39"/>
       <c r="C220" s="81"/>
@@ -7621,7 +7676,7 @@
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="12.75" customHeight="1">
       <c r="A221" s="27"/>
       <c r="B221" s="39"/>
       <c r="C221" s="81"/>
@@ -7649,7 +7704,7 @@
       <c r="Y221" s="10"/>
       <c r="Z221" s="10"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="12.75" customHeight="1">
       <c r="A222" s="27"/>
       <c r="B222" s="39"/>
       <c r="C222" s="81"/>
@@ -7677,7 +7732,7 @@
       <c r="Y222" s="10"/>
       <c r="Z222" s="10"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="12.75" customHeight="1">
       <c r="A223" s="27"/>
       <c r="B223" s="39"/>
       <c r="C223" s="81"/>
@@ -7705,7 +7760,7 @@
       <c r="Y223" s="10"/>
       <c r="Z223" s="10"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="12.75" customHeight="1">
       <c r="A224" s="27"/>
       <c r="B224" s="39"/>
       <c r="C224" s="81"/>
@@ -7733,7 +7788,7 @@
       <c r="Y224" s="10"/>
       <c r="Z224" s="10"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="12.75" customHeight="1">
       <c r="A225" s="27"/>
       <c r="B225" s="39"/>
       <c r="C225" s="81"/>
@@ -7761,7 +7816,7 @@
       <c r="Y225" s="10"/>
       <c r="Z225" s="10"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="12.75" customHeight="1">
       <c r="A226" s="27"/>
       <c r="B226" s="39"/>
       <c r="C226" s="81"/>
@@ -7789,7 +7844,7 @@
       <c r="Y226" s="10"/>
       <c r="Z226" s="10"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="12.75" customHeight="1">
       <c r="A227" s="27"/>
       <c r="B227" s="39"/>
       <c r="C227" s="81"/>
@@ -7817,7 +7872,7 @@
       <c r="Y227" s="10"/>
       <c r="Z227" s="10"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="12.75" customHeight="1">
       <c r="A228" s="27"/>
       <c r="B228" s="39"/>
       <c r="C228" s="81"/>
@@ -7845,7 +7900,7 @@
       <c r="Y228" s="10"/>
       <c r="Z228" s="10"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="12.75" customHeight="1">
       <c r="A229" s="27"/>
       <c r="B229" s="39"/>
       <c r="C229" s="81"/>
@@ -7873,7 +7928,7 @@
       <c r="Y229" s="10"/>
       <c r="Z229" s="10"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="12.75" customHeight="1">
       <c r="A230" s="27"/>
       <c r="B230" s="39"/>
       <c r="C230" s="81"/>
@@ -7901,7 +7956,7 @@
       <c r="Y230" s="10"/>
       <c r="Z230" s="10"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="12.75" customHeight="1">
       <c r="A231" s="27"/>
       <c r="B231" s="39"/>
       <c r="C231" s="81"/>
@@ -7929,7 +7984,7 @@
       <c r="Y231" s="10"/>
       <c r="Z231" s="10"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="12.75" customHeight="1">
       <c r="A232" s="27"/>
       <c r="B232" s="39"/>
       <c r="C232" s="81"/>
@@ -7957,7 +8012,7 @@
       <c r="Y232" s="10"/>
       <c r="Z232" s="10"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="12.75" customHeight="1">
       <c r="A233" s="27"/>
       <c r="B233" s="39"/>
       <c r="C233" s="81"/>
@@ -7985,7 +8040,7 @@
       <c r="Y233" s="10"/>
       <c r="Z233" s="10"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="12.75" customHeight="1">
       <c r="A234" s="27"/>
       <c r="B234" s="39"/>
       <c r="C234" s="81"/>
@@ -8013,7 +8068,7 @@
       <c r="Y234" s="10"/>
       <c r="Z234" s="10"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="12.75" customHeight="1">
       <c r="A235" s="27"/>
       <c r="B235" s="39"/>
       <c r="C235" s="81"/>
@@ -8041,7 +8096,7 @@
       <c r="Y235" s="10"/>
       <c r="Z235" s="10"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="12.75" customHeight="1">
       <c r="A236" s="27"/>
       <c r="B236" s="39"/>
       <c r="C236" s="81"/>
@@ -8069,7 +8124,7 @@
       <c r="Y236" s="10"/>
       <c r="Z236" s="10"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="12.75" customHeight="1">
       <c r="A237" s="27"/>
       <c r="B237" s="39"/>
       <c r="C237" s="81"/>
@@ -8097,7 +8152,7 @@
       <c r="Y237" s="10"/>
       <c r="Z237" s="10"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="12.75" customHeight="1">
       <c r="A238" s="27"/>
       <c r="B238" s="39"/>
       <c r="C238" s="81"/>
@@ -8125,7 +8180,7 @@
       <c r="Y238" s="10"/>
       <c r="Z238" s="10"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="12.75" customHeight="1">
       <c r="A239" s="27"/>
       <c r="B239" s="39"/>
       <c r="C239" s="81"/>
@@ -8153,7 +8208,7 @@
       <c r="Y239" s="10"/>
       <c r="Z239" s="10"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="12.75" customHeight="1">
       <c r="A240" s="27"/>
       <c r="B240" s="39"/>
       <c r="C240" s="81"/>
@@ -8181,7 +8236,7 @@
       <c r="Y240" s="10"/>
       <c r="Z240" s="10"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="12.75" customHeight="1">
       <c r="A241" s="27"/>
       <c r="B241" s="39"/>
       <c r="C241" s="81"/>
@@ -8209,7 +8264,7 @@
       <c r="Y241" s="10"/>
       <c r="Z241" s="10"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="12.75" customHeight="1">
       <c r="A242" s="27"/>
       <c r="B242" s="39"/>
       <c r="C242" s="81"/>
@@ -8237,7 +8292,7 @@
       <c r="Y242" s="10"/>
       <c r="Z242" s="10"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="12.75" customHeight="1">
       <c r="A243" s="27"/>
       <c r="B243" s="39"/>
       <c r="C243" s="81"/>
@@ -8265,7 +8320,7 @@
       <c r="Y243" s="10"/>
       <c r="Z243" s="10"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="12.75" customHeight="1">
       <c r="A244" s="27"/>
       <c r="B244" s="39"/>
       <c r="C244" s="81"/>
@@ -8293,7 +8348,7 @@
       <c r="Y244" s="10"/>
       <c r="Z244" s="10"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="12.75" customHeight="1">
       <c r="A245" s="27"/>
       <c r="B245" s="39"/>
       <c r="C245" s="81"/>
@@ -8321,7 +8376,7 @@
       <c r="Y245" s="10"/>
       <c r="Z245" s="10"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="12.75" customHeight="1">
       <c r="A246" s="27"/>
       <c r="B246" s="39"/>
       <c r="C246" s="81"/>
@@ -8349,7 +8404,7 @@
       <c r="Y246" s="10"/>
       <c r="Z246" s="10"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="12.75" customHeight="1">
       <c r="A247" s="27"/>
       <c r="B247" s="39"/>
       <c r="C247" s="81"/>
@@ -8377,7 +8432,7 @@
       <c r="Y247" s="10"/>
       <c r="Z247" s="10"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="12.75" customHeight="1">
       <c r="A248" s="27"/>
       <c r="B248" s="39"/>
       <c r="C248" s="81"/>
@@ -8405,7 +8460,7 @@
       <c r="Y248" s="10"/>
       <c r="Z248" s="10"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="12.75" customHeight="1">
       <c r="A249" s="27"/>
       <c r="B249" s="39"/>
       <c r="C249" s="81"/>
@@ -8433,7 +8488,7 @@
       <c r="Y249" s="10"/>
       <c r="Z249" s="10"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="12.75" customHeight="1">
       <c r="A250" s="27"/>
       <c r="B250" s="39"/>
       <c r="C250" s="81"/>
@@ -8461,7 +8516,7 @@
       <c r="Y250" s="10"/>
       <c r="Z250" s="10"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="12.75" customHeight="1">
       <c r="A251" s="27"/>
       <c r="B251" s="39"/>
       <c r="C251" s="81"/>
@@ -8489,7 +8544,7 @@
       <c r="Y251" s="10"/>
       <c r="Z251" s="10"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="12.75" customHeight="1">
       <c r="A252" s="27"/>
       <c r="B252" s="39"/>
       <c r="C252" s="81"/>
@@ -8517,7 +8572,7 @@
       <c r="Y252" s="10"/>
       <c r="Z252" s="10"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="12.75" customHeight="1">
       <c r="A253" s="27"/>
       <c r="B253" s="39"/>
       <c r="C253" s="81"/>
@@ -8545,7 +8600,7 @@
       <c r="Y253" s="10"/>
       <c r="Z253" s="10"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="12.75" customHeight="1">
       <c r="A254" s="27"/>
       <c r="B254" s="39"/>
       <c r="C254" s="81"/>
@@ -8573,7 +8628,7 @@
       <c r="Y254" s="10"/>
       <c r="Z254" s="10"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="12.75" customHeight="1">
       <c r="A255" s="27"/>
       <c r="B255" s="39"/>
       <c r="C255" s="81"/>
@@ -8601,7 +8656,7 @@
       <c r="Y255" s="10"/>
       <c r="Z255" s="10"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="12.75" customHeight="1">
       <c r="A256" s="27"/>
       <c r="B256" s="39"/>
       <c r="C256" s="81"/>
@@ -8629,7 +8684,7 @@
       <c r="Y256" s="10"/>
       <c r="Z256" s="10"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="12.75" customHeight="1">
       <c r="A257" s="27"/>
       <c r="B257" s="39"/>
       <c r="C257" s="81"/>
@@ -8657,7 +8712,7 @@
       <c r="Y257" s="10"/>
       <c r="Z257" s="10"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="12.75" customHeight="1">
       <c r="A258" s="27"/>
       <c r="B258" s="39"/>
       <c r="C258" s="81"/>
@@ -8685,7 +8740,7 @@
       <c r="Y258" s="10"/>
       <c r="Z258" s="10"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="12.75" customHeight="1">
       <c r="A259" s="27"/>
       <c r="B259" s="39"/>
       <c r="C259" s="81"/>
@@ -8713,7 +8768,7 @@
       <c r="Y259" s="10"/>
       <c r="Z259" s="10"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="12.75" customHeight="1">
       <c r="A260" s="27"/>
       <c r="B260" s="39"/>
       <c r="C260" s="81"/>
@@ -8741,7 +8796,7 @@
       <c r="Y260" s="10"/>
       <c r="Z260" s="10"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="12.75" customHeight="1">
       <c r="A261" s="27"/>
       <c r="B261" s="39"/>
       <c r="C261" s="81"/>
@@ -8769,7 +8824,7 @@
       <c r="Y261" s="10"/>
       <c r="Z261" s="10"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="12.75" customHeight="1">
       <c r="A262" s="27"/>
       <c r="B262" s="39"/>
       <c r="C262" s="81"/>
@@ -8797,7 +8852,7 @@
       <c r="Y262" s="10"/>
       <c r="Z262" s="10"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="12.75" customHeight="1">
       <c r="A263" s="27"/>
       <c r="B263" s="39"/>
       <c r="C263" s="81"/>
@@ -8825,7 +8880,7 @@
       <c r="Y263" s="10"/>
       <c r="Z263" s="10"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="12.75" customHeight="1">
       <c r="A264" s="27"/>
       <c r="B264" s="39"/>
       <c r="C264" s="81"/>
@@ -8853,7 +8908,7 @@
       <c r="Y264" s="10"/>
       <c r="Z264" s="10"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="12.75" customHeight="1">
       <c r="A265" s="27"/>
       <c r="B265" s="39"/>
       <c r="C265" s="81"/>
@@ -8881,7 +8936,7 @@
       <c r="Y265" s="10"/>
       <c r="Z265" s="10"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="12.75" customHeight="1">
       <c r="A266" s="27"/>
       <c r="B266" s="39"/>
       <c r="C266" s="81"/>
@@ -8909,7 +8964,7 @@
       <c r="Y266" s="10"/>
       <c r="Z266" s="10"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="12.75" customHeight="1">
       <c r="A267" s="27"/>
       <c r="B267" s="39"/>
       <c r="C267" s="81"/>
@@ -8937,7 +8992,7 @@
       <c r="Y267" s="10"/>
       <c r="Z267" s="10"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="12.75" customHeight="1">
       <c r="A268" s="27"/>
       <c r="B268" s="39"/>
       <c r="C268" s="81"/>
@@ -8965,7 +9020,7 @@
       <c r="Y268" s="10"/>
       <c r="Z268" s="10"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="12.75" customHeight="1">
       <c r="A269" s="27"/>
       <c r="B269" s="39"/>
       <c r="C269" s="81"/>
@@ -8993,7 +9048,7 @@
       <c r="Y269" s="10"/>
       <c r="Z269" s="10"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="12.75" customHeight="1">
       <c r="A270" s="27"/>
       <c r="B270" s="39"/>
       <c r="C270" s="81"/>
@@ -9021,7 +9076,7 @@
       <c r="Y270" s="10"/>
       <c r="Z270" s="10"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="12.75" customHeight="1">
       <c r="A271" s="27"/>
       <c r="B271" s="39"/>
       <c r="C271" s="81"/>
@@ -9049,7 +9104,7 @@
       <c r="Y271" s="10"/>
       <c r="Z271" s="10"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="12.75" customHeight="1">
       <c r="A272" s="27"/>
       <c r="B272" s="39"/>
       <c r="C272" s="81"/>
@@ -9077,7 +9132,7 @@
       <c r="Y272" s="10"/>
       <c r="Z272" s="10"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="12.75" customHeight="1">
       <c r="A273" s="27"/>
       <c r="B273" s="39"/>
       <c r="C273" s="81"/>
@@ -9105,7 +9160,7 @@
       <c r="Y273" s="10"/>
       <c r="Z273" s="10"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="12.75" customHeight="1">
       <c r="A274" s="27"/>
       <c r="B274" s="39"/>
       <c r="C274" s="81"/>
@@ -9133,7 +9188,7 @@
       <c r="Y274" s="10"/>
       <c r="Z274" s="10"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="12.75" customHeight="1">
       <c r="A275" s="27"/>
       <c r="B275" s="39"/>
       <c r="C275" s="81"/>
@@ -9161,7 +9216,7 @@
       <c r="Y275" s="10"/>
       <c r="Z275" s="10"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="12.75" customHeight="1">
       <c r="A276" s="27"/>
       <c r="B276" s="39"/>
       <c r="C276" s="81"/>
@@ -9189,7 +9244,7 @@
       <c r="Y276" s="10"/>
       <c r="Z276" s="10"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="12.75" customHeight="1">
       <c r="A277" s="27"/>
       <c r="B277" s="39"/>
       <c r="C277" s="81"/>
@@ -9217,7 +9272,7 @@
       <c r="Y277" s="10"/>
       <c r="Z277" s="10"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="12.75" customHeight="1">
       <c r="A278" s="27"/>
       <c r="B278" s="39"/>
       <c r="C278" s="81"/>
@@ -9245,7 +9300,7 @@
       <c r="Y278" s="10"/>
       <c r="Z278" s="10"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="12.75" customHeight="1">
       <c r="A279" s="27"/>
       <c r="B279" s="39"/>
       <c r="C279" s="81"/>
@@ -9273,7 +9328,7 @@
       <c r="Y279" s="10"/>
       <c r="Z279" s="10"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="12.75" customHeight="1">
       <c r="A280" s="27"/>
       <c r="B280" s="39"/>
       <c r="C280" s="81"/>
@@ -9301,7 +9356,7 @@
       <c r="Y280" s="10"/>
       <c r="Z280" s="10"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="12.75" customHeight="1">
       <c r="A281" s="27"/>
       <c r="B281" s="39"/>
       <c r="C281" s="81"/>
@@ -9329,7 +9384,7 @@
       <c r="Y281" s="10"/>
       <c r="Z281" s="10"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="12.75" customHeight="1">
       <c r="A282" s="27"/>
       <c r="B282" s="39"/>
       <c r="C282" s="81"/>
@@ -9357,7 +9412,7 @@
       <c r="Y282" s="10"/>
       <c r="Z282" s="10"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="12.75" customHeight="1">
       <c r="A283" s="27"/>
       <c r="B283" s="39"/>
       <c r="C283" s="81"/>
@@ -9385,7 +9440,7 @@
       <c r="Y283" s="10"/>
       <c r="Z283" s="10"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="12.75" customHeight="1">
       <c r="A284" s="27"/>
       <c r="B284" s="39"/>
       <c r="C284" s="81"/>
@@ -9413,7 +9468,7 @@
       <c r="Y284" s="10"/>
       <c r="Z284" s="10"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="12.75" customHeight="1">
       <c r="A285" s="27"/>
       <c r="B285" s="39"/>
       <c r="C285" s="81"/>
@@ -9441,7 +9496,7 @@
       <c r="Y285" s="10"/>
       <c r="Z285" s="10"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="12.75" customHeight="1">
       <c r="A286" s="27"/>
       <c r="B286" s="39"/>
       <c r="C286" s="81"/>
@@ -9469,7 +9524,7 @@
       <c r="Y286" s="10"/>
       <c r="Z286" s="10"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="12.75" customHeight="1">
       <c r="A287" s="27"/>
       <c r="B287" s="39"/>
       <c r="C287" s="81"/>
@@ -9497,7 +9552,7 @@
       <c r="Y287" s="10"/>
       <c r="Z287" s="10"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="12.75" customHeight="1">
       <c r="A288" s="27"/>
       <c r="B288" s="39"/>
       <c r="C288" s="81"/>
@@ -9525,7 +9580,7 @@
       <c r="Y288" s="10"/>
       <c r="Z288" s="10"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="12.75" customHeight="1">
       <c r="A289" s="27"/>
       <c r="B289" s="39"/>
       <c r="C289" s="81"/>
@@ -9553,7 +9608,7 @@
       <c r="Y289" s="10"/>
       <c r="Z289" s="10"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="12.75" customHeight="1">
       <c r="A290" s="27"/>
       <c r="B290" s="39"/>
       <c r="C290" s="81"/>
@@ -9581,7 +9636,7 @@
       <c r="Y290" s="10"/>
       <c r="Z290" s="10"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="12.75" customHeight="1">
       <c r="A291" s="27"/>
       <c r="B291" s="39"/>
       <c r="C291" s="81"/>
@@ -9609,7 +9664,7 @@
       <c r="Y291" s="10"/>
       <c r="Z291" s="10"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="12.75" customHeight="1">
       <c r="A292" s="27"/>
       <c r="B292" s="39"/>
       <c r="C292" s="81"/>
@@ -9637,7 +9692,7 @@
       <c r="Y292" s="10"/>
       <c r="Z292" s="10"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="12.75" customHeight="1">
       <c r="A293" s="27"/>
       <c r="B293" s="39"/>
       <c r="C293" s="81"/>
@@ -9665,7 +9720,7 @@
       <c r="Y293" s="10"/>
       <c r="Z293" s="10"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="12.75" customHeight="1">
       <c r="A294" s="27"/>
       <c r="B294" s="39"/>
       <c r="C294" s="81"/>
@@ -9693,7 +9748,7 @@
       <c r="Y294" s="10"/>
       <c r="Z294" s="10"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="12.75" customHeight="1">
       <c r="A295" s="27"/>
       <c r="B295" s="39"/>
       <c r="C295" s="81"/>
@@ -9721,7 +9776,7 @@
       <c r="Y295" s="10"/>
       <c r="Z295" s="10"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="12.75" customHeight="1">
       <c r="A296" s="27"/>
       <c r="B296" s="39"/>
       <c r="C296" s="81"/>
@@ -9749,7 +9804,7 @@
       <c r="Y296" s="10"/>
       <c r="Z296" s="10"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="12.75" customHeight="1">
       <c r="A297" s="27"/>
       <c r="B297" s="39"/>
       <c r="C297" s="81"/>
@@ -9777,7 +9832,7 @@
       <c r="Y297" s="10"/>
       <c r="Z297" s="10"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="12.75" customHeight="1">
       <c r="A298" s="27"/>
       <c r="B298" s="39"/>
       <c r="C298" s="81"/>
@@ -9805,7 +9860,7 @@
       <c r="Y298" s="10"/>
       <c r="Z298" s="10"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="12.75" customHeight="1">
       <c r="A299" s="27"/>
       <c r="B299" s="39"/>
       <c r="C299" s="81"/>
@@ -9833,7 +9888,7 @@
       <c r="Y299" s="10"/>
       <c r="Z299" s="10"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="12.75" customHeight="1">
       <c r="A300" s="27"/>
       <c r="B300" s="39"/>
       <c r="C300" s="81"/>
@@ -9861,7 +9916,7 @@
       <c r="Y300" s="10"/>
       <c r="Z300" s="10"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="12.75" customHeight="1">
       <c r="A301" s="27"/>
       <c r="B301" s="39"/>
       <c r="C301" s="81"/>
@@ -9889,7 +9944,7 @@
       <c r="Y301" s="10"/>
       <c r="Z301" s="10"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="12.75" customHeight="1">
       <c r="A302" s="27"/>
       <c r="B302" s="39"/>
       <c r="C302" s="81"/>
@@ -9917,7 +9972,7 @@
       <c r="Y302" s="10"/>
       <c r="Z302" s="10"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="12.75" customHeight="1">
       <c r="A303" s="27"/>
       <c r="B303" s="39"/>
       <c r="C303" s="81"/>
@@ -9945,7 +10000,7 @@
       <c r="Y303" s="10"/>
       <c r="Z303" s="10"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="12.75" customHeight="1">
       <c r="A304" s="27"/>
       <c r="B304" s="39"/>
       <c r="C304" s="81"/>
@@ -9973,7 +10028,7 @@
       <c r="Y304" s="10"/>
       <c r="Z304" s="10"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="12.75" customHeight="1">
       <c r="A305" s="27"/>
       <c r="B305" s="39"/>
       <c r="C305" s="81"/>
@@ -10001,7 +10056,7 @@
       <c r="Y305" s="10"/>
       <c r="Z305" s="10"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="12.75" customHeight="1">
       <c r="A306" s="27"/>
       <c r="B306" s="39"/>
       <c r="C306" s="81"/>
@@ -10029,7 +10084,7 @@
       <c r="Y306" s="10"/>
       <c r="Z306" s="10"/>
     </row>
-    <row r="307" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="12.75" customHeight="1">
       <c r="A307" s="27"/>
       <c r="B307" s="39"/>
       <c r="C307" s="81"/>
@@ -10057,7 +10112,7 @@
       <c r="Y307" s="10"/>
       <c r="Z307" s="10"/>
     </row>
-    <row r="308" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="12.75" customHeight="1">
       <c r="A308" s="27"/>
       <c r="B308" s="39"/>
       <c r="C308" s="81"/>
@@ -10085,7 +10140,7 @@
       <c r="Y308" s="10"/>
       <c r="Z308" s="10"/>
     </row>
-    <row r="309" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="12.75" customHeight="1">
       <c r="A309" s="27"/>
       <c r="B309" s="39"/>
       <c r="C309" s="81"/>
@@ -10113,7 +10168,7 @@
       <c r="Y309" s="10"/>
       <c r="Z309" s="10"/>
     </row>
-    <row r="310" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="12.75" customHeight="1">
       <c r="A310" s="27"/>
       <c r="B310" s="39"/>
       <c r="C310" s="81"/>
@@ -10141,7 +10196,7 @@
       <c r="Y310" s="10"/>
       <c r="Z310" s="10"/>
     </row>
-    <row r="311" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="12.75" customHeight="1">
       <c r="A311" s="27"/>
       <c r="B311" s="39"/>
       <c r="C311" s="81"/>
@@ -10169,7 +10224,7 @@
       <c r="Y311" s="10"/>
       <c r="Z311" s="10"/>
     </row>
-    <row r="312" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="12.75" customHeight="1">
       <c r="A312" s="27"/>
       <c r="B312" s="39"/>
       <c r="C312" s="81"/>
@@ -10197,7 +10252,7 @@
       <c r="Y312" s="10"/>
       <c r="Z312" s="10"/>
     </row>
-    <row r="313" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="12.75" customHeight="1">
       <c r="A313" s="27"/>
       <c r="B313" s="39"/>
       <c r="C313" s="81"/>
@@ -10225,7 +10280,7 @@
       <c r="Y313" s="10"/>
       <c r="Z313" s="10"/>
     </row>
-    <row r="314" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="12.75" customHeight="1">
       <c r="A314" s="27"/>
       <c r="B314" s="39"/>
       <c r="C314" s="81"/>
@@ -10253,7 +10308,7 @@
       <c r="Y314" s="10"/>
       <c r="Z314" s="10"/>
     </row>
-    <row r="315" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="12.75" customHeight="1">
       <c r="A315" s="27"/>
       <c r="B315" s="39"/>
       <c r="C315" s="81"/>
@@ -10281,7 +10336,7 @@
       <c r="Y315" s="10"/>
       <c r="Z315" s="10"/>
     </row>
-    <row r="316" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="12.75" customHeight="1">
       <c r="A316" s="27"/>
       <c r="B316" s="39"/>
       <c r="C316" s="81"/>
@@ -10309,7 +10364,7 @@
       <c r="Y316" s="10"/>
       <c r="Z316" s="10"/>
     </row>
-    <row r="317" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="12.75" customHeight="1">
       <c r="A317" s="27"/>
       <c r="B317" s="39"/>
       <c r="C317" s="81"/>
@@ -10337,7 +10392,7 @@
       <c r="Y317" s="10"/>
       <c r="Z317" s="10"/>
     </row>
-    <row r="318" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="12.75" customHeight="1">
       <c r="A318" s="27"/>
       <c r="B318" s="39"/>
       <c r="C318" s="81"/>
@@ -10365,7 +10420,7 @@
       <c r="Y318" s="10"/>
       <c r="Z318" s="10"/>
     </row>
-    <row r="319" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="12.75" customHeight="1">
       <c r="A319" s="27"/>
       <c r="B319" s="39"/>
       <c r="C319" s="81"/>
@@ -10393,7 +10448,7 @@
       <c r="Y319" s="10"/>
       <c r="Z319" s="10"/>
     </row>
-    <row r="320" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="12.75" customHeight="1">
       <c r="A320" s="27"/>
       <c r="B320" s="39"/>
       <c r="C320" s="81"/>
@@ -10421,7 +10476,7 @@
       <c r="Y320" s="10"/>
       <c r="Z320" s="10"/>
     </row>
-    <row r="321" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="12.75" customHeight="1">
       <c r="A321" s="27"/>
       <c r="B321" s="39"/>
       <c r="C321" s="81"/>
@@ -10449,7 +10504,7 @@
       <c r="Y321" s="10"/>
       <c r="Z321" s="10"/>
     </row>
-    <row r="322" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="12.75" customHeight="1">
       <c r="A322" s="27"/>
       <c r="B322" s="39"/>
       <c r="C322" s="81"/>
@@ -10477,7 +10532,7 @@
       <c r="Y322" s="10"/>
       <c r="Z322" s="10"/>
     </row>
-    <row r="323" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="12.75" customHeight="1">
       <c r="A323" s="27"/>
       <c r="B323" s="39"/>
       <c r="C323" s="81"/>
@@ -10505,7 +10560,7 @@
       <c r="Y323" s="10"/>
       <c r="Z323" s="10"/>
     </row>
-    <row r="324" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="12.75" customHeight="1">
       <c r="A324" s="27"/>
       <c r="B324" s="39"/>
       <c r="C324" s="81"/>
@@ -10533,7 +10588,7 @@
       <c r="Y324" s="10"/>
       <c r="Z324" s="10"/>
     </row>
-    <row r="325" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="12.75" customHeight="1">
       <c r="A325" s="27"/>
       <c r="B325" s="39"/>
       <c r="C325" s="81"/>
@@ -10561,7 +10616,7 @@
       <c r="Y325" s="10"/>
       <c r="Z325" s="10"/>
     </row>
-    <row r="326" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="12.75" customHeight="1">
       <c r="A326" s="27"/>
       <c r="B326" s="39"/>
       <c r="C326" s="81"/>
@@ -10589,7 +10644,7 @@
       <c r="Y326" s="10"/>
       <c r="Z326" s="10"/>
     </row>
-    <row r="327" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="12.75" customHeight="1">
       <c r="A327" s="27"/>
       <c r="B327" s="39"/>
       <c r="C327" s="81"/>
@@ -10617,7 +10672,7 @@
       <c r="Y327" s="10"/>
       <c r="Z327" s="10"/>
     </row>
-    <row r="328" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="12.75" customHeight="1">
       <c r="A328" s="27"/>
       <c r="B328" s="39"/>
       <c r="C328" s="81"/>
@@ -10645,7 +10700,7 @@
       <c r="Y328" s="10"/>
       <c r="Z328" s="10"/>
     </row>
-    <row r="329" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="12.75" customHeight="1">
       <c r="A329" s="27"/>
       <c r="B329" s="39"/>
       <c r="C329" s="81"/>
@@ -10673,7 +10728,7 @@
       <c r="Y329" s="10"/>
       <c r="Z329" s="10"/>
     </row>
-    <row r="330" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="12.75" customHeight="1">
       <c r="A330" s="27"/>
       <c r="B330" s="39"/>
       <c r="C330" s="81"/>
@@ -10701,7 +10756,7 @@
       <c r="Y330" s="10"/>
       <c r="Z330" s="10"/>
     </row>
-    <row r="331" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="12.75" customHeight="1">
       <c r="A331" s="27"/>
       <c r="B331" s="39"/>
       <c r="C331" s="81"/>
@@ -10729,7 +10784,7 @@
       <c r="Y331" s="10"/>
       <c r="Z331" s="10"/>
     </row>
-    <row r="332" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="12.75" customHeight="1">
       <c r="A332" s="27"/>
       <c r="B332" s="39"/>
       <c r="C332" s="81"/>
@@ -10757,7 +10812,7 @@
       <c r="Y332" s="10"/>
       <c r="Z332" s="10"/>
     </row>
-    <row r="333" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="12.75" customHeight="1">
       <c r="A333" s="27"/>
       <c r="B333" s="39"/>
       <c r="C333" s="81"/>
@@ -10785,7 +10840,7 @@
       <c r="Y333" s="10"/>
       <c r="Z333" s="10"/>
     </row>
-    <row r="334" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="12.75" customHeight="1">
       <c r="A334" s="27"/>
       <c r="B334" s="39"/>
       <c r="C334" s="81"/>
@@ -10813,7 +10868,7 @@
       <c r="Y334" s="10"/>
       <c r="Z334" s="10"/>
     </row>
-    <row r="335" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="12.75" customHeight="1">
       <c r="A335" s="27"/>
       <c r="B335" s="39"/>
       <c r="C335" s="81"/>
@@ -10841,7 +10896,7 @@
       <c r="Y335" s="10"/>
       <c r="Z335" s="10"/>
     </row>
-    <row r="336" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="12.75" customHeight="1">
       <c r="A336" s="27"/>
       <c r="B336" s="39"/>
       <c r="C336" s="81"/>
@@ -10869,7 +10924,7 @@
       <c r="Y336" s="10"/>
       <c r="Z336" s="10"/>
     </row>
-    <row r="337" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="12.75" customHeight="1">
       <c r="A337" s="27"/>
       <c r="B337" s="39"/>
       <c r="C337" s="81"/>
@@ -10897,7 +10952,7 @@
       <c r="Y337" s="10"/>
       <c r="Z337" s="10"/>
     </row>
-    <row r="338" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="12.75" customHeight="1">
       <c r="A338" s="27"/>
       <c r="B338" s="39"/>
       <c r="C338" s="81"/>
@@ -10925,7 +10980,7 @@
       <c r="Y338" s="10"/>
       <c r="Z338" s="10"/>
     </row>
-    <row r="339" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="12.75" customHeight="1">
       <c r="A339" s="27"/>
       <c r="B339" s="39"/>
       <c r="C339" s="81"/>
@@ -10953,7 +11008,7 @@
       <c r="Y339" s="10"/>
       <c r="Z339" s="10"/>
     </row>
-    <row r="340" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="12.75" customHeight="1">
       <c r="A340" s="27"/>
       <c r="B340" s="39"/>
       <c r="C340" s="81"/>
@@ -10981,7 +11036,7 @@
       <c r="Y340" s="10"/>
       <c r="Z340" s="10"/>
     </row>
-    <row r="341" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="12.75" customHeight="1">
       <c r="A341" s="27"/>
       <c r="B341" s="39"/>
       <c r="C341" s="81"/>
@@ -11009,7 +11064,7 @@
       <c r="Y341" s="10"/>
       <c r="Z341" s="10"/>
     </row>
-    <row r="342" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="12.75" customHeight="1">
       <c r="A342" s="27"/>
       <c r="B342" s="39"/>
       <c r="C342" s="81"/>
@@ -11037,7 +11092,7 @@
       <c r="Y342" s="10"/>
       <c r="Z342" s="10"/>
     </row>
-    <row r="343" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="12.75" customHeight="1">
       <c r="A343" s="27"/>
       <c r="B343" s="39"/>
       <c r="C343" s="81"/>
@@ -11065,7 +11120,7 @@
       <c r="Y343" s="10"/>
       <c r="Z343" s="10"/>
     </row>
-    <row r="344" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="12.75" customHeight="1">
       <c r="A344" s="27"/>
       <c r="B344" s="39"/>
       <c r="C344" s="81"/>
@@ -11093,7 +11148,7 @@
       <c r="Y344" s="10"/>
       <c r="Z344" s="10"/>
     </row>
-    <row r="345" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="12.75" customHeight="1">
       <c r="A345" s="27"/>
       <c r="B345" s="39"/>
       <c r="C345" s="81"/>
@@ -11121,7 +11176,7 @@
       <c r="Y345" s="10"/>
       <c r="Z345" s="10"/>
     </row>
-    <row r="346" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="12.75" customHeight="1">
       <c r="A346" s="27"/>
       <c r="B346" s="39"/>
       <c r="C346" s="81"/>
@@ -11149,7 +11204,7 @@
       <c r="Y346" s="10"/>
       <c r="Z346" s="10"/>
     </row>
-    <row r="347" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="12.75" customHeight="1">
       <c r="A347" s="27"/>
       <c r="B347" s="39"/>
       <c r="C347" s="81"/>
@@ -11177,7 +11232,7 @@
       <c r="Y347" s="10"/>
       <c r="Z347" s="10"/>
     </row>
-    <row r="348" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="12.75" customHeight="1">
       <c r="A348" s="27"/>
       <c r="B348" s="39"/>
       <c r="C348" s="81"/>
@@ -11205,7 +11260,7 @@
       <c r="Y348" s="10"/>
       <c r="Z348" s="10"/>
     </row>
-    <row r="349" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="12.75" customHeight="1">
       <c r="A349" s="27"/>
       <c r="B349" s="39"/>
       <c r="C349" s="81"/>
@@ -11233,7 +11288,7 @@
       <c r="Y349" s="10"/>
       <c r="Z349" s="10"/>
     </row>
-    <row r="350" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="12.75" customHeight="1">
       <c r="A350" s="27"/>
       <c r="B350" s="39"/>
       <c r="C350" s="81"/>
@@ -11261,7 +11316,7 @@
       <c r="Y350" s="10"/>
       <c r="Z350" s="10"/>
     </row>
-    <row r="351" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="12.75" customHeight="1">
       <c r="A351" s="27"/>
       <c r="B351" s="39"/>
       <c r="C351" s="81"/>
@@ -11289,7 +11344,7 @@
       <c r="Y351" s="10"/>
       <c r="Z351" s="10"/>
     </row>
-    <row r="352" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="12.75" customHeight="1">
       <c r="A352" s="27"/>
       <c r="B352" s="39"/>
       <c r="C352" s="81"/>
@@ -11317,7 +11372,7 @@
       <c r="Y352" s="10"/>
       <c r="Z352" s="10"/>
     </row>
-    <row r="353" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="12.75" customHeight="1">
       <c r="A353" s="27"/>
       <c r="B353" s="39"/>
       <c r="C353" s="81"/>
@@ -11345,7 +11400,7 @@
       <c r="Y353" s="10"/>
       <c r="Z353" s="10"/>
     </row>
-    <row r="354" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="12.75" customHeight="1">
       <c r="A354" s="27"/>
       <c r="B354" s="39"/>
       <c r="C354" s="81"/>
@@ -11373,7 +11428,7 @@
       <c r="Y354" s="10"/>
       <c r="Z354" s="10"/>
     </row>
-    <row r="355" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="12.75" customHeight="1">
       <c r="A355" s="27"/>
       <c r="B355" s="39"/>
       <c r="C355" s="81"/>
@@ -11401,7 +11456,7 @@
       <c r="Y355" s="10"/>
       <c r="Z355" s="10"/>
     </row>
-    <row r="356" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="12.75" customHeight="1">
       <c r="A356" s="27"/>
       <c r="B356" s="39"/>
       <c r="C356" s="81"/>
@@ -11429,7 +11484,7 @@
       <c r="Y356" s="10"/>
       <c r="Z356" s="10"/>
     </row>
-    <row r="357" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="12.75" customHeight="1">
       <c r="A357" s="27"/>
       <c r="B357" s="39"/>
       <c r="C357" s="81"/>
@@ -11457,7 +11512,7 @@
       <c r="Y357" s="10"/>
       <c r="Z357" s="10"/>
     </row>
-    <row r="358" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="12.75" customHeight="1">
       <c r="A358" s="27"/>
       <c r="B358" s="39"/>
       <c r="C358" s="81"/>
@@ -11485,7 +11540,7 @@
       <c r="Y358" s="10"/>
       <c r="Z358" s="10"/>
     </row>
-    <row r="359" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="12.75" customHeight="1">
       <c r="A359" s="27"/>
       <c r="B359" s="39"/>
       <c r="C359" s="81"/>
@@ -11513,7 +11568,7 @@
       <c r="Y359" s="10"/>
       <c r="Z359" s="10"/>
     </row>
-    <row r="360" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="12.75" customHeight="1">
       <c r="A360" s="27"/>
       <c r="B360" s="39"/>
       <c r="C360" s="81"/>
@@ -11541,7 +11596,7 @@
       <c r="Y360" s="10"/>
       <c r="Z360" s="10"/>
     </row>
-    <row r="361" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="12.75" customHeight="1">
       <c r="A361" s="27"/>
       <c r="B361" s="39"/>
       <c r="C361" s="81"/>
@@ -11569,7 +11624,7 @@
       <c r="Y361" s="10"/>
       <c r="Z361" s="10"/>
     </row>
-    <row r="362" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="12.75" customHeight="1">
       <c r="A362" s="27"/>
       <c r="B362" s="39"/>
       <c r="C362" s="81"/>
@@ -11597,7 +11652,7 @@
       <c r="Y362" s="10"/>
       <c r="Z362" s="10"/>
     </row>
-    <row r="363" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="12.75" customHeight="1">
       <c r="A363" s="27"/>
       <c r="B363" s="39"/>
       <c r="C363" s="81"/>
@@ -11625,7 +11680,7 @@
       <c r="Y363" s="10"/>
       <c r="Z363" s="10"/>
     </row>
-    <row r="364" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="12.75" customHeight="1">
       <c r="A364" s="27"/>
       <c r="B364" s="39"/>
       <c r="C364" s="81"/>
@@ -11653,7 +11708,7 @@
       <c r="Y364" s="10"/>
       <c r="Z364" s="10"/>
     </row>
-    <row r="365" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="12.75" customHeight="1">
       <c r="A365" s="27"/>
       <c r="B365" s="39"/>
       <c r="C365" s="81"/>
@@ -11681,7 +11736,7 @@
       <c r="Y365" s="10"/>
       <c r="Z365" s="10"/>
     </row>
-    <row r="366" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="12.75" customHeight="1">
       <c r="A366" s="27"/>
       <c r="B366" s="39"/>
       <c r="C366" s="81"/>
@@ -11709,7 +11764,7 @@
       <c r="Y366" s="10"/>
       <c r="Z366" s="10"/>
     </row>
-    <row r="367" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="12.75" customHeight="1">
       <c r="A367" s="27"/>
       <c r="B367" s="39"/>
       <c r="C367" s="81"/>
@@ -11737,7 +11792,7 @@
       <c r="Y367" s="10"/>
       <c r="Z367" s="10"/>
     </row>
-    <row r="368" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="12.75" customHeight="1">
       <c r="A368" s="27"/>
       <c r="B368" s="39"/>
       <c r="C368" s="81"/>
@@ -11765,7 +11820,7 @@
       <c r="Y368" s="10"/>
       <c r="Z368" s="10"/>
     </row>
-    <row r="369" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="12.75" customHeight="1">
       <c r="A369" s="27"/>
       <c r="B369" s="39"/>
       <c r="C369" s="81"/>
@@ -11793,7 +11848,7 @@
       <c r="Y369" s="10"/>
       <c r="Z369" s="10"/>
     </row>
-    <row r="370" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="12.75" customHeight="1">
       <c r="A370" s="27"/>
       <c r="B370" s="39"/>
       <c r="C370" s="81"/>
@@ -11821,7 +11876,7 @@
       <c r="Y370" s="10"/>
       <c r="Z370" s="10"/>
     </row>
-    <row r="371" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="12.75" customHeight="1">
       <c r="A371" s="27"/>
       <c r="B371" s="39"/>
       <c r="C371" s="81"/>
@@ -11849,7 +11904,7 @@
       <c r="Y371" s="10"/>
       <c r="Z371" s="10"/>
     </row>
-    <row r="372" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="12.75" customHeight="1">
       <c r="A372" s="27"/>
       <c r="B372" s="39"/>
       <c r="C372" s="81"/>
@@ -11877,7 +11932,7 @@
       <c r="Y372" s="10"/>
       <c r="Z372" s="10"/>
     </row>
-    <row r="373" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="12.75" customHeight="1">
       <c r="A373" s="27"/>
       <c r="B373" s="39"/>
       <c r="C373" s="81"/>
@@ -11905,7 +11960,7 @@
       <c r="Y373" s="10"/>
       <c r="Z373" s="10"/>
     </row>
-    <row r="374" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="12.75" customHeight="1">
       <c r="A374" s="27"/>
       <c r="B374" s="39"/>
       <c r="C374" s="81"/>
@@ -11933,7 +11988,7 @@
       <c r="Y374" s="10"/>
       <c r="Z374" s="10"/>
     </row>
-    <row r="375" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="12.75" customHeight="1">
       <c r="A375" s="27"/>
       <c r="B375" s="39"/>
       <c r="C375" s="81"/>
@@ -11961,7 +12016,7 @@
       <c r="Y375" s="10"/>
       <c r="Z375" s="10"/>
     </row>
-    <row r="376" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="12.75" customHeight="1">
       <c r="A376" s="27"/>
       <c r="B376" s="39"/>
       <c r="C376" s="81"/>
@@ -11989,7 +12044,7 @@
       <c r="Y376" s="10"/>
       <c r="Z376" s="10"/>
     </row>
-    <row r="377" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="12.75" customHeight="1">
       <c r="A377" s="27"/>
       <c r="B377" s="39"/>
       <c r="C377" s="81"/>
@@ -12017,7 +12072,7 @@
       <c r="Y377" s="10"/>
       <c r="Z377" s="10"/>
     </row>
-    <row r="378" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="12.75" customHeight="1">
       <c r="A378" s="27"/>
       <c r="B378" s="39"/>
       <c r="C378" s="81"/>
@@ -12045,7 +12100,7 @@
       <c r="Y378" s="10"/>
       <c r="Z378" s="10"/>
     </row>
-    <row r="379" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="12.75" customHeight="1">
       <c r="A379" s="27"/>
       <c r="B379" s="39"/>
       <c r="C379" s="81"/>
@@ -12073,7 +12128,7 @@
       <c r="Y379" s="10"/>
       <c r="Z379" s="10"/>
     </row>
-    <row r="380" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="12.75" customHeight="1">
       <c r="A380" s="27"/>
       <c r="B380" s="39"/>
       <c r="C380" s="81"/>
@@ -12101,7 +12156,7 @@
       <c r="Y380" s="10"/>
       <c r="Z380" s="10"/>
     </row>
-    <row r="381" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="12.75" customHeight="1">
       <c r="A381" s="27"/>
       <c r="B381" s="39"/>
       <c r="C381" s="81"/>
@@ -12129,7 +12184,7 @@
       <c r="Y381" s="10"/>
       <c r="Z381" s="10"/>
     </row>
-    <row r="382" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="12.75" customHeight="1">
       <c r="A382" s="27"/>
       <c r="B382" s="39"/>
       <c r="C382" s="81"/>
@@ -12157,7 +12212,7 @@
       <c r="Y382" s="10"/>
       <c r="Z382" s="10"/>
     </row>
-    <row r="383" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="12.75" customHeight="1">
       <c r="A383" s="27"/>
       <c r="B383" s="39"/>
       <c r="C383" s="81"/>
@@ -12185,7 +12240,7 @@
       <c r="Y383" s="10"/>
       <c r="Z383" s="10"/>
     </row>
-    <row r="384" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="12.75" customHeight="1">
       <c r="A384" s="27"/>
       <c r="B384" s="39"/>
       <c r="C384" s="81"/>
@@ -12213,7 +12268,7 @@
       <c r="Y384" s="10"/>
       <c r="Z384" s="10"/>
     </row>
-    <row r="385" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="12.75" customHeight="1">
       <c r="A385" s="27"/>
       <c r="B385" s="39"/>
       <c r="C385" s="81"/>
@@ -12241,7 +12296,7 @@
       <c r="Y385" s="10"/>
       <c r="Z385" s="10"/>
     </row>
-    <row r="386" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="12.75" customHeight="1">
       <c r="A386" s="27"/>
       <c r="B386" s="39"/>
       <c r="C386" s="81"/>
@@ -12269,7 +12324,7 @@
       <c r="Y386" s="10"/>
       <c r="Z386" s="10"/>
     </row>
-    <row r="387" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="12.75" customHeight="1">
       <c r="A387" s="27"/>
       <c r="B387" s="39"/>
       <c r="C387" s="81"/>
@@ -12297,7 +12352,7 @@
       <c r="Y387" s="10"/>
       <c r="Z387" s="10"/>
     </row>
-    <row r="388" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="12.75" customHeight="1">
       <c r="A388" s="27"/>
       <c r="B388" s="39"/>
       <c r="C388" s="81"/>
@@ -12325,7 +12380,7 @@
       <c r="Y388" s="10"/>
       <c r="Z388" s="10"/>
     </row>
-    <row r="389" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="12.75" customHeight="1">
       <c r="A389" s="27"/>
       <c r="B389" s="39"/>
       <c r="C389" s="81"/>
@@ -12353,7 +12408,7 @@
       <c r="Y389" s="10"/>
       <c r="Z389" s="10"/>
     </row>
-    <row r="390" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="12.75" customHeight="1">
       <c r="A390" s="27"/>
       <c r="B390" s="39"/>
       <c r="C390" s="81"/>
@@ -12381,7 +12436,7 @@
       <c r="Y390" s="10"/>
       <c r="Z390" s="10"/>
     </row>
-    <row r="391" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="12.75" customHeight="1">
       <c r="A391" s="27"/>
       <c r="B391" s="39"/>
       <c r="C391" s="81"/>
@@ -12409,7 +12464,7 @@
       <c r="Y391" s="10"/>
       <c r="Z391" s="10"/>
     </row>
-    <row r="392" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="12.75" customHeight="1">
       <c r="A392" s="27"/>
       <c r="B392" s="39"/>
       <c r="C392" s="81"/>
@@ -12437,7 +12492,7 @@
       <c r="Y392" s="10"/>
       <c r="Z392" s="10"/>
     </row>
-    <row r="393" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="12.75" customHeight="1">
       <c r="A393" s="27"/>
       <c r="B393" s="39"/>
       <c r="C393" s="81"/>
@@ -12465,7 +12520,7 @@
       <c r="Y393" s="10"/>
       <c r="Z393" s="10"/>
     </row>
-    <row r="394" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="12.75" customHeight="1">
       <c r="A394" s="27"/>
       <c r="B394" s="39"/>
       <c r="C394" s="81"/>
@@ -12493,7 +12548,7 @@
       <c r="Y394" s="10"/>
       <c r="Z394" s="10"/>
     </row>
-    <row r="395" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="12.75" customHeight="1">
       <c r="A395" s="27"/>
       <c r="B395" s="39"/>
       <c r="C395" s="81"/>
@@ -12521,7 +12576,7 @@
       <c r="Y395" s="10"/>
       <c r="Z395" s="10"/>
     </row>
-    <row r="396" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="12.75" customHeight="1">
       <c r="A396" s="27"/>
       <c r="B396" s="39"/>
       <c r="C396" s="81"/>
@@ -12549,7 +12604,7 @@
       <c r="Y396" s="10"/>
       <c r="Z396" s="10"/>
     </row>
-    <row r="397" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="12.75" customHeight="1">
       <c r="A397" s="27"/>
       <c r="B397" s="39"/>
       <c r="C397" s="81"/>
@@ -12577,7 +12632,7 @@
       <c r="Y397" s="10"/>
       <c r="Z397" s="10"/>
     </row>
-    <row r="398" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="12.75" customHeight="1">
       <c r="A398" s="27"/>
       <c r="B398" s="39"/>
       <c r="C398" s="81"/>
@@ -12605,7 +12660,7 @@
       <c r="Y398" s="10"/>
       <c r="Z398" s="10"/>
     </row>
-    <row r="399" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="12.75" customHeight="1">
       <c r="A399" s="27"/>
       <c r="B399" s="39"/>
       <c r="C399" s="81"/>
@@ -12633,7 +12688,7 @@
       <c r="Y399" s="10"/>
       <c r="Z399" s="10"/>
     </row>
-    <row r="400" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="12.75" customHeight="1">
       <c r="A400" s="27"/>
       <c r="B400" s="39"/>
       <c r="C400" s="81"/>
@@ -12661,7 +12716,7 @@
       <c r="Y400" s="10"/>
       <c r="Z400" s="10"/>
     </row>
-    <row r="401" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="12.75" customHeight="1">
       <c r="A401" s="27"/>
       <c r="B401" s="39"/>
       <c r="C401" s="81"/>
@@ -12689,7 +12744,7 @@
       <c r="Y401" s="10"/>
       <c r="Z401" s="10"/>
     </row>
-    <row r="402" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="12.75" customHeight="1">
       <c r="A402" s="27"/>
       <c r="B402" s="39"/>
       <c r="C402" s="81"/>
@@ -12717,7 +12772,7 @@
       <c r="Y402" s="10"/>
       <c r="Z402" s="10"/>
     </row>
-    <row r="403" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="12.75" customHeight="1">
       <c r="A403" s="27"/>
       <c r="B403" s="39"/>
       <c r="C403" s="81"/>
@@ -12745,7 +12800,7 @@
       <c r="Y403" s="10"/>
       <c r="Z403" s="10"/>
     </row>
-    <row r="404" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="12.75" customHeight="1">
       <c r="A404" s="27"/>
       <c r="B404" s="39"/>
       <c r="C404" s="81"/>
@@ -12773,7 +12828,7 @@
       <c r="Y404" s="10"/>
       <c r="Z404" s="10"/>
     </row>
-    <row r="405" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="12.75" customHeight="1">
       <c r="A405" s="27"/>
       <c r="B405" s="39"/>
       <c r="C405" s="81"/>
@@ -12801,7 +12856,7 @@
       <c r="Y405" s="10"/>
       <c r="Z405" s="10"/>
     </row>
-    <row r="406" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="12.75" customHeight="1">
       <c r="A406" s="27"/>
       <c r="B406" s="39"/>
       <c r="C406" s="81"/>
@@ -12829,7 +12884,7 @@
       <c r="Y406" s="10"/>
       <c r="Z406" s="10"/>
     </row>
-    <row r="407" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="12.75" customHeight="1">
       <c r="A407" s="27"/>
       <c r="B407" s="39"/>
       <c r="C407" s="81"/>
@@ -12857,7 +12912,7 @@
       <c r="Y407" s="10"/>
       <c r="Z407" s="10"/>
     </row>
-    <row r="408" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="12.75" customHeight="1">
       <c r="A408" s="27"/>
       <c r="B408" s="39"/>
       <c r="C408" s="81"/>
@@ -12885,7 +12940,7 @@
       <c r="Y408" s="10"/>
       <c r="Z408" s="10"/>
     </row>
-    <row r="409" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="12.75" customHeight="1">
       <c r="A409" s="27"/>
       <c r="B409" s="39"/>
       <c r="C409" s="81"/>
@@ -12913,7 +12968,7 @@
       <c r="Y409" s="10"/>
       <c r="Z409" s="10"/>
     </row>
-    <row r="410" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="12.75" customHeight="1">
       <c r="A410" s="27"/>
       <c r="B410" s="39"/>
       <c r="C410" s="81"/>
@@ -12941,7 +12996,7 @@
       <c r="Y410" s="10"/>
       <c r="Z410" s="10"/>
     </row>
-    <row r="411" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="12.75" customHeight="1">
       <c r="A411" s="27"/>
       <c r="B411" s="39"/>
       <c r="C411" s="81"/>
@@ -12969,7 +13024,7 @@
       <c r="Y411" s="10"/>
       <c r="Z411" s="10"/>
     </row>
-    <row r="412" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="12.75" customHeight="1">
       <c r="A412" s="27"/>
       <c r="B412" s="39"/>
       <c r="C412" s="81"/>
@@ -12997,7 +13052,7 @@
       <c r="Y412" s="10"/>
       <c r="Z412" s="10"/>
     </row>
-    <row r="413" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="12.75" customHeight="1">
       <c r="A413" s="27"/>
       <c r="B413" s="39"/>
       <c r="C413" s="81"/>
@@ -13025,7 +13080,7 @@
       <c r="Y413" s="10"/>
       <c r="Z413" s="10"/>
     </row>
-    <row r="414" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="12.75" customHeight="1">
       <c r="A414" s="27"/>
       <c r="B414" s="39"/>
       <c r="C414" s="81"/>
@@ -13053,7 +13108,7 @@
       <c r="Y414" s="10"/>
       <c r="Z414" s="10"/>
     </row>
-    <row r="415" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="12.75" customHeight="1">
       <c r="A415" s="27"/>
       <c r="B415" s="39"/>
       <c r="C415" s="81"/>
@@ -13081,7 +13136,7 @@
       <c r="Y415" s="10"/>
       <c r="Z415" s="10"/>
     </row>
-    <row r="416" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="12.75" customHeight="1">
       <c r="A416" s="27"/>
       <c r="B416" s="39"/>
       <c r="C416" s="81"/>
@@ -13109,7 +13164,7 @@
       <c r="Y416" s="10"/>
       <c r="Z416" s="10"/>
     </row>
-    <row r="417" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="12.75" customHeight="1">
       <c r="A417" s="27"/>
       <c r="B417" s="39"/>
       <c r="C417" s="81"/>
@@ -13137,7 +13192,7 @@
       <c r="Y417" s="10"/>
       <c r="Z417" s="10"/>
     </row>
-    <row r="418" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="12.75" customHeight="1">
       <c r="A418" s="27"/>
       <c r="B418" s="39"/>
       <c r="C418" s="81"/>
@@ -13165,7 +13220,7 @@
       <c r="Y418" s="10"/>
       <c r="Z418" s="10"/>
     </row>
-    <row r="419" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="12.75" customHeight="1">
       <c r="A419" s="27"/>
       <c r="B419" s="39"/>
       <c r="C419" s="81"/>
@@ -13193,7 +13248,7 @@
       <c r="Y419" s="10"/>
       <c r="Z419" s="10"/>
     </row>
-    <row r="420" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="12.75" customHeight="1">
       <c r="A420" s="27"/>
       <c r="B420" s="39"/>
       <c r="C420" s="81"/>
@@ -13221,7 +13276,7 @@
       <c r="Y420" s="10"/>
       <c r="Z420" s="10"/>
     </row>
-    <row r="421" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="12.75" customHeight="1">
       <c r="A421" s="27"/>
       <c r="B421" s="39"/>
       <c r="C421" s="81"/>
@@ -13249,7 +13304,7 @@
       <c r="Y421" s="10"/>
       <c r="Z421" s="10"/>
     </row>
-    <row r="422" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="12.75" customHeight="1">
       <c r="A422" s="27"/>
       <c r="B422" s="39"/>
       <c r="C422" s="81"/>
@@ -13277,7 +13332,7 @@
       <c r="Y422" s="10"/>
       <c r="Z422" s="10"/>
     </row>
-    <row r="423" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="12.75" customHeight="1">
       <c r="A423" s="27"/>
       <c r="B423" s="39"/>
       <c r="C423" s="81"/>
@@ -13305,7 +13360,7 @@
       <c r="Y423" s="10"/>
       <c r="Z423" s="10"/>
     </row>
-    <row r="424" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="12.75" customHeight="1">
       <c r="A424" s="27"/>
       <c r="B424" s="39"/>
       <c r="C424" s="81"/>
@@ -13333,7 +13388,7 @@
       <c r="Y424" s="10"/>
       <c r="Z424" s="10"/>
     </row>
-    <row r="425" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="12.75" customHeight="1">
       <c r="A425" s="27"/>
       <c r="B425" s="39"/>
       <c r="C425" s="81"/>
@@ -13361,7 +13416,7 @@
       <c r="Y425" s="10"/>
       <c r="Z425" s="10"/>
     </row>
-    <row r="426" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="12.75" customHeight="1">
       <c r="A426" s="27"/>
       <c r="B426" s="39"/>
       <c r="C426" s="81"/>
@@ -13389,7 +13444,7 @@
       <c r="Y426" s="10"/>
       <c r="Z426" s="10"/>
     </row>
-    <row r="427" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="12.75" customHeight="1">
       <c r="A427" s="27"/>
       <c r="B427" s="39"/>
       <c r="C427" s="81"/>
@@ -13417,7 +13472,7 @@
       <c r="Y427" s="10"/>
       <c r="Z427" s="10"/>
     </row>
-    <row r="428" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="12.75" customHeight="1">
       <c r="A428" s="27"/>
       <c r="B428" s="39"/>
       <c r="C428" s="81"/>
@@ -13445,7 +13500,7 @@
       <c r="Y428" s="10"/>
       <c r="Z428" s="10"/>
     </row>
-    <row r="429" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="12.75" customHeight="1">
       <c r="A429" s="27"/>
       <c r="B429" s="39"/>
       <c r="C429" s="81"/>
@@ -13473,7 +13528,7 @@
       <c r="Y429" s="10"/>
       <c r="Z429" s="10"/>
     </row>
-    <row r="430" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="12.75" customHeight="1">
       <c r="A430" s="27"/>
       <c r="B430" s="39"/>
       <c r="C430" s="81"/>
@@ -13501,7 +13556,7 @@
       <c r="Y430" s="10"/>
       <c r="Z430" s="10"/>
     </row>
-    <row r="431" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="12.75" customHeight="1">
       <c r="A431" s="27"/>
       <c r="B431" s="39"/>
       <c r="C431" s="81"/>
@@ -13529,7 +13584,7 @@
       <c r="Y431" s="10"/>
       <c r="Z431" s="10"/>
     </row>
-    <row r="432" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="12.75" customHeight="1">
       <c r="A432" s="27"/>
       <c r="B432" s="39"/>
       <c r="C432" s="81"/>
@@ -13557,7 +13612,7 @@
       <c r="Y432" s="10"/>
       <c r="Z432" s="10"/>
     </row>
-    <row r="433" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="12.75" customHeight="1">
       <c r="A433" s="27"/>
       <c r="B433" s="39"/>
       <c r="C433" s="81"/>
@@ -13585,7 +13640,7 @@
       <c r="Y433" s="10"/>
       <c r="Z433" s="10"/>
     </row>
-    <row r="434" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="12.75" customHeight="1">
       <c r="A434" s="27"/>
       <c r="B434" s="39"/>
       <c r="C434" s="81"/>
@@ -13613,7 +13668,7 @@
       <c r="Y434" s="10"/>
       <c r="Z434" s="10"/>
     </row>
-    <row r="435" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="12.75" customHeight="1">
       <c r="A435" s="27"/>
       <c r="B435" s="39"/>
       <c r="C435" s="81"/>
@@ -13641,7 +13696,7 @@
       <c r="Y435" s="10"/>
       <c r="Z435" s="10"/>
     </row>
-    <row r="436" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="12.75" customHeight="1">
       <c r="A436" s="27"/>
       <c r="B436" s="39"/>
       <c r="C436" s="81"/>
@@ -13669,7 +13724,7 @@
       <c r="Y436" s="10"/>
       <c r="Z436" s="10"/>
     </row>
-    <row r="437" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="12.75" customHeight="1">
       <c r="A437" s="27"/>
       <c r="B437" s="39"/>
       <c r="C437" s="81"/>
@@ -13697,7 +13752,7 @@
       <c r="Y437" s="10"/>
       <c r="Z437" s="10"/>
     </row>
-    <row r="438" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="12.75" customHeight="1">
       <c r="A438" s="27"/>
       <c r="B438" s="39"/>
       <c r="C438" s="81"/>
@@ -13725,7 +13780,7 @@
       <c r="Y438" s="10"/>
       <c r="Z438" s="10"/>
     </row>
-    <row r="439" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="12.75" customHeight="1">
       <c r="A439" s="27"/>
       <c r="B439" s="39"/>
       <c r="C439" s="81"/>
@@ -13753,7 +13808,7 @@
       <c r="Y439" s="10"/>
       <c r="Z439" s="10"/>
     </row>
-    <row r="440" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="12.75" customHeight="1">
       <c r="A440" s="27"/>
       <c r="B440" s="39"/>
       <c r="C440" s="81"/>
@@ -13781,7 +13836,7 @@
       <c r="Y440" s="10"/>
       <c r="Z440" s="10"/>
     </row>
-    <row r="441" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="12.75" customHeight="1">
       <c r="A441" s="27"/>
       <c r="B441" s="39"/>
       <c r="C441" s="81"/>
@@ -13809,7 +13864,7 @@
       <c r="Y441" s="10"/>
       <c r="Z441" s="10"/>
     </row>
-    <row r="442" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="12.75" customHeight="1">
       <c r="A442" s="27"/>
       <c r="B442" s="39"/>
       <c r="C442" s="81"/>
@@ -13837,7 +13892,7 @@
       <c r="Y442" s="10"/>
       <c r="Z442" s="10"/>
     </row>
-    <row r="443" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="12.75" customHeight="1">
       <c r="A443" s="27"/>
       <c r="B443" s="39"/>
       <c r="C443" s="81"/>
@@ -13865,7 +13920,7 @@
       <c r="Y443" s="10"/>
       <c r="Z443" s="10"/>
     </row>
-    <row r="444" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="12.75" customHeight="1">
       <c r="A444" s="27"/>
       <c r="B444" s="39"/>
       <c r="C444" s="81"/>
@@ -13893,7 +13948,7 @@
       <c r="Y444" s="10"/>
       <c r="Z444" s="10"/>
     </row>
-    <row r="445" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="12.75" customHeight="1">
       <c r="A445" s="27"/>
       <c r="B445" s="39"/>
       <c r="C445" s="81"/>
@@ -13921,7 +13976,7 @@
       <c r="Y445" s="10"/>
       <c r="Z445" s="10"/>
     </row>
-    <row r="446" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="12.75" customHeight="1">
       <c r="A446" s="27"/>
       <c r="B446" s="39"/>
       <c r="C446" s="81"/>
@@ -13949,7 +14004,7 @@
       <c r="Y446" s="10"/>
       <c r="Z446" s="10"/>
     </row>
-    <row r="447" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="12.75" customHeight="1">
       <c r="A447" s="27"/>
       <c r="B447" s="39"/>
       <c r="C447" s="81"/>
@@ -13977,7 +14032,7 @@
       <c r="Y447" s="10"/>
       <c r="Z447" s="10"/>
     </row>
-    <row r="448" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="12.75" customHeight="1">
       <c r="A448" s="27"/>
       <c r="B448" s="39"/>
       <c r="C448" s="81"/>
@@ -14005,7 +14060,7 @@
       <c r="Y448" s="10"/>
       <c r="Z448" s="10"/>
     </row>
-    <row r="449" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="12.75" customHeight="1">
       <c r="A449" s="27"/>
       <c r="B449" s="39"/>
       <c r="C449" s="81"/>
@@ -14033,7 +14088,7 @@
       <c r="Y449" s="10"/>
       <c r="Z449" s="10"/>
     </row>
-    <row r="450" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="12.75" customHeight="1">
       <c r="A450" s="27"/>
       <c r="B450" s="39"/>
       <c r="C450" s="81"/>
@@ -14061,7 +14116,7 @@
       <c r="Y450" s="10"/>
       <c r="Z450" s="10"/>
     </row>
-    <row r="451" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="12.75" customHeight="1">
       <c r="A451" s="27"/>
       <c r="B451" s="39"/>
       <c r="C451" s="81"/>
@@ -14089,7 +14144,7 @@
       <c r="Y451" s="10"/>
       <c r="Z451" s="10"/>
     </row>
-    <row r="452" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="12.75" customHeight="1">
       <c r="A452" s="27"/>
       <c r="B452" s="39"/>
       <c r="C452" s="81"/>
@@ -14117,7 +14172,7 @@
       <c r="Y452" s="10"/>
       <c r="Z452" s="10"/>
     </row>
-    <row r="453" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="12.75" customHeight="1">
       <c r="A453" s="27"/>
       <c r="B453" s="39"/>
       <c r="C453" s="81"/>
@@ -14145,7 +14200,7 @@
       <c r="Y453" s="10"/>
       <c r="Z453" s="10"/>
     </row>
-    <row r="454" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="12.75" customHeight="1">
       <c r="A454" s="27"/>
       <c r="B454" s="39"/>
       <c r="C454" s="81"/>
@@ -14173,7 +14228,7 @@
       <c r="Y454" s="10"/>
       <c r="Z454" s="10"/>
     </row>
-    <row r="455" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="12.75" customHeight="1">
       <c r="A455" s="27"/>
       <c r="B455" s="39"/>
       <c r="C455" s="81"/>
@@ -14201,7 +14256,7 @@
       <c r="Y455" s="10"/>
       <c r="Z455" s="10"/>
     </row>
-    <row r="456" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="12.75" customHeight="1">
       <c r="A456" s="27"/>
       <c r="B456" s="39"/>
       <c r="C456" s="81"/>
@@ -14229,7 +14284,7 @@
       <c r="Y456" s="10"/>
       <c r="Z456" s="10"/>
     </row>
-    <row r="457" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="12.75" customHeight="1">
       <c r="A457" s="27"/>
       <c r="B457" s="39"/>
       <c r="C457" s="81"/>
@@ -14257,7 +14312,7 @@
       <c r="Y457" s="10"/>
       <c r="Z457" s="10"/>
     </row>
-    <row r="458" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="12.75" customHeight="1">
       <c r="A458" s="27"/>
       <c r="B458" s="39"/>
       <c r="C458" s="81"/>
@@ -14285,7 +14340,7 @@
       <c r="Y458" s="10"/>
       <c r="Z458" s="10"/>
     </row>
-    <row r="459" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="12.75" customHeight="1">
       <c r="A459" s="27"/>
       <c r="B459" s="39"/>
       <c r="C459" s="81"/>
@@ -14313,7 +14368,7 @@
       <c r="Y459" s="10"/>
       <c r="Z459" s="10"/>
     </row>
-    <row r="460" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="12.75" customHeight="1">
       <c r="A460" s="27"/>
       <c r="B460" s="39"/>
       <c r="C460" s="81"/>
@@ -14341,7 +14396,7 @@
       <c r="Y460" s="10"/>
       <c r="Z460" s="10"/>
     </row>
-    <row r="461" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="12.75" customHeight="1">
       <c r="A461" s="27"/>
       <c r="B461" s="39"/>
       <c r="C461" s="81"/>
@@ -14369,7 +14424,7 @@
       <c r="Y461" s="10"/>
       <c r="Z461" s="10"/>
     </row>
-    <row r="462" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="12.75" customHeight="1">
       <c r="A462" s="27"/>
       <c r="B462" s="39"/>
       <c r="C462" s="81"/>
@@ -14397,7 +14452,7 @@
       <c r="Y462" s="10"/>
       <c r="Z462" s="10"/>
     </row>
-    <row r="463" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="12.75" customHeight="1">
       <c r="A463" s="27"/>
       <c r="B463" s="39"/>
       <c r="C463" s="81"/>
@@ -14425,7 +14480,7 @@
       <c r="Y463" s="10"/>
       <c r="Z463" s="10"/>
     </row>
-    <row r="464" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="12.75" customHeight="1">
       <c r="A464" s="27"/>
       <c r="B464" s="39"/>
       <c r="C464" s="81"/>
@@ -14453,7 +14508,7 @@
       <c r="Y464" s="10"/>
       <c r="Z464" s="10"/>
     </row>
-    <row r="465" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="12.75" customHeight="1">
       <c r="A465" s="27"/>
       <c r="B465" s="39"/>
       <c r="C465" s="81"/>
@@ -14481,7 +14536,7 @@
       <c r="Y465" s="10"/>
       <c r="Z465" s="10"/>
     </row>
-    <row r="466" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="12.75" customHeight="1">
       <c r="A466" s="27"/>
       <c r="B466" s="39"/>
       <c r="C466" s="81"/>
@@ -14509,7 +14564,7 @@
       <c r="Y466" s="10"/>
       <c r="Z466" s="10"/>
     </row>
-    <row r="467" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="12.75" customHeight="1">
       <c r="A467" s="27"/>
       <c r="B467" s="39"/>
       <c r="C467" s="81"/>
@@ -14537,7 +14592,7 @@
       <c r="Y467" s="10"/>
       <c r="Z467" s="10"/>
     </row>
-    <row r="468" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="12.75" customHeight="1">
       <c r="A468" s="27"/>
       <c r="B468" s="39"/>
       <c r="C468" s="81"/>
@@ -14565,7 +14620,7 @@
       <c r="Y468" s="10"/>
       <c r="Z468" s="10"/>
     </row>
-    <row r="469" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="12.75" customHeight="1">
       <c r="A469" s="27"/>
       <c r="B469" s="39"/>
       <c r="C469" s="81"/>
@@ -14593,7 +14648,7 @@
       <c r="Y469" s="10"/>
       <c r="Z469" s="10"/>
     </row>
-    <row r="470" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="12.75" customHeight="1">
       <c r="A470" s="27"/>
       <c r="B470" s="39"/>
       <c r="C470" s="81"/>
@@ -14621,7 +14676,7 @@
       <c r="Y470" s="10"/>
       <c r="Z470" s="10"/>
     </row>
-    <row r="471" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="12.75" customHeight="1">
       <c r="A471" s="27"/>
       <c r="B471" s="39"/>
       <c r="C471" s="81"/>
@@ -14649,7 +14704,7 @@
       <c r="Y471" s="10"/>
       <c r="Z471" s="10"/>
     </row>
-    <row r="472" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="12.75" customHeight="1">
       <c r="A472" s="27"/>
       <c r="B472" s="39"/>
       <c r="C472" s="81"/>
@@ -14677,7 +14732,7 @@
       <c r="Y472" s="10"/>
       <c r="Z472" s="10"/>
     </row>
-    <row r="473" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="12.75" customHeight="1">
       <c r="A473" s="27"/>
       <c r="B473" s="39"/>
       <c r="C473" s="81"/>
@@ -14705,7 +14760,7 @@
       <c r="Y473" s="10"/>
       <c r="Z473" s="10"/>
     </row>
-    <row r="474" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="12.75" customHeight="1">
       <c r="A474" s="27"/>
       <c r="B474" s="39"/>
       <c r="C474" s="81"/>
@@ -14733,7 +14788,7 @@
       <c r="Y474" s="10"/>
       <c r="Z474" s="10"/>
     </row>
-    <row r="475" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="12.75" customHeight="1">
       <c r="A475" s="27"/>
       <c r="B475" s="39"/>
       <c r="C475" s="81"/>
@@ -14761,7 +14816,7 @@
       <c r="Y475" s="10"/>
       <c r="Z475" s="10"/>
     </row>
-    <row r="476" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="12.75" customHeight="1">
       <c r="A476" s="27"/>
       <c r="B476" s="39"/>
       <c r="C476" s="81"/>
@@ -14789,7 +14844,7 @@
       <c r="Y476" s="10"/>
       <c r="Z476" s="10"/>
     </row>
-    <row r="477" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="12.75" customHeight="1">
       <c r="A477" s="27"/>
       <c r="B477" s="39"/>
       <c r="C477" s="81"/>
@@ -14817,7 +14872,7 @@
       <c r="Y477" s="10"/>
       <c r="Z477" s="10"/>
     </row>
-    <row r="478" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="12.75" customHeight="1">
       <c r="A478" s="27"/>
       <c r="B478" s="39"/>
       <c r="C478" s="81"/>
@@ -14845,7 +14900,7 @@
       <c r="Y478" s="10"/>
       <c r="Z478" s="10"/>
     </row>
-    <row r="479" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="12.75" customHeight="1">
       <c r="A479" s="27"/>
       <c r="B479" s="39"/>
       <c r="C479" s="81"/>
@@ -14873,7 +14928,7 @@
       <c r="Y479" s="10"/>
       <c r="Z479" s="10"/>
     </row>
-    <row r="480" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="12.75" customHeight="1">
       <c r="A480" s="27"/>
       <c r="B480" s="39"/>
       <c r="C480" s="81"/>
@@ -14901,7 +14956,7 @@
       <c r="Y480" s="10"/>
       <c r="Z480" s="10"/>
     </row>
-    <row r="481" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="12.75" customHeight="1">
       <c r="A481" s="27"/>
       <c r="B481" s="39"/>
       <c r="C481" s="81"/>
@@ -14929,7 +14984,7 @@
       <c r="Y481" s="10"/>
       <c r="Z481" s="10"/>
     </row>
-    <row r="482" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="12.75" customHeight="1">
       <c r="A482" s="27"/>
       <c r="B482" s="39"/>
       <c r="C482" s="81"/>
@@ -14957,7 +15012,7 @@
       <c r="Y482" s="10"/>
       <c r="Z482" s="10"/>
     </row>
-    <row r="483" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="12.75" customHeight="1">
       <c r="A483" s="27"/>
       <c r="B483" s="39"/>
       <c r="C483" s="81"/>
@@ -14985,7 +15040,7 @@
       <c r="Y483" s="10"/>
       <c r="Z483" s="10"/>
     </row>
-    <row r="484" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="12.75" customHeight="1">
       <c r="A484" s="27"/>
       <c r="B484" s="39"/>
       <c r="C484" s="81"/>
@@ -15013,7 +15068,7 @@
       <c r="Y484" s="10"/>
       <c r="Z484" s="10"/>
     </row>
-    <row r="485" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="12.75" customHeight="1">
       <c r="A485" s="27"/>
       <c r="B485" s="39"/>
       <c r="C485" s="81"/>
@@ -15041,7 +15096,7 @@
       <c r="Y485" s="10"/>
       <c r="Z485" s="10"/>
     </row>
-    <row r="486" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="12.75" customHeight="1">
       <c r="A486" s="27"/>
       <c r="B486" s="39"/>
       <c r="C486" s="81"/>
@@ -15069,7 +15124,7 @@
       <c r="Y486" s="10"/>
       <c r="Z486" s="10"/>
     </row>
-    <row r="487" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="12.75" customHeight="1">
       <c r="A487" s="27"/>
       <c r="B487" s="39"/>
       <c r="C487" s="81"/>
@@ -15097,7 +15152,7 @@
       <c r="Y487" s="10"/>
       <c r="Z487" s="10"/>
     </row>
-    <row r="488" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="12.75" customHeight="1">
       <c r="A488" s="27"/>
       <c r="B488" s="39"/>
       <c r="C488" s="81"/>
@@ -15125,7 +15180,7 @@
       <c r="Y488" s="10"/>
       <c r="Z488" s="10"/>
     </row>
-    <row r="489" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="12.75" customHeight="1">
       <c r="A489" s="27"/>
       <c r="B489" s="39"/>
       <c r="C489" s="81"/>
@@ -15153,7 +15208,7 @@
       <c r="Y489" s="10"/>
       <c r="Z489" s="10"/>
     </row>
-    <row r="490" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="12.75" customHeight="1">
       <c r="A490" s="27"/>
       <c r="B490" s="39"/>
       <c r="C490" s="81"/>
@@ -15181,7 +15236,7 @@
       <c r="Y490" s="10"/>
       <c r="Z490" s="10"/>
     </row>
-    <row r="491" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="12.75" customHeight="1">
       <c r="A491" s="27"/>
       <c r="B491" s="39"/>
       <c r="C491" s="81"/>
@@ -15209,7 +15264,7 @@
       <c r="Y491" s="10"/>
       <c r="Z491" s="10"/>
     </row>
-    <row r="492" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="12.75" customHeight="1">
       <c r="A492" s="27"/>
       <c r="B492" s="39"/>
       <c r="C492" s="81"/>
@@ -15237,7 +15292,7 @@
       <c r="Y492" s="10"/>
       <c r="Z492" s="10"/>
     </row>
-    <row r="493" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="12.75" customHeight="1">
       <c r="A493" s="27"/>
       <c r="B493" s="39"/>
       <c r="C493" s="81"/>
@@ -15265,7 +15320,7 @@
       <c r="Y493" s="10"/>
       <c r="Z493" s="10"/>
     </row>
-    <row r="494" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="12.75" customHeight="1">
       <c r="A494" s="27"/>
       <c r="B494" s="39"/>
       <c r="C494" s="81"/>
@@ -15293,7 +15348,7 @@
       <c r="Y494" s="10"/>
       <c r="Z494" s="10"/>
     </row>
-    <row r="495" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="12.75" customHeight="1">
       <c r="A495" s="27"/>
       <c r="B495" s="39"/>
       <c r="C495" s="81"/>
@@ -15321,7 +15376,7 @@
       <c r="Y495" s="10"/>
       <c r="Z495" s="10"/>
     </row>
-    <row r="496" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="12.75" customHeight="1">
       <c r="A496" s="27"/>
       <c r="B496" s="39"/>
       <c r="C496" s="81"/>
@@ -15349,7 +15404,7 @@
       <c r="Y496" s="10"/>
       <c r="Z496" s="10"/>
     </row>
-    <row r="497" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="12.75" customHeight="1">
       <c r="A497" s="27"/>
       <c r="B497" s="39"/>
       <c r="C497" s="81"/>
@@ -15377,7 +15432,7 @@
       <c r="Y497" s="10"/>
       <c r="Z497" s="10"/>
     </row>
-    <row r="498" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="12.75" customHeight="1">
       <c r="A498" s="27"/>
       <c r="B498" s="39"/>
       <c r="C498" s="81"/>
@@ -15405,7 +15460,7 @@
       <c r="Y498" s="10"/>
       <c r="Z498" s="10"/>
     </row>
-    <row r="499" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="12.75" customHeight="1">
       <c r="A499" s="27"/>
       <c r="B499" s="39"/>
       <c r="C499" s="81"/>
@@ -15433,7 +15488,7 @@
       <c r="Y499" s="10"/>
       <c r="Z499" s="10"/>
     </row>
-    <row r="500" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="12.75" customHeight="1">
       <c r="A500" s="27"/>
       <c r="B500" s="39"/>
       <c r="C500" s="81"/>
@@ -15461,7 +15516,7 @@
       <c r="Y500" s="10"/>
       <c r="Z500" s="10"/>
     </row>
-    <row r="501" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="12.75" customHeight="1">
       <c r="A501" s="27"/>
       <c r="B501" s="39"/>
       <c r="C501" s="81"/>
@@ -15489,7 +15544,7 @@
       <c r="Y501" s="10"/>
       <c r="Z501" s="10"/>
     </row>
-    <row r="502" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="12.75" customHeight="1">
       <c r="A502" s="27"/>
       <c r="B502" s="39"/>
       <c r="C502" s="81"/>
@@ -15517,7 +15572,7 @@
       <c r="Y502" s="10"/>
       <c r="Z502" s="10"/>
     </row>
-    <row r="503" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="12.75" customHeight="1">
       <c r="A503" s="27"/>
       <c r="B503" s="39"/>
       <c r="C503" s="81"/>
@@ -15545,7 +15600,7 @@
       <c r="Y503" s="10"/>
       <c r="Z503" s="10"/>
     </row>
-    <row r="504" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="12.75" customHeight="1">
       <c r="A504" s="27"/>
       <c r="B504" s="39"/>
       <c r="C504" s="81"/>
@@ -15573,7 +15628,7 @@
       <c r="Y504" s="10"/>
       <c r="Z504" s="10"/>
     </row>
-    <row r="505" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="12.75" customHeight="1">
       <c r="A505" s="27"/>
       <c r="B505" s="39"/>
       <c r="C505" s="81"/>
@@ -15601,7 +15656,7 @@
       <c r="Y505" s="10"/>
       <c r="Z505" s="10"/>
     </row>
-    <row r="506" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="12.75" customHeight="1">
       <c r="A506" s="27"/>
       <c r="B506" s="39"/>
       <c r="C506" s="81"/>
@@ -15629,7 +15684,7 @@
       <c r="Y506" s="10"/>
       <c r="Z506" s="10"/>
     </row>
-    <row r="507" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="12.75" customHeight="1">
       <c r="A507" s="27"/>
       <c r="B507" s="39"/>
       <c r="C507" s="81"/>
@@ -15657,7 +15712,7 @@
       <c r="Y507" s="10"/>
       <c r="Z507" s="10"/>
     </row>
-    <row r="508" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="12.75" customHeight="1">
       <c r="A508" s="27"/>
       <c r="B508" s="39"/>
       <c r="C508" s="81"/>
@@ -15685,7 +15740,7 @@
       <c r="Y508" s="10"/>
       <c r="Z508" s="10"/>
     </row>
-    <row r="509" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="12.75" customHeight="1">
       <c r="A509" s="27"/>
       <c r="B509" s="39"/>
       <c r="C509" s="81"/>
@@ -15713,7 +15768,7 @@
       <c r="Y509" s="10"/>
       <c r="Z509" s="10"/>
     </row>
-    <row r="510" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="12.75" customHeight="1">
       <c r="A510" s="27"/>
       <c r="B510" s="39"/>
       <c r="C510" s="81"/>
@@ -15741,7 +15796,7 @@
       <c r="Y510" s="10"/>
       <c r="Z510" s="10"/>
     </row>
-    <row r="511" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="12.75" customHeight="1">
       <c r="A511" s="27"/>
       <c r="B511" s="39"/>
       <c r="C511" s="81"/>
@@ -15769,7 +15824,7 @@
       <c r="Y511" s="10"/>
       <c r="Z511" s="10"/>
     </row>
-    <row r="512" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="12.75" customHeight="1">
       <c r="A512" s="27"/>
       <c r="B512" s="39"/>
       <c r="C512" s="81"/>
@@ -15797,7 +15852,7 @@
       <c r="Y512" s="10"/>
       <c r="Z512" s="10"/>
     </row>
-    <row r="513" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="12.75" customHeight="1">
       <c r="A513" s="27"/>
       <c r="B513" s="39"/>
       <c r="C513" s="81"/>
@@ -15825,7 +15880,7 @@
       <c r="Y513" s="10"/>
       <c r="Z513" s="10"/>
     </row>
-    <row r="514" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="12.75" customHeight="1">
       <c r="A514" s="27"/>
       <c r="B514" s="39"/>
       <c r="C514" s="81"/>
@@ -15853,7 +15908,7 @@
       <c r="Y514" s="10"/>
       <c r="Z514" s="10"/>
     </row>
-    <row r="515" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="12.75" customHeight="1">
       <c r="A515" s="27"/>
       <c r="B515" s="39"/>
       <c r="C515" s="81"/>
@@ -15881,7 +15936,7 @@
       <c r="Y515" s="10"/>
       <c r="Z515" s="10"/>
     </row>
-    <row r="516" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="12.75" customHeight="1">
       <c r="A516" s="27"/>
       <c r="B516" s="39"/>
       <c r="C516" s="81"/>
@@ -15909,7 +15964,7 @@
       <c r="Y516" s="10"/>
       <c r="Z516" s="10"/>
     </row>
-    <row r="517" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="12.75" customHeight="1">
       <c r="A517" s="27"/>
       <c r="B517" s="39"/>
       <c r="C517" s="81"/>
@@ -15937,7 +15992,7 @@
       <c r="Y517" s="10"/>
       <c r="Z517" s="10"/>
     </row>
-    <row r="518" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="12.75" customHeight="1">
       <c r="A518" s="27"/>
       <c r="B518" s="39"/>
       <c r="C518" s="81"/>
@@ -15965,7 +16020,7 @@
       <c r="Y518" s="10"/>
       <c r="Z518" s="10"/>
     </row>
-    <row r="519" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="12.75" customHeight="1">
       <c r="A519" s="27"/>
       <c r="B519" s="39"/>
       <c r="C519" s="81"/>
@@ -15993,7 +16048,7 @@
       <c r="Y519" s="10"/>
       <c r="Z519" s="10"/>
     </row>
-    <row r="520" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="12.75" customHeight="1">
       <c r="A520" s="27"/>
       <c r="B520" s="39"/>
       <c r="C520" s="81"/>
@@ -16021,7 +16076,7 @@
       <c r="Y520" s="10"/>
       <c r="Z520" s="10"/>
     </row>
-    <row r="521" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="12.75" customHeight="1">
       <c r="A521" s="27"/>
       <c r="B521" s="39"/>
       <c r="C521" s="81"/>
@@ -16049,7 +16104,7 @@
       <c r="Y521" s="10"/>
       <c r="Z521" s="10"/>
     </row>
-    <row r="522" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="12.75" customHeight="1">
       <c r="A522" s="27"/>
       <c r="B522" s="39"/>
       <c r="C522" s="81"/>
@@ -16077,7 +16132,7 @@
       <c r="Y522" s="10"/>
       <c r="Z522" s="10"/>
     </row>
-    <row r="523" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="12.75" customHeight="1">
       <c r="A523" s="27"/>
       <c r="B523" s="39"/>
       <c r="C523" s="81"/>
@@ -16105,7 +16160,7 @@
       <c r="Y523" s="10"/>
       <c r="Z523" s="10"/>
     </row>
-    <row r="524" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="12.75" customHeight="1">
       <c r="A524" s="27"/>
       <c r="B524" s="39"/>
       <c r="C524" s="81"/>
@@ -16133,7 +16188,7 @@
       <c r="Y524" s="10"/>
       <c r="Z524" s="10"/>
     </row>
-    <row r="525" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="12.75" customHeight="1">
       <c r="A525" s="27"/>
       <c r="B525" s="39"/>
       <c r="C525" s="81"/>
@@ -16161,7 +16216,7 @@
       <c r="Y525" s="10"/>
       <c r="Z525" s="10"/>
     </row>
-    <row r="526" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="12.75" customHeight="1">
       <c r="A526" s="27"/>
       <c r="B526" s="39"/>
       <c r="C526" s="81"/>
@@ -16189,7 +16244,7 @@
       <c r="Y526" s="10"/>
       <c r="Z526" s="10"/>
     </row>
-    <row r="527" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="12.75" customHeight="1">
       <c r="A527" s="27"/>
       <c r="B527" s="39"/>
       <c r="C527" s="81"/>
@@ -16217,7 +16272,7 @@
       <c r="Y527" s="10"/>
       <c r="Z527" s="10"/>
     </row>
-    <row r="528" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="12.75" customHeight="1">
       <c r="A528" s="27"/>
       <c r="B528" s="39"/>
       <c r="C528" s="81"/>
@@ -16245,7 +16300,7 @@
       <c r="Y528" s="10"/>
       <c r="Z528" s="10"/>
     </row>
-    <row r="529" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="12.75" customHeight="1">
       <c r="A529" s="27"/>
       <c r="B529" s="39"/>
       <c r="C529" s="81"/>
@@ -16273,7 +16328,7 @@
       <c r="Y529" s="10"/>
       <c r="Z529" s="10"/>
     </row>
-    <row r="530" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="12.75" customHeight="1">
       <c r="A530" s="27"/>
       <c r="B530" s="39"/>
       <c r="C530" s="81"/>
@@ -16301,7 +16356,7 @@
       <c r="Y530" s="10"/>
       <c r="Z530" s="10"/>
     </row>
-    <row r="531" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="12.75" customHeight="1">
       <c r="A531" s="27"/>
       <c r="B531" s="39"/>
       <c r="C531" s="81"/>
@@ -16329,7 +16384,7 @@
       <c r="Y531" s="10"/>
       <c r="Z531" s="10"/>
     </row>
-    <row r="532" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="12.75" customHeight="1">
       <c r="A532" s="27"/>
       <c r="B532" s="39"/>
       <c r="C532" s="81"/>
@@ -16357,7 +16412,7 @@
       <c r="Y532" s="10"/>
       <c r="Z532" s="10"/>
     </row>
-    <row r="533" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="12.75" customHeight="1">
       <c r="A533" s="27"/>
       <c r="B533" s="39"/>
       <c r="C533" s="81"/>
@@ -16385,7 +16440,7 @@
       <c r="Y533" s="10"/>
       <c r="Z533" s="10"/>
     </row>
-    <row r="534" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="12.75" customHeight="1">
       <c r="A534" s="27"/>
       <c r="B534" s="39"/>
       <c r="C534" s="81"/>
@@ -16413,7 +16468,7 @@
       <c r="Y534" s="10"/>
       <c r="Z534" s="10"/>
     </row>
-    <row r="535" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="12.75" customHeight="1">
       <c r="A535" s="27"/>
       <c r="B535" s="39"/>
       <c r="C535" s="81"/>
@@ -16441,7 +16496,7 @@
       <c r="Y535" s="10"/>
       <c r="Z535" s="10"/>
     </row>
-    <row r="536" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="12.75" customHeight="1">
       <c r="A536" s="27"/>
       <c r="B536" s="39"/>
       <c r="C536" s="81"/>
@@ -16469,7 +16524,7 @@
       <c r="Y536" s="10"/>
       <c r="Z536" s="10"/>
     </row>
-    <row r="537" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="12.75" customHeight="1">
       <c r="A537" s="27"/>
       <c r="B537" s="39"/>
       <c r="C537" s="81"/>
@@ -16497,7 +16552,7 @@
       <c r="Y537" s="10"/>
       <c r="Z537" s="10"/>
     </row>
-    <row r="538" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="12.75" customHeight="1">
       <c r="A538" s="27"/>
       <c r="B538" s="39"/>
       <c r="C538" s="81"/>
@@ -16525,7 +16580,7 @@
       <c r="Y538" s="10"/>
       <c r="Z538" s="10"/>
     </row>
-    <row r="539" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="12.75" customHeight="1">
       <c r="A539" s="27"/>
       <c r="B539" s="39"/>
       <c r="C539" s="81"/>
@@ -16553,7 +16608,7 @@
       <c r="Y539" s="10"/>
       <c r="Z539" s="10"/>
     </row>
-    <row r="540" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="12.75" customHeight="1">
       <c r="A540" s="27"/>
       <c r="B540" s="39"/>
       <c r="C540" s="81"/>
@@ -16581,7 +16636,7 @@
       <c r="Y540" s="10"/>
       <c r="Z540" s="10"/>
     </row>
-    <row r="541" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="12.75" customHeight="1">
       <c r="A541" s="27"/>
       <c r="B541" s="39"/>
       <c r="C541" s="81"/>
@@ -16609,7 +16664,7 @@
       <c r="Y541" s="10"/>
       <c r="Z541" s="10"/>
     </row>
-    <row r="542" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="12.75" customHeight="1">
       <c r="A542" s="27"/>
       <c r="B542" s="39"/>
       <c r="C542" s="81"/>
@@ -16637,7 +16692,7 @@
       <c r="Y542" s="10"/>
       <c r="Z542" s="10"/>
     </row>
-    <row r="543" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="12.75" customHeight="1">
       <c r="A543" s="27"/>
       <c r="B543" s="39"/>
       <c r="C543" s="81"/>
@@ -16665,7 +16720,7 @@
       <c r="Y543" s="10"/>
       <c r="Z543" s="10"/>
     </row>
-    <row r="544" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="12.75" customHeight="1">
       <c r="A544" s="27"/>
       <c r="B544" s="39"/>
       <c r="C544" s="81"/>
@@ -16693,7 +16748,7 @@
       <c r="Y544" s="10"/>
       <c r="Z544" s="10"/>
     </row>
-    <row r="545" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="12.75" customHeight="1">
       <c r="A545" s="27"/>
       <c r="B545" s="39"/>
       <c r="C545" s="81"/>
@@ -16721,7 +16776,7 @@
       <c r="Y545" s="10"/>
       <c r="Z545" s="10"/>
     </row>
-    <row r="546" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="12.75" customHeight="1">
       <c r="A546" s="27"/>
       <c r="B546" s="39"/>
       <c r="C546" s="81"/>
@@ -16749,7 +16804,7 @@
       <c r="Y546" s="10"/>
       <c r="Z546" s="10"/>
     </row>
-    <row r="547" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="12.75" customHeight="1">
       <c r="A547" s="27"/>
       <c r="B547" s="39"/>
       <c r="C547" s="81"/>
@@ -16777,7 +16832,7 @@
       <c r="Y547" s="10"/>
       <c r="Z547" s="10"/>
     </row>
-    <row r="548" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="12.75" customHeight="1">
       <c r="A548" s="27"/>
       <c r="B548" s="39"/>
       <c r="C548" s="81"/>
@@ -16805,7 +16860,7 @@
       <c r="Y548" s="10"/>
       <c r="Z548" s="10"/>
     </row>
-    <row r="549" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="12.75" customHeight="1">
       <c r="A549" s="27"/>
       <c r="B549" s="39"/>
       <c r="C549" s="81"/>
@@ -16833,7 +16888,7 @@
       <c r="Y549" s="10"/>
       <c r="Z549" s="10"/>
     </row>
-    <row r="550" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="12.75" customHeight="1">
       <c r="A550" s="27"/>
       <c r="B550" s="39"/>
       <c r="C550" s="81"/>
@@ -16861,7 +16916,7 @@
       <c r="Y550" s="10"/>
       <c r="Z550" s="10"/>
     </row>
-    <row r="551" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="12.75" customHeight="1">
       <c r="A551" s="27"/>
       <c r="B551" s="39"/>
       <c r="C551" s="81"/>
@@ -16889,7 +16944,7 @@
       <c r="Y551" s="10"/>
       <c r="Z551" s="10"/>
     </row>
-    <row r="552" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="12.75" customHeight="1">
       <c r="A552" s="27"/>
       <c r="B552" s="39"/>
       <c r="C552" s="81"/>
@@ -16917,7 +16972,7 @@
       <c r="Y552" s="10"/>
       <c r="Z552" s="10"/>
     </row>
-    <row r="553" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="12.75" customHeight="1">
       <c r="A553" s="27"/>
       <c r="B553" s="39"/>
       <c r="C553" s="81"/>
@@ -16945,7 +17000,7 @@
       <c r="Y553" s="10"/>
       <c r="Z553" s="10"/>
     </row>
-    <row r="554" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="12.75" customHeight="1">
       <c r="A554" s="27"/>
       <c r="B554" s="39"/>
       <c r="C554" s="81"/>
@@ -16973,7 +17028,7 @@
       <c r="Y554" s="10"/>
       <c r="Z554" s="10"/>
     </row>
-    <row r="555" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="12.75" customHeight="1">
       <c r="A555" s="27"/>
       <c r="B555" s="39"/>
       <c r="C555" s="81"/>
@@ -17001,7 +17056,7 @@
       <c r="Y555" s="10"/>
       <c r="Z555" s="10"/>
     </row>
-    <row r="556" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="12.75" customHeight="1">
       <c r="A556" s="27"/>
       <c r="B556" s="39"/>
       <c r="C556" s="81"/>
@@ -17029,7 +17084,7 @@
       <c r="Y556" s="10"/>
       <c r="Z556" s="10"/>
     </row>
-    <row r="557" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="12.75" customHeight="1">
       <c r="A557" s="27"/>
       <c r="B557" s="39"/>
       <c r="C557" s="81"/>
@@ -17057,7 +17112,7 @@
       <c r="Y557" s="10"/>
       <c r="Z557" s="10"/>
     </row>
-    <row r="558" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="12.75" customHeight="1">
       <c r="A558" s="27"/>
       <c r="B558" s="39"/>
       <c r="C558" s="81"/>
@@ -17085,7 +17140,7 @@
       <c r="Y558" s="10"/>
       <c r="Z558" s="10"/>
     </row>
-    <row r="559" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="12.75" customHeight="1">
       <c r="A559" s="27"/>
       <c r="B559" s="39"/>
       <c r="C559" s="81"/>
@@ -17113,7 +17168,7 @@
       <c r="Y559" s="10"/>
       <c r="Z559" s="10"/>
     </row>
-    <row r="560" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="12.75" customHeight="1">
       <c r="A560" s="27"/>
       <c r="B560" s="39"/>
       <c r="C560" s="81"/>
@@ -17141,7 +17196,7 @@
       <c r="Y560" s="10"/>
       <c r="Z560" s="10"/>
     </row>
-    <row r="561" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="12.75" customHeight="1">
       <c r="A561" s="27"/>
       <c r="B561" s="39"/>
       <c r="C561" s="81"/>
@@ -17169,7 +17224,7 @@
       <c r="Y561" s="10"/>
       <c r="Z561" s="10"/>
     </row>
-    <row r="562" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="12.75" customHeight="1">
       <c r="A562" s="27"/>
       <c r="B562" s="39"/>
       <c r="C562" s="81"/>
@@ -17197,7 +17252,7 @@
       <c r="Y562" s="10"/>
       <c r="Z562" s="10"/>
     </row>
-    <row r="563" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="12.75" customHeight="1">
       <c r="A563" s="27"/>
       <c r="B563" s="39"/>
       <c r="C563" s="81"/>
@@ -17225,7 +17280,7 @@
       <c r="Y563" s="10"/>
       <c r="Z563" s="10"/>
     </row>
-    <row r="564" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="12.75" customHeight="1">
       <c r="A564" s="27"/>
       <c r="B564" s="39"/>
       <c r="C564" s="81"/>
@@ -17253,7 +17308,7 @@
       <c r="Y564" s="10"/>
       <c r="Z564" s="10"/>
     </row>
-    <row r="565" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="12.75" customHeight="1">
       <c r="A565" s="27"/>
       <c r="B565" s="39"/>
       <c r="C565" s="81"/>
@@ -17281,7 +17336,7 @@
       <c r="Y565" s="10"/>
       <c r="Z565" s="10"/>
     </row>
-    <row r="566" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="12.75" customHeight="1">
       <c r="A566" s="27"/>
       <c r="B566" s="39"/>
       <c r="C566" s="81"/>
@@ -17309,7 +17364,7 @@
       <c r="Y566" s="10"/>
       <c r="Z566" s="10"/>
     </row>
-    <row r="567" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="12.75" customHeight="1">
       <c r="A567" s="27"/>
       <c r="B567" s="39"/>
       <c r="C567" s="81"/>
@@ -17337,7 +17392,7 @@
       <c r="Y567" s="10"/>
       <c r="Z567" s="10"/>
     </row>
-    <row r="568" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="12.75" customHeight="1">
       <c r="A568" s="27"/>
       <c r="B568" s="39"/>
       <c r="C568" s="81"/>
@@ -17365,7 +17420,7 @@
       <c r="Y568" s="10"/>
       <c r="Z568" s="10"/>
     </row>
-    <row r="569" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="12.75" customHeight="1">
       <c r="A569" s="27"/>
       <c r="B569" s="39"/>
       <c r="C569" s="81"/>
@@ -17393,7 +17448,7 @@
       <c r="Y569" s="10"/>
       <c r="Z569" s="10"/>
     </row>
-    <row r="570" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="12.75" customHeight="1">
       <c r="A570" s="27"/>
       <c r="B570" s="39"/>
       <c r="C570" s="81"/>
@@ -17421,7 +17476,7 @@
       <c r="Y570" s="10"/>
       <c r="Z570" s="10"/>
     </row>
-    <row r="571" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="12.75" customHeight="1">
       <c r="A571" s="27"/>
       <c r="B571" s="39"/>
       <c r="C571" s="81"/>
@@ -17449,7 +17504,7 @@
       <c r="Y571" s="10"/>
       <c r="Z571" s="10"/>
     </row>
-    <row r="572" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="12.75" customHeight="1">
       <c r="A572" s="27"/>
       <c r="B572" s="39"/>
       <c r="C572" s="81"/>
@@ -17477,7 +17532,7 @@
       <c r="Y572" s="10"/>
       <c r="Z572" s="10"/>
     </row>
-    <row r="573" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="12.75" customHeight="1">
       <c r="A573" s="27"/>
       <c r="B573" s="39"/>
       <c r="C573" s="81"/>
@@ -17505,7 +17560,7 @@
       <c r="Y573" s="10"/>
       <c r="Z573" s="10"/>
     </row>
-    <row r="574" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="12.75" customHeight="1">
       <c r="A574" s="27"/>
       <c r="B574" s="39"/>
       <c r="C574" s="81"/>
@@ -17533,7 +17588,7 @@
       <c r="Y574" s="10"/>
       <c r="Z574" s="10"/>
     </row>
-    <row r="575" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="12.75" customHeight="1">
       <c r="A575" s="27"/>
       <c r="B575" s="39"/>
       <c r="C575" s="81"/>
@@ -17561,7 +17616,7 @@
       <c r="Y575" s="10"/>
       <c r="Z575" s="10"/>
     </row>
-    <row r="576" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="12.75" customHeight="1">
       <c r="A576" s="27"/>
       <c r="B576" s="39"/>
       <c r="C576" s="81"/>
@@ -17589,7 +17644,7 @@
       <c r="Y576" s="10"/>
       <c r="Z576" s="10"/>
     </row>
-    <row r="577" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="12.75" customHeight="1">
       <c r="A577" s="27"/>
       <c r="B577" s="39"/>
       <c r="C577" s="81"/>
@@ -17617,7 +17672,7 @@
       <c r="Y577" s="10"/>
       <c r="Z577" s="10"/>
     </row>
-    <row r="578" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="12.75" customHeight="1">
       <c r="A578" s="27"/>
       <c r="B578" s="39"/>
       <c r="C578" s="81"/>
@@ -17645,7 +17700,7 @@
       <c r="Y578" s="10"/>
       <c r="Z578" s="10"/>
     </row>
-    <row r="579" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="12.75" customHeight="1">
       <c r="A579" s="27"/>
       <c r="B579" s="39"/>
       <c r="C579" s="81"/>
@@ -17673,7 +17728,7 @@
       <c r="Y579" s="10"/>
       <c r="Z579" s="10"/>
     </row>
-    <row r="580" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="12.75" customHeight="1">
       <c r="A580" s="27"/>
       <c r="B580" s="39"/>
       <c r="C580" s="81"/>
@@ -17701,7 +17756,7 @@
       <c r="Y580" s="10"/>
       <c r="Z580" s="10"/>
     </row>
-    <row r="581" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="12.75" customHeight="1">
       <c r="A581" s="27"/>
       <c r="B581" s="39"/>
       <c r="C581" s="81"/>
@@ -17729,7 +17784,7 @@
       <c r="Y581" s="10"/>
       <c r="Z581" s="10"/>
     </row>
-    <row r="582" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="12.75" customHeight="1">
       <c r="A582" s="27"/>
       <c r="B582" s="39"/>
       <c r="C582" s="81"/>
@@ -17757,7 +17812,7 @@
       <c r="Y582" s="10"/>
       <c r="Z582" s="10"/>
     </row>
-    <row r="583" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="12.75" customHeight="1">
       <c r="A583" s="27"/>
       <c r="B583" s="39"/>
       <c r="C583" s="81"/>
@@ -17785,7 +17840,7 @@
       <c r="Y583" s="10"/>
       <c r="Z583" s="10"/>
     </row>
-    <row r="584" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="12.75" customHeight="1">
       <c r="A584" s="27"/>
       <c r="B584" s="39"/>
       <c r="C584" s="81"/>
@@ -17813,7 +17868,7 @@
       <c r="Y584" s="10"/>
       <c r="Z584" s="10"/>
     </row>
-    <row r="585" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="12.75" customHeight="1">
       <c r="A585" s="27"/>
       <c r="B585" s="39"/>
       <c r="C585" s="81"/>
@@ -17841,7 +17896,7 @@
       <c r="Y585" s="10"/>
       <c r="Z585" s="10"/>
     </row>
-    <row r="586" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="12.75" customHeight="1">
       <c r="A586" s="27"/>
       <c r="B586" s="39"/>
       <c r="C586" s="81"/>
@@ -17869,7 +17924,7 @@
       <c r="Y586" s="10"/>
       <c r="Z586" s="10"/>
     </row>
-    <row r="587" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="12.75" customHeight="1">
       <c r="A587" s="27"/>
       <c r="B587" s="39"/>
       <c r="C587" s="81"/>
@@ -17897,7 +17952,7 @@
       <c r="Y587" s="10"/>
       <c r="Z587" s="10"/>
     </row>
-    <row r="588" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="12.75" customHeight="1">
       <c r="A588" s="27"/>
       <c r="B588" s="39"/>
       <c r="C588" s="81"/>
@@ -17925,7 +17980,7 @@
       <c r="Y588" s="10"/>
       <c r="Z588" s="10"/>
     </row>
-    <row r="589" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="12.75" customHeight="1">
       <c r="A589" s="27"/>
       <c r="B589" s="39"/>
       <c r="C589" s="81"/>
@@ -17953,7 +18008,7 @@
       <c r="Y589" s="10"/>
       <c r="Z589" s="10"/>
     </row>
-    <row r="590" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="12.75" customHeight="1">
       <c r="A590" s="27"/>
       <c r="B590" s="39"/>
       <c r="C590" s="81"/>
@@ -17981,7 +18036,7 @@
       <c r="Y590" s="10"/>
       <c r="Z590" s="10"/>
     </row>
-    <row r="591" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="12.75" customHeight="1">
       <c r="A591" s="27"/>
       <c r="B591" s="39"/>
       <c r="C591" s="81"/>
@@ -18009,7 +18064,7 @@
       <c r="Y591" s="10"/>
       <c r="Z591" s="10"/>
     </row>
-    <row r="592" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="12.75" customHeight="1">
       <c r="A592" s="27"/>
       <c r="B592" s="39"/>
       <c r="C592" s="81"/>
@@ -18037,7 +18092,7 @@
       <c r="Y592" s="10"/>
       <c r="Z592" s="10"/>
     </row>
-    <row r="593" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="12.75" customHeight="1">
       <c r="A593" s="27"/>
       <c r="B593" s="39"/>
       <c r="C593" s="81"/>
@@ -18065,7 +18120,7 @@
       <c r="Y593" s="10"/>
       <c r="Z593" s="10"/>
     </row>
-    <row r="594" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="12.75" customHeight="1">
       <c r="A594" s="27"/>
       <c r="B594" s="39"/>
       <c r="C594" s="81"/>
@@ -18093,7 +18148,7 @@
       <c r="Y594" s="10"/>
       <c r="Z594" s="10"/>
     </row>
-    <row r="595" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="12.75" customHeight="1">
       <c r="A595" s="27"/>
       <c r="B595" s="39"/>
       <c r="C595" s="81"/>
@@ -18121,7 +18176,7 @@
       <c r="Y595" s="10"/>
       <c r="Z595" s="10"/>
     </row>
-    <row r="596" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="12.75" customHeight="1">
       <c r="A596" s="27"/>
       <c r="B596" s="39"/>
       <c r="C596" s="81"/>
@@ -18149,7 +18204,7 @@
       <c r="Y596" s="10"/>
       <c r="Z596" s="10"/>
     </row>
-    <row r="597" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="12.75" customHeight="1">
       <c r="A597" s="27"/>
       <c r="B597" s="39"/>
       <c r="C597" s="81"/>
@@ -18177,7 +18232,7 @@
       <c r="Y597" s="10"/>
       <c r="Z597" s="10"/>
     </row>
-    <row r="598" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="12.75" customHeight="1">
       <c r="A598" s="27"/>
       <c r="B598" s="39"/>
       <c r="C598" s="81"/>
@@ -18205,7 +18260,7 @@
       <c r="Y598" s="10"/>
       <c r="Z598" s="10"/>
     </row>
-    <row r="599" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="12.75" customHeight="1">
       <c r="A599" s="27"/>
       <c r="B599" s="39"/>
       <c r="C599" s="81"/>
@@ -18233,7 +18288,7 @@
       <c r="Y599" s="10"/>
       <c r="Z599" s="10"/>
     </row>
-    <row r="600" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="12.75" customHeight="1">
       <c r="A600" s="27"/>
       <c r="B600" s="39"/>
       <c r="C600" s="81"/>
@@ -18261,7 +18316,7 @@
       <c r="Y600" s="10"/>
       <c r="Z600" s="10"/>
     </row>
-    <row r="601" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="12.75" customHeight="1">
       <c r="A601" s="27"/>
       <c r="B601" s="39"/>
       <c r="C601" s="81"/>
@@ -18289,7 +18344,7 @@
       <c r="Y601" s="10"/>
       <c r="Z601" s="10"/>
     </row>
-    <row r="602" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="12.75" customHeight="1">
       <c r="A602" s="27"/>
       <c r="B602" s="39"/>
       <c r="C602" s="81"/>
@@ -18317,7 +18372,7 @@
       <c r="Y602" s="10"/>
       <c r="Z602" s="10"/>
     </row>
-    <row r="603" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="12.75" customHeight="1">
       <c r="A603" s="27"/>
       <c r="B603" s="39"/>
       <c r="C603" s="81"/>
@@ -18345,7 +18400,7 @@
       <c r="Y603" s="10"/>
       <c r="Z603" s="10"/>
     </row>
-    <row r="604" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="12.75" customHeight="1">
       <c r="A604" s="27"/>
       <c r="B604" s="39"/>
       <c r="C604" s="81"/>
@@ -18373,7 +18428,7 @@
       <c r="Y604" s="10"/>
       <c r="Z604" s="10"/>
     </row>
-    <row r="605" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="12.75" customHeight="1">
       <c r="A605" s="27"/>
       <c r="B605" s="39"/>
       <c r="C605" s="81"/>
@@ -18401,7 +18456,7 @@
       <c r="Y605" s="10"/>
       <c r="Z605" s="10"/>
     </row>
-    <row r="606" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="12.75" customHeight="1">
       <c r="A606" s="27"/>
       <c r="B606" s="39"/>
       <c r="C606" s="81"/>
@@ -18429,7 +18484,7 @@
       <c r="Y606" s="10"/>
       <c r="Z606" s="10"/>
     </row>
-    <row r="607" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="12.75" customHeight="1">
       <c r="A607" s="27"/>
       <c r="B607" s="39"/>
       <c r="C607" s="81"/>
@@ -18457,7 +18512,7 @@
       <c r="Y607" s="10"/>
       <c r="Z607" s="10"/>
     </row>
-    <row r="608" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="12.75" customHeight="1">
       <c r="A608" s="27"/>
       <c r="B608" s="39"/>
       <c r="C608" s="81"/>
@@ -18485,7 +18540,7 @@
       <c r="Y608" s="10"/>
       <c r="Z608" s="10"/>
     </row>
-    <row r="609" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="12.75" customHeight="1">
       <c r="A609" s="27"/>
       <c r="B609" s="39"/>
       <c r="C609" s="81"/>
@@ -18513,7 +18568,7 @@
       <c r="Y609" s="10"/>
       <c r="Z609" s="10"/>
     </row>
-    <row r="610" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="12.75" customHeight="1">
       <c r="A610" s="27"/>
       <c r="B610" s="39"/>
       <c r="C610" s="81"/>
@@ -18541,7 +18596,7 @@
       <c r="Y610" s="10"/>
       <c r="Z610" s="10"/>
     </row>
-    <row r="611" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="12.75" customHeight="1">
       <c r="A611" s="27"/>
       <c r="B611" s="39"/>
       <c r="C611" s="81"/>
@@ -18569,7 +18624,7 @@
       <c r="Y611" s="10"/>
       <c r="Z611" s="10"/>
     </row>
-    <row r="612" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="12.75" customHeight="1">
       <c r="A612" s="27"/>
       <c r="B612" s="39"/>
       <c r="C612" s="81"/>
@@ -18597,7 +18652,7 @@
       <c r="Y612" s="10"/>
       <c r="Z612" s="10"/>
     </row>
-    <row r="613" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="12.75" customHeight="1">
       <c r="A613" s="27"/>
       <c r="B613" s="39"/>
       <c r="C613" s="81"/>
@@ -18625,7 +18680,7 @@
       <c r="Y613" s="10"/>
       <c r="Z613" s="10"/>
     </row>
-    <row r="614" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="12.75" customHeight="1">
       <c r="A614" s="27"/>
       <c r="B614" s="39"/>
       <c r="C614" s="81"/>
@@ -18653,7 +18708,7 @@
       <c r="Y614" s="10"/>
       <c r="Z614" s="10"/>
     </row>
-    <row r="615" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="12.75" customHeight="1">
       <c r="A615" s="27"/>
       <c r="B615" s="39"/>
       <c r="C615" s="81"/>
@@ -18681,7 +18736,7 @@
       <c r="Y615" s="10"/>
       <c r="Z615" s="10"/>
     </row>
-    <row r="616" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="12.75" customHeight="1">
       <c r="A616" s="27"/>
       <c r="B616" s="39"/>
       <c r="C616" s="81"/>
@@ -18709,7 +18764,7 @@
       <c r="Y616" s="10"/>
       <c r="Z616" s="10"/>
     </row>
-    <row r="617" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="12.75" customHeight="1">
       <c r="A617" s="27"/>
       <c r="B617" s="39"/>
       <c r="C617" s="81"/>
@@ -18737,7 +18792,7 @@
       <c r="Y617" s="10"/>
       <c r="Z617" s="10"/>
     </row>
-    <row r="618" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="12.75" customHeight="1">
       <c r="A618" s="27"/>
       <c r="B618" s="39"/>
       <c r="C618" s="81"/>
@@ -18765,7 +18820,7 @@
       <c r="Y618" s="10"/>
       <c r="Z618" s="10"/>
     </row>
-    <row r="619" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="12.75" customHeight="1">
       <c r="A619" s="27"/>
       <c r="B619" s="39"/>
       <c r="C619" s="81"/>
@@ -18793,7 +18848,7 @@
       <c r="Y619" s="10"/>
       <c r="Z619" s="10"/>
     </row>
-    <row r="620" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="12.75" customHeight="1">
       <c r="A620" s="27"/>
       <c r="B620" s="39"/>
       <c r="C620" s="81"/>
@@ -18821,7 +18876,7 @@
       <c r="Y620" s="10"/>
       <c r="Z620" s="10"/>
     </row>
-    <row r="621" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="12.75" customHeight="1">
       <c r="A621" s="27"/>
       <c r="B621" s="39"/>
       <c r="C621" s="81"/>
@@ -18849,7 +18904,7 @@
       <c r="Y621" s="10"/>
       <c r="Z621" s="10"/>
     </row>
-    <row r="622" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="12.75" customHeight="1">
       <c r="A622" s="27"/>
       <c r="B622" s="39"/>
       <c r="C622" s="81"/>
@@ -18877,7 +18932,7 @@
       <c r="Y622" s="10"/>
       <c r="Z622" s="10"/>
     </row>
-    <row r="623" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="12.75" customHeight="1">
       <c r="A623" s="27"/>
       <c r="B623" s="39"/>
       <c r="C623" s="81"/>
@@ -18905,7 +18960,7 @@
       <c r="Y623" s="10"/>
       <c r="Z623" s="10"/>
     </row>
-    <row r="624" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="12.75" customHeight="1">
       <c r="A624" s="27"/>
       <c r="B624" s="39"/>
       <c r="C624" s="81"/>
@@ -18933,7 +18988,7 @@
       <c r="Y624" s="10"/>
       <c r="Z624" s="10"/>
     </row>
-    <row r="625" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="12.75" customHeight="1">
       <c r="A625" s="27"/>
       <c r="B625" s="39"/>
       <c r="C625" s="81"/>
@@ -18961,7 +19016,7 @@
       <c r="Y625" s="10"/>
       <c r="Z625" s="10"/>
     </row>
-    <row r="626" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="12.75" customHeight="1">
       <c r="A626" s="27"/>
       <c r="B626" s="39"/>
       <c r="C626" s="81"/>
@@ -18989,7 +19044,7 @@
       <c r="Y626" s="10"/>
       <c r="Z626" s="10"/>
     </row>
-    <row r="627" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="12.75" customHeight="1">
       <c r="A627" s="27"/>
       <c r="B627" s="39"/>
       <c r="C627" s="81"/>
@@ -19017,7 +19072,7 @@
       <c r="Y627" s="10"/>
       <c r="Z627" s="10"/>
     </row>
-    <row r="628" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="12.75" customHeight="1">
       <c r="A628" s="27"/>
       <c r="B628" s="39"/>
       <c r="C628" s="81"/>
@@ -19045,7 +19100,7 @@
       <c r="Y628" s="10"/>
       <c r="Z628" s="10"/>
     </row>
-    <row r="629" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="12.75" customHeight="1">
       <c r="A629" s="27"/>
       <c r="B629" s="39"/>
       <c r="C629" s="81"/>
@@ -19073,7 +19128,7 @@
       <c r="Y629" s="10"/>
       <c r="Z629" s="10"/>
     </row>
-    <row r="630" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="12.75" customHeight="1">
       <c r="A630" s="27"/>
       <c r="B630" s="39"/>
       <c r="C630" s="81"/>
@@ -19101,7 +19156,7 @@
       <c r="Y630" s="10"/>
       <c r="Z630" s="10"/>
     </row>
-    <row r="631" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="12.75" customHeight="1">
       <c r="A631" s="27"/>
       <c r="B631" s="39"/>
       <c r="C631" s="81"/>
@@ -19129,7 +19184,7 @@
       <c r="Y631" s="10"/>
       <c r="Z631" s="10"/>
     </row>
-    <row r="632" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="12.75" customHeight="1">
       <c r="A632" s="27"/>
       <c r="B632" s="39"/>
       <c r="C632" s="81"/>
@@ -19157,7 +19212,7 @@
       <c r="Y632" s="10"/>
       <c r="Z632" s="10"/>
     </row>
-    <row r="633" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="12.75" customHeight="1">
       <c r="A633" s="27"/>
       <c r="B633" s="39"/>
       <c r="C633" s="81"/>
@@ -19185,7 +19240,7 @@
       <c r="Y633" s="10"/>
       <c r="Z633" s="10"/>
     </row>
-    <row r="634" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="12.75" customHeight="1">
       <c r="A634" s="27"/>
       <c r="B634" s="39"/>
       <c r="C634" s="81"/>
@@ -19213,7 +19268,7 @@
       <c r="Y634" s="10"/>
       <c r="Z634" s="10"/>
     </row>
-    <row r="635" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="12.75" customHeight="1">
       <c r="A635" s="27"/>
       <c r="B635" s="39"/>
       <c r="C635" s="81"/>
@@ -19241,7 +19296,7 @@
       <c r="Y635" s="10"/>
       <c r="Z635" s="10"/>
     </row>
-    <row r="636" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="12.75" customHeight="1">
       <c r="A636" s="27"/>
       <c r="B636" s="39"/>
       <c r="C636" s="81"/>
@@ -19269,7 +19324,7 @@
       <c r="Y636" s="10"/>
       <c r="Z636" s="10"/>
     </row>
-    <row r="637" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="12.75" customHeight="1">
       <c r="A637" s="27"/>
       <c r="B637" s="39"/>
       <c r="C637" s="81"/>
@@ -19297,7 +19352,7 @@
       <c r="Y637" s="10"/>
       <c r="Z637" s="10"/>
     </row>
-    <row r="638" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="12.75" customHeight="1">
       <c r="A638" s="27"/>
       <c r="B638" s="39"/>
       <c r="C638" s="81"/>
@@ -19325,7 +19380,7 @@
       <c r="Y638" s="10"/>
       <c r="Z638" s="10"/>
     </row>
-    <row r="639" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="12.75" customHeight="1">
       <c r="A639" s="27"/>
       <c r="B639" s="39"/>
       <c r="C639" s="81"/>
@@ -19353,7 +19408,7 @@
       <c r="Y639" s="10"/>
       <c r="Z639" s="10"/>
     </row>
-    <row r="640" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="12.75" customHeight="1">
       <c r="A640" s="27"/>
       <c r="B640" s="39"/>
       <c r="C640" s="81"/>
@@ -19381,7 +19436,7 @@
       <c r="Y640" s="10"/>
       <c r="Z640" s="10"/>
     </row>
-    <row r="641" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="12.75" customHeight="1">
       <c r="A641" s="27"/>
       <c r="B641" s="39"/>
       <c r="C641" s="81"/>
@@ -19409,7 +19464,7 @@
       <c r="Y641" s="10"/>
       <c r="Z641" s="10"/>
     </row>
-    <row r="642" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="12.75" customHeight="1">
       <c r="A642" s="27"/>
       <c r="B642" s="39"/>
       <c r="C642" s="81"/>
@@ -19437,7 +19492,7 @@
       <c r="Y642" s="10"/>
       <c r="Z642" s="10"/>
     </row>
-    <row r="643" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="12.75" customHeight="1">
       <c r="A643" s="27"/>
       <c r="B643" s="39"/>
       <c r="C643" s="81"/>
@@ -19465,7 +19520,7 @@
       <c r="Y643" s="10"/>
       <c r="Z643" s="10"/>
     </row>
-    <row r="644" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="12.75" customHeight="1">
       <c r="A644" s="27"/>
       <c r="B644" s="39"/>
       <c r="C644" s="81"/>
@@ -19493,7 +19548,7 @@
       <c r="Y644" s="10"/>
       <c r="Z644" s="10"/>
     </row>
-    <row r="645" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="12.75" customHeight="1">
       <c r="A645" s="27"/>
       <c r="B645" s="39"/>
       <c r="C645" s="81"/>
@@ -19521,7 +19576,7 @@
       <c r="Y645" s="10"/>
       <c r="Z645" s="10"/>
     </row>
-    <row r="646" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="12.75" customHeight="1">
       <c r="A646" s="27"/>
       <c r="B646" s="39"/>
       <c r="C646" s="81"/>
@@ -19549,7 +19604,7 @@
       <c r="Y646" s="10"/>
       <c r="Z646" s="10"/>
     </row>
-    <row r="647" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="12.75" customHeight="1">
       <c r="A647" s="27"/>
       <c r="B647" s="39"/>
       <c r="C647" s="81"/>
@@ -19577,7 +19632,7 @@
       <c r="Y647" s="10"/>
       <c r="Z647" s="10"/>
     </row>
-    <row r="648" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="12.75" customHeight="1">
       <c r="A648" s="27"/>
       <c r="B648" s="39"/>
       <c r="C648" s="81"/>
@@ -19605,7 +19660,7 @@
       <c r="Y648" s="10"/>
       <c r="Z648" s="10"/>
     </row>
-    <row r="649" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="12.75" customHeight="1">
       <c r="A649" s="27"/>
       <c r="B649" s="39"/>
       <c r="C649" s="81"/>
@@ -19633,7 +19688,7 @@
       <c r="Y649" s="10"/>
       <c r="Z649" s="10"/>
     </row>
-    <row r="650" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="12.75" customHeight="1">
       <c r="A650" s="27"/>
       <c r="B650" s="39"/>
       <c r="C650" s="81"/>
@@ -19661,7 +19716,7 @@
       <c r="Y650" s="10"/>
       <c r="Z650" s="10"/>
     </row>
-    <row r="651" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="12.75" customHeight="1">
       <c r="A651" s="27"/>
       <c r="B651" s="39"/>
       <c r="C651" s="81"/>
@@ -19689,7 +19744,7 @@
       <c r="Y651" s="10"/>
       <c r="Z651" s="10"/>
     </row>
-    <row r="652" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="12.75" customHeight="1">
       <c r="A652" s="27"/>
       <c r="B652" s="39"/>
       <c r="C652" s="81"/>
@@ -19717,7 +19772,7 @@
       <c r="Y652" s="10"/>
       <c r="Z652" s="10"/>
     </row>
-    <row r="653" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="12.75" customHeight="1">
       <c r="A653" s="27"/>
       <c r="B653" s="39"/>
       <c r="C653" s="81"/>
@@ -19745,7 +19800,7 @@
       <c r="Y653" s="10"/>
       <c r="Z653" s="10"/>
     </row>
-    <row r="654" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="12.75" customHeight="1">
       <c r="A654" s="27"/>
       <c r="B654" s="39"/>
       <c r="C654" s="81"/>
@@ -19773,7 +19828,7 @@
       <c r="Y654" s="10"/>
       <c r="Z654" s="10"/>
     </row>
-    <row r="655" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="12.75" customHeight="1">
       <c r="A655" s="27"/>
       <c r="B655" s="39"/>
       <c r="C655" s="81"/>
@@ -19801,7 +19856,7 @@
       <c r="Y655" s="10"/>
       <c r="Z655" s="10"/>
     </row>
-    <row r="656" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="12.75" customHeight="1">
       <c r="A656" s="27"/>
       <c r="B656" s="39"/>
       <c r="C656" s="81"/>
@@ -19829,7 +19884,7 @@
       <c r="Y656" s="10"/>
       <c r="Z656" s="10"/>
     </row>
-    <row r="657" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="12.75" customHeight="1">
       <c r="A657" s="27"/>
       <c r="B657" s="39"/>
       <c r="C657" s="81"/>
@@ -19857,7 +19912,7 @@
       <c r="Y657" s="10"/>
       <c r="Z657" s="10"/>
     </row>
-    <row r="658" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="12.75" customHeight="1">
       <c r="A658" s="27"/>
       <c r="B658" s="39"/>
       <c r="C658" s="81"/>
@@ -19885,7 +19940,7 @@
       <c r="Y658" s="10"/>
       <c r="Z658" s="10"/>
     </row>
-    <row r="659" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="12.75" customHeight="1">
       <c r="A659" s="27"/>
       <c r="B659" s="39"/>
       <c r="C659" s="81"/>
@@ -19913,7 +19968,7 @@
       <c r="Y659" s="10"/>
       <c r="Z659" s="10"/>
     </row>
-    <row r="660" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="12.75" customHeight="1">
       <c r="A660" s="27"/>
       <c r="B660" s="39"/>
       <c r="C660" s="81"/>
@@ -19941,7 +19996,7 @@
       <c r="Y660" s="10"/>
       <c r="Z660" s="10"/>
     </row>
-    <row r="661" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="12.75" customHeight="1">
       <c r="A661" s="27"/>
       <c r="B661" s="39"/>
       <c r="C661" s="81"/>
@@ -19969,7 +20024,7 @@
       <c r="Y661" s="10"/>
       <c r="Z661" s="10"/>
     </row>
-    <row r="662" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="12.75" customHeight="1">
       <c r="A662" s="27"/>
       <c r="B662" s="39"/>
       <c r="C662" s="81"/>
@@ -19997,7 +20052,7 @@
       <c r="Y662" s="10"/>
       <c r="Z662" s="10"/>
     </row>
-    <row r="663" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="12.75" customHeight="1">
       <c r="A663" s="27"/>
       <c r="B663" s="39"/>
       <c r="C663" s="81"/>
@@ -20025,7 +20080,7 @@
       <c r="Y663" s="10"/>
       <c r="Z663" s="10"/>
     </row>
-    <row r="664" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="12.75" customHeight="1">
       <c r="A664" s="27"/>
       <c r="B664" s="39"/>
       <c r="C664" s="81"/>
@@ -20053,7 +20108,7 @@
       <c r="Y664" s="10"/>
       <c r="Z664" s="10"/>
     </row>
-    <row r="665" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="12.75" customHeight="1">
       <c r="A665" s="27"/>
       <c r="B665" s="39"/>
       <c r="C665" s="81"/>
@@ -20081,7 +20136,7 @@
       <c r="Y665" s="10"/>
       <c r="Z665" s="10"/>
     </row>
-    <row r="666" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="12.75" customHeight="1">
       <c r="A666" s="27"/>
       <c r="B666" s="39"/>
       <c r="C666" s="81"/>
@@ -20109,7 +20164,7 @@
       <c r="Y666" s="10"/>
       <c r="Z666" s="10"/>
     </row>
-    <row r="667" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="12.75" customHeight="1">
       <c r="A667" s="27"/>
       <c r="B667" s="39"/>
       <c r="C667" s="81"/>
@@ -20137,7 +20192,7 @@
       <c r="Y667" s="10"/>
       <c r="Z667" s="10"/>
     </row>
-    <row r="668" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="12.75" customHeight="1">
       <c r="A668" s="27"/>
       <c r="B668" s="39"/>
       <c r="C668" s="81"/>
@@ -20165,7 +20220,7 @@
       <c r="Y668" s="10"/>
       <c r="Z668" s="10"/>
     </row>
-    <row r="669" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="12.75" customHeight="1">
       <c r="A669" s="27"/>
       <c r="B669" s="39"/>
       <c r="C669" s="81"/>
@@ -20193,7 +20248,7 @@
       <c r="Y669" s="10"/>
       <c r="Z669" s="10"/>
     </row>
-    <row r="670" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="12.75" customHeight="1">
       <c r="A670" s="27"/>
       <c r="B670" s="39"/>
       <c r="C670" s="81"/>
@@ -20221,7 +20276,7 @@
       <c r="Y670" s="10"/>
       <c r="Z670" s="10"/>
     </row>
-    <row r="671" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="12.75" customHeight="1">
       <c r="A671" s="27"/>
       <c r="B671" s="39"/>
       <c r="C671" s="81"/>
@@ -20249,7 +20304,7 @@
       <c r="Y671" s="10"/>
       <c r="Z671" s="10"/>
     </row>
-    <row r="672" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="12.75" customHeight="1">
       <c r="A672" s="27"/>
       <c r="B672" s="39"/>
       <c r="C672" s="81"/>
@@ -20277,7 +20332,7 @@
       <c r="Y672" s="10"/>
       <c r="Z672" s="10"/>
     </row>
-    <row r="673" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="12.75" customHeight="1">
       <c r="A673" s="27"/>
       <c r="B673" s="39"/>
       <c r="C673" s="81"/>
@@ -20305,7 +20360,7 @@
       <c r="Y673" s="10"/>
       <c r="Z673" s="10"/>
     </row>
-    <row r="674" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="12.75" customHeight="1">
       <c r="A674" s="27"/>
       <c r="B674" s="39"/>
       <c r="C674" s="81"/>
@@ -20333,7 +20388,7 @@
       <c r="Y674" s="10"/>
       <c r="Z674" s="10"/>
     </row>
-    <row r="675" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="12.75" customHeight="1">
       <c r="A675" s="27"/>
       <c r="B675" s="39"/>
       <c r="C675" s="81"/>
@@ -20361,7 +20416,7 @@
       <c r="Y675" s="10"/>
       <c r="Z675" s="10"/>
     </row>
-    <row r="676" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="12.75" customHeight="1">
       <c r="A676" s="27"/>
       <c r="B676" s="39"/>
       <c r="C676" s="81"/>
@@ -20389,7 +20444,7 @@
       <c r="Y676" s="10"/>
       <c r="Z676" s="10"/>
     </row>
-    <row r="677" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="12.75" customHeight="1">
       <c r="A677" s="27"/>
       <c r="B677" s="39"/>
       <c r="C677" s="81"/>
@@ -20417,7 +20472,7 @@
       <c r="Y677" s="10"/>
       <c r="Z677" s="10"/>
     </row>
-    <row r="678" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="12.75" customHeight="1">
       <c r="A678" s="27"/>
       <c r="B678" s="39"/>
       <c r="C678" s="81"/>
@@ -20445,7 +20500,7 @@
       <c r="Y678" s="10"/>
       <c r="Z678" s="10"/>
     </row>
-    <row r="679" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="12.75" customHeight="1">
       <c r="A679" s="27"/>
       <c r="B679" s="39"/>
       <c r="C679" s="81"/>
@@ -20473,7 +20528,7 @@
       <c r="Y679" s="10"/>
       <c r="Z679" s="10"/>
     </row>
-    <row r="680" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="12.75" customHeight="1">
       <c r="A680" s="27"/>
       <c r="B680" s="39"/>
       <c r="C680" s="81"/>
@@ -20501,7 +20556,7 @@
       <c r="Y680" s="10"/>
       <c r="Z680" s="10"/>
     </row>
-    <row r="681" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="12.75" customHeight="1">
       <c r="A681" s="27"/>
       <c r="B681" s="39"/>
       <c r="C681" s="81"/>
@@ -20529,7 +20584,7 @@
       <c r="Y681" s="10"/>
       <c r="Z681" s="10"/>
     </row>
-    <row r="682" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="12.75" customHeight="1">
       <c r="A682" s="27"/>
       <c r="B682" s="39"/>
       <c r="C682" s="81"/>
@@ -20557,7 +20612,7 @@
       <c r="Y682" s="10"/>
       <c r="Z682" s="10"/>
     </row>
-    <row r="683" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="12.75" customHeight="1">
       <c r="A683" s="27"/>
       <c r="B683" s="39"/>
       <c r="C683" s="81"/>
@@ -20585,7 +20640,7 @@
       <c r="Y683" s="10"/>
       <c r="Z683" s="10"/>
     </row>
-    <row r="684" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="12.75" customHeight="1">
       <c r="A684" s="27"/>
       <c r="B684" s="39"/>
       <c r="C684" s="81"/>
@@ -20613,7 +20668,7 @@
       <c r="Y684" s="10"/>
       <c r="Z684" s="10"/>
     </row>
-    <row r="685" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="12.75" customHeight="1">
       <c r="A685" s="27"/>
       <c r="B685" s="39"/>
       <c r="C685" s="81"/>
@@ -20641,7 +20696,7 @@
       <c r="Y685" s="10"/>
       <c r="Z685" s="10"/>
     </row>
-    <row r="686" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="12.75" customHeight="1">
       <c r="A686" s="27"/>
       <c r="B686" s="39"/>
       <c r="C686" s="81"/>
@@ -20669,7 +20724,7 @@
       <c r="Y686" s="10"/>
       <c r="Z686" s="10"/>
     </row>
-    <row r="687" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="12.75" customHeight="1">
       <c r="A687" s="27"/>
       <c r="B687" s="39"/>
       <c r="C687" s="81"/>
@@ -20697,7 +20752,7 @@
       <c r="Y687" s="10"/>
       <c r="Z687" s="10"/>
     </row>
-    <row r="688" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="12.75" customHeight="1">
       <c r="A688" s="27"/>
       <c r="B688" s="39"/>
       <c r="C688" s="81"/>
@@ -20725,7 +20780,7 @@
       <c r="Y688" s="10"/>
       <c r="Z688" s="10"/>
     </row>
-    <row r="689" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="12.75" customHeight="1">
       <c r="A689" s="27"/>
       <c r="B689" s="39"/>
       <c r="C689" s="81"/>
@@ -20753,7 +20808,7 @@
       <c r="Y689" s="10"/>
       <c r="Z689" s="10"/>
     </row>
-    <row r="690" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="12.75" customHeight="1">
       <c r="A690" s="27"/>
       <c r="B690" s="39"/>
       <c r="C690" s="81"/>
@@ -20781,7 +20836,7 @@
       <c r="Y690" s="10"/>
       <c r="Z690" s="10"/>
     </row>
-    <row r="691" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="12.75" customHeight="1">
       <c r="A691" s="27"/>
       <c r="B691" s="39"/>
       <c r="C691" s="81"/>
@@ -20809,7 +20864,7 @@
       <c r="Y691" s="10"/>
       <c r="Z691" s="10"/>
     </row>
-    <row r="692" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="12.75" customHeight="1">
       <c r="A692" s="27"/>
       <c r="B692" s="39"/>
       <c r="C692" s="81"/>
@@ -20837,7 +20892,7 @@
       <c r="Y692" s="10"/>
       <c r="Z692" s="10"/>
     </row>
-    <row r="693" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="12.75" customHeight="1">
       <c r="A693" s="27"/>
       <c r="B693" s="39"/>
       <c r="C693" s="81"/>
@@ -20865,7 +20920,7 @@
       <c r="Y693" s="10"/>
       <c r="Z693" s="10"/>
     </row>
-    <row r="694" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="12.75" customHeight="1">
       <c r="A694" s="27"/>
       <c r="B694" s="39"/>
       <c r="C694" s="81"/>
@@ -20893,7 +20948,7 @@
       <c r="Y694" s="10"/>
       <c r="Z694" s="10"/>
     </row>
-    <row r="695" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="12.75" customHeight="1">
       <c r="A695" s="27"/>
       <c r="B695" s="39"/>
       <c r="C695" s="81"/>
@@ -20921,7 +20976,7 @@
       <c r="Y695" s="10"/>
       <c r="Z695" s="10"/>
     </row>
-    <row r="696" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="12.75" customHeight="1">
       <c r="A696" s="27"/>
       <c r="B696" s="39"/>
       <c r="C696" s="81"/>
@@ -20949,7 +21004,7 @@
       <c r="Y696" s="10"/>
       <c r="Z696" s="10"/>
     </row>
-    <row r="697" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="12.75" customHeight="1">
       <c r="A697" s="27"/>
       <c r="B697" s="39"/>
       <c r="C697" s="81"/>
@@ -20977,7 +21032,7 @@
       <c r="Y697" s="10"/>
       <c r="Z697" s="10"/>
     </row>
-    <row r="698" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="12.75" customHeight="1">
       <c r="A698" s="27"/>
       <c r="B698" s="39"/>
       <c r="C698" s="81"/>
@@ -21005,7 +21060,7 @@
       <c r="Y698" s="10"/>
       <c r="Z698" s="10"/>
     </row>
-    <row r="699" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="12.75" customHeight="1">
       <c r="A699" s="27"/>
       <c r="B699" s="39"/>
       <c r="C699" s="81"/>
@@ -21033,7 +21088,7 @@
       <c r="Y699" s="10"/>
       <c r="Z699" s="10"/>
     </row>
-    <row r="700" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="12.75" customHeight="1">
       <c r="A700" s="27"/>
       <c r="B700" s="39"/>
       <c r="C700" s="81"/>
@@ -21061,7 +21116,7 @@
       <c r="Y700" s="10"/>
       <c r="Z700" s="10"/>
     </row>
-    <row r="701" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="12.75" customHeight="1">
       <c r="A701" s="27"/>
       <c r="B701" s="39"/>
       <c r="C701" s="81"/>
@@ -21089,7 +21144,7 @@
       <c r="Y701" s="10"/>
       <c r="Z701" s="10"/>
     </row>
-    <row r="702" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="12.75" customHeight="1">
       <c r="A702" s="27"/>
       <c r="B702" s="39"/>
       <c r="C702" s="81"/>
@@ -21117,7 +21172,7 @@
       <c r="Y702" s="10"/>
       <c r="Z702" s="10"/>
     </row>
-    <row r="703" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="12.75" customHeight="1">
       <c r="A703" s="27"/>
       <c r="B703" s="39"/>
       <c r="C703" s="81"/>
@@ -21145,7 +21200,7 @@
       <c r="Y703" s="10"/>
       <c r="Z703" s="10"/>
     </row>
-    <row r="704" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="12.75" customHeight="1">
       <c r="A704" s="27"/>
       <c r="B704" s="39"/>
       <c r="C704" s="81"/>
@@ -21173,7 +21228,7 @@
       <c r="Y704" s="10"/>
       <c r="Z704" s="10"/>
     </row>
-    <row r="705" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="12.75" customHeight="1">
       <c r="A705" s="27"/>
       <c r="B705" s="39"/>
       <c r="C705" s="81"/>
@@ -21201,7 +21256,7 @@
       <c r="Y705" s="10"/>
       <c r="Z705" s="10"/>
     </row>
-    <row r="706" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="12.75" customHeight="1">
       <c r="A706" s="27"/>
       <c r="B706" s="39"/>
       <c r="C706" s="81"/>
@@ -21229,7 +21284,7 @@
       <c r="Y706" s="10"/>
       <c r="Z706" s="10"/>
     </row>
-    <row r="707" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="12.75" customHeight="1">
       <c r="A707" s="27"/>
       <c r="B707" s="39"/>
       <c r="C707" s="81"/>
@@ -21257,7 +21312,7 @@
       <c r="Y707" s="10"/>
       <c r="Z707" s="10"/>
     </row>
-    <row r="708" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="12.75" customHeight="1">
       <c r="A708" s="27"/>
       <c r="B708" s="39"/>
       <c r="C708" s="81"/>
@@ -21285,7 +21340,7 @@
       <c r="Y708" s="10"/>
       <c r="Z708" s="10"/>
     </row>
-    <row r="709" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="12.75" customHeight="1">
       <c r="A709" s="27"/>
       <c r="B709" s="39"/>
       <c r="C709" s="81"/>
@@ -21313,7 +21368,7 @@
       <c r="Y709" s="10"/>
       <c r="Z709" s="10"/>
     </row>
-    <row r="710" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="12.75" customHeight="1">
       <c r="A710" s="27"/>
       <c r="B710" s="39"/>
       <c r="C710" s="81"/>
@@ -21341,7 +21396,7 @@
       <c r="Y710" s="10"/>
       <c r="Z710" s="10"/>
     </row>
-    <row r="711" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="12.75" customHeight="1">
       <c r="A711" s="27"/>
       <c r="B711" s="39"/>
       <c r="C711" s="81"/>
@@ -21369,7 +21424,7 @@
       <c r="Y711" s="10"/>
       <c r="Z711" s="10"/>
     </row>
-    <row r="712" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="12.75" customHeight="1">
       <c r="A712" s="27"/>
       <c r="B712" s="39"/>
       <c r="C712" s="81"/>
@@ -21397,7 +21452,7 @@
       <c r="Y712" s="10"/>
       <c r="Z712" s="10"/>
     </row>
-    <row r="713" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="12.75" customHeight="1">
       <c r="A713" s="27"/>
       <c r="B713" s="39"/>
       <c r="C713" s="81"/>
@@ -21425,7 +21480,7 @@
       <c r="Y713" s="10"/>
       <c r="Z713" s="10"/>
     </row>
-    <row r="714" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="12.75" customHeight="1">
       <c r="A714" s="27"/>
       <c r="B714" s="39"/>
       <c r="C714" s="81"/>
@@ -21453,7 +21508,7 @@
       <c r="Y714" s="10"/>
       <c r="Z714" s="10"/>
     </row>
-    <row r="715" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="12.75" customHeight="1">
       <c r="A715" s="27"/>
       <c r="B715" s="39"/>
       <c r="C715" s="81"/>
@@ -21481,7 +21536,7 @@
       <c r="Y715" s="10"/>
       <c r="Z715" s="10"/>
     </row>
-    <row r="716" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="12.75" customHeight="1">
       <c r="A716" s="27"/>
       <c r="B716" s="39"/>
       <c r="C716" s="81"/>
@@ -21509,7 +21564,7 @@
       <c r="Y716" s="10"/>
       <c r="Z716" s="10"/>
     </row>
-    <row r="717" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="12.75" customHeight="1">
       <c r="A717" s="27"/>
       <c r="B717" s="39"/>
       <c r="C717" s="81"/>
@@ -21537,7 +21592,7 @@
       <c r="Y717" s="10"/>
       <c r="Z717" s="10"/>
     </row>
-    <row r="718" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="12.75" customHeight="1">
       <c r="A718" s="27"/>
       <c r="B718" s="39"/>
       <c r="C718" s="81"/>
@@ -21565,7 +21620,7 @@
       <c r="Y718" s="10"/>
       <c r="Z718" s="10"/>
     </row>
-    <row r="719" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="12.75" customHeight="1">
       <c r="A719" s="27"/>
       <c r="B719" s="39"/>
       <c r="C719" s="81"/>
@@ -21593,7 +21648,7 @@
       <c r="Y719" s="10"/>
       <c r="Z719" s="10"/>
     </row>
-    <row r="720" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="12.75" customHeight="1">
       <c r="A720" s="27"/>
       <c r="B720" s="39"/>
       <c r="C720" s="81"/>
@@ -21621,7 +21676,7 @@
       <c r="Y720" s="10"/>
       <c r="Z720" s="10"/>
     </row>
-    <row r="721" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="12.75" customHeight="1">
       <c r="A721" s="27"/>
       <c r="B721" s="39"/>
       <c r="C721" s="81"/>
@@ -21649,7 +21704,7 @@
       <c r="Y721" s="10"/>
       <c r="Z721" s="10"/>
     </row>
-    <row r="722" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="12.75" customHeight="1">
       <c r="A722" s="27"/>
       <c r="B722" s="39"/>
       <c r="C722" s="81"/>
@@ -21677,7 +21732,7 @@
       <c r="Y722" s="10"/>
       <c r="Z722" s="10"/>
     </row>
-    <row r="723" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="12.75" customHeight="1">
       <c r="A723" s="27"/>
       <c r="B723" s="39"/>
       <c r="C723" s="81"/>
@@ -21705,7 +21760,7 @@
       <c r="Y723" s="10"/>
       <c r="Z723" s="10"/>
     </row>
-    <row r="724" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="12.75" customHeight="1">
       <c r="A724" s="27"/>
       <c r="B724" s="39"/>
       <c r="C724" s="81"/>
@@ -21733,7 +21788,7 @@
       <c r="Y724" s="10"/>
       <c r="Z724" s="10"/>
     </row>
-    <row r="725" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="12.75" customHeight="1">
       <c r="A725" s="27"/>
       <c r="B725" s="39"/>
       <c r="C725" s="81"/>
@@ -21761,7 +21816,7 @@
       <c r="Y725" s="10"/>
       <c r="Z725" s="10"/>
     </row>
-    <row r="726" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="12.75" customHeight="1">
       <c r="A726" s="27"/>
       <c r="B726" s="39"/>
       <c r="C726" s="81"/>
@@ -21789,7 +21844,7 @@
       <c r="Y726" s="10"/>
       <c r="Z726" s="10"/>
     </row>
-    <row r="727" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="12.75" customHeight="1">
       <c r="A727" s="27"/>
       <c r="B727" s="39"/>
       <c r="C727" s="81"/>
@@ -21817,7 +21872,7 @@
       <c r="Y727" s="10"/>
       <c r="Z727" s="10"/>
     </row>
-    <row r="728" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="12.75" customHeight="1">
       <c r="A728" s="27"/>
       <c r="B728" s="39"/>
       <c r="C728" s="81"/>
@@ -21845,7 +21900,7 @@
       <c r="Y728" s="10"/>
       <c r="Z728" s="10"/>
     </row>
-    <row r="729" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="12.75" customHeight="1">
       <c r="A729" s="27"/>
       <c r="B729" s="39"/>
       <c r="C729" s="81"/>
@@ -21873,7 +21928,7 @@
       <c r="Y729" s="10"/>
       <c r="Z729" s="10"/>
     </row>
-    <row r="730" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="12.75" customHeight="1">
       <c r="A730" s="27"/>
       <c r="B730" s="39"/>
       <c r="C730" s="81"/>
@@ -21901,7 +21956,7 @@
       <c r="Y730" s="10"/>
       <c r="Z730" s="10"/>
     </row>
-    <row r="731" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="12.75" customHeight="1">
       <c r="A731" s="27"/>
       <c r="B731" s="39"/>
       <c r="C731" s="81"/>
@@ -21929,7 +21984,7 @@
       <c r="Y731" s="10"/>
       <c r="Z731" s="10"/>
     </row>
-    <row r="732" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="12.75" customHeight="1">
       <c r="A732" s="27"/>
       <c r="B732" s="39"/>
       <c r="C732" s="81"/>
@@ -21957,7 +22012,7 @@
       <c r="Y732" s="10"/>
       <c r="Z732" s="10"/>
     </row>
-    <row r="733" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="12.75" customHeight="1">
       <c r="A733" s="27"/>
       <c r="B733" s="39"/>
       <c r="C733" s="81"/>
@@ -21985,7 +22040,7 @@
       <c r="Y733" s="10"/>
       <c r="Z733" s="10"/>
     </row>
-    <row r="734" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="12.75" customHeight="1">
       <c r="A734" s="27"/>
       <c r="B734" s="39"/>
       <c r="C734" s="81"/>
@@ -22013,7 +22068,7 @@
       <c r="Y734" s="10"/>
       <c r="Z734" s="10"/>
     </row>
-    <row r="735" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="12.75" customHeight="1">
       <c r="A735" s="27"/>
       <c r="B735" s="39"/>
       <c r="C735" s="81"/>
@@ -22041,7 +22096,7 @@
       <c r="Y735" s="10"/>
       <c r="Z735" s="10"/>
     </row>
-    <row r="736" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="12.75" customHeight="1">
       <c r="A736" s="27"/>
       <c r="B736" s="39"/>
       <c r="C736" s="81"/>
@@ -22069,7 +22124,7 @@
       <c r="Y736" s="10"/>
       <c r="Z736" s="10"/>
     </row>
-    <row r="737" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="12.75" customHeight="1">
       <c r="A737" s="27"/>
       <c r="B737" s="39"/>
       <c r="C737" s="81"/>
@@ -22097,7 +22152,7 @@
       <c r="Y737" s="10"/>
       <c r="Z737" s="10"/>
     </row>
-    <row r="738" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="12.75" customHeight="1">
       <c r="A738" s="27"/>
       <c r="B738" s="39"/>
       <c r="C738" s="81"/>
@@ -22125,7 +22180,7 @@
       <c r="Y738" s="10"/>
       <c r="Z738" s="10"/>
     </row>
-    <row r="739" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="12.75" customHeight="1">
       <c r="A739" s="27"/>
       <c r="B739" s="39"/>
       <c r="C739" s="81"/>
@@ -22153,7 +22208,7 @@
       <c r="Y739" s="10"/>
       <c r="Z739" s="10"/>
     </row>
-    <row r="740" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="12.75" customHeight="1">
       <c r="A740" s="27"/>
       <c r="B740" s="39"/>
       <c r="C740" s="81"/>
@@ -22181,7 +22236,7 @@
       <c r="Y740" s="10"/>
       <c r="Z740" s="10"/>
     </row>
-    <row r="741" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="12.75" customHeight="1">
       <c r="A741" s="27"/>
       <c r="B741" s="39"/>
       <c r="C741" s="81"/>
@@ -22209,7 +22264,7 @@
       <c r="Y741" s="10"/>
       <c r="Z741" s="10"/>
     </row>
-    <row r="742" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="12.75" customHeight="1">
       <c r="A742" s="27"/>
       <c r="B742" s="39"/>
       <c r="C742" s="81"/>
@@ -22237,7 +22292,7 @@
       <c r="Y742" s="10"/>
       <c r="Z742" s="10"/>
     </row>
-    <row r="743" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="12.75" customHeight="1">
       <c r="A743" s="27"/>
       <c r="B743" s="39"/>
       <c r="C743" s="81"/>
@@ -22265,7 +22320,7 @@
       <c r="Y743" s="10"/>
       <c r="Z743" s="10"/>
     </row>
-    <row r="744" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="12.75" customHeight="1">
       <c r="A744" s="27"/>
       <c r="B744" s="39"/>
       <c r="C744" s="81"/>
@@ -22293,7 +22348,7 @@
       <c r="Y744" s="10"/>
       <c r="Z744" s="10"/>
     </row>
-    <row r="745" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="12.75" customHeight="1">
       <c r="A745" s="27"/>
       <c r="B745" s="39"/>
       <c r="C745" s="81"/>
@@ -22321,7 +22376,7 @@
       <c r="Y745" s="10"/>
       <c r="Z745" s="10"/>
     </row>
-    <row r="746" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="12.75" customHeight="1">
       <c r="A746" s="27"/>
       <c r="B746" s="39"/>
       <c r="C746" s="81"/>
@@ -22349,7 +22404,7 @@
       <c r="Y746" s="10"/>
       <c r="Z746" s="10"/>
     </row>
-    <row r="747" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="12.75" customHeight="1">
       <c r="A747" s="27"/>
       <c r="B747" s="39"/>
       <c r="C747" s="81"/>
@@ -22377,7 +22432,7 @@
       <c r="Y747" s="10"/>
       <c r="Z747" s="10"/>
     </row>
-    <row r="748" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="12.75" customHeight="1">
       <c r="A748" s="27"/>
       <c r="B748" s="39"/>
       <c r="C748" s="81"/>
@@ -22405,7 +22460,7 @@
       <c r="Y748" s="10"/>
       <c r="Z748" s="10"/>
     </row>
-    <row r="749" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="12.75" customHeight="1">
       <c r="A749" s="27"/>
       <c r="B749" s="39"/>
       <c r="C749" s="81"/>
@@ -22433,7 +22488,7 @@
       <c r="Y749" s="10"/>
       <c r="Z749" s="10"/>
     </row>
-    <row r="750" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="12.75" customHeight="1">
       <c r="A750" s="27"/>
       <c r="B750" s="39"/>
       <c r="C750" s="81"/>
@@ -22461,7 +22516,7 @@
       <c r="Y750" s="10"/>
       <c r="Z750" s="10"/>
     </row>
-    <row r="751" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="12.75" customHeight="1">
       <c r="A751" s="27"/>
       <c r="B751" s="39"/>
       <c r="C751" s="81"/>
@@ -22489,7 +22544,7 @@
       <c r="Y751" s="10"/>
       <c r="Z751" s="10"/>
     </row>
-    <row r="752" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="12.75" customHeight="1">
       <c r="A752" s="27"/>
       <c r="B752" s="39"/>
       <c r="C752" s="81"/>
@@ -22517,7 +22572,7 @@
       <c r="Y752" s="10"/>
       <c r="Z752" s="10"/>
     </row>
-    <row r="753" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="12.75" customHeight="1">
       <c r="A753" s="27"/>
       <c r="B753" s="39"/>
       <c r="C753" s="81"/>
@@ -22545,7 +22600,7 @@
       <c r="Y753" s="10"/>
       <c r="Z753" s="10"/>
     </row>
-    <row r="754" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="12.75" customHeight="1">
       <c r="A754" s="27"/>
       <c r="B754" s="39"/>
       <c r="C754" s="81"/>
@@ -22573,7 +22628,7 @@
       <c r="Y754" s="10"/>
       <c r="Z754" s="10"/>
     </row>
-    <row r="755" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="12.75" customHeight="1">
       <c r="A755" s="27"/>
       <c r="B755" s="39"/>
       <c r="C755" s="81"/>
@@ -22601,7 +22656,7 @@
       <c r="Y755" s="10"/>
       <c r="Z755" s="10"/>
     </row>
-    <row r="756" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="12.75" customHeight="1">
       <c r="A756" s="27"/>
       <c r="B756" s="39"/>
       <c r="C756" s="81"/>
@@ -22629,7 +22684,7 @@
       <c r="Y756" s="10"/>
       <c r="Z756" s="10"/>
     </row>
-    <row r="757" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="12.75" customHeight="1">
       <c r="A757" s="27"/>
       <c r="B757" s="39"/>
       <c r="C757" s="81"/>
@@ -22657,7 +22712,7 @@
       <c r="Y757" s="10"/>
       <c r="Z757" s="10"/>
     </row>
-    <row r="758" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="12.75" customHeight="1">
       <c r="A758" s="27"/>
       <c r="B758" s="39"/>
       <c r="C758" s="81"/>
@@ -22685,7 +22740,7 @@
       <c r="Y758" s="10"/>
       <c r="Z758" s="10"/>
     </row>
-    <row r="759" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="12.75" customHeight="1">
       <c r="A759" s="27"/>
       <c r="B759" s="39"/>
       <c r="C759" s="81"/>
@@ -22713,7 +22768,7 @@
       <c r="Y759" s="10"/>
       <c r="Z759" s="10"/>
     </row>
-    <row r="760" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="12.75" customHeight="1">
       <c r="A760" s="27"/>
       <c r="B760" s="39"/>
       <c r="C760" s="81"/>
@@ -22741,7 +22796,7 @@
       <c r="Y760" s="10"/>
       <c r="Z760" s="10"/>
     </row>
-    <row r="761" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="12.75" customHeight="1">
       <c r="A761" s="27"/>
       <c r="B761" s="39"/>
       <c r="C761" s="81"/>
@@ -22769,7 +22824,7 @@
       <c r="Y761" s="10"/>
       <c r="Z761" s="10"/>
     </row>
-    <row r="762" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="12.75" customHeight="1">
       <c r="A762" s="27"/>
       <c r="B762" s="39"/>
       <c r="C762" s="81"/>
@@ -22797,7 +22852,7 @@
       <c r="Y762" s="10"/>
       <c r="Z762" s="10"/>
     </row>
-    <row r="763" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="12.75" customHeight="1">
       <c r="A763" s="27"/>
       <c r="B763" s="39"/>
       <c r="C763" s="81"/>
@@ -22825,7 +22880,7 @@
       <c r="Y763" s="10"/>
       <c r="Z763" s="10"/>
     </row>
-    <row r="764" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="12.75" customHeight="1">
       <c r="A764" s="27"/>
       <c r="B764" s="39"/>
       <c r="C764" s="81"/>
@@ -22853,7 +22908,7 @@
       <c r="Y764" s="10"/>
       <c r="Z764" s="10"/>
     </row>
-    <row r="765" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="12.75" customHeight="1">
       <c r="A765" s="27"/>
       <c r="B765" s="39"/>
       <c r="C765" s="81"/>
@@ -22881,7 +22936,7 @@
       <c r="Y765" s="10"/>
       <c r="Z765" s="10"/>
     </row>
-    <row r="766" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="12.75" customHeight="1">
       <c r="A766" s="27"/>
       <c r="B766" s="39"/>
       <c r="C766" s="81"/>
@@ -22909,7 +22964,7 @@
       <c r="Y766" s="10"/>
       <c r="Z766" s="10"/>
     </row>
-    <row r="767" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="12.75" customHeight="1">
       <c r="A767" s="27"/>
       <c r="B767" s="39"/>
       <c r="C767" s="81"/>
@@ -22937,7 +22992,7 @@
       <c r="Y767" s="10"/>
       <c r="Z767" s="10"/>
     </row>
-    <row r="768" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="12.75" customHeight="1">
       <c r="A768" s="27"/>
       <c r="B768" s="39"/>
       <c r="C768" s="81"/>
@@ -22965,7 +23020,7 @@
       <c r="Y768" s="10"/>
       <c r="Z768" s="10"/>
     </row>
-    <row r="769" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="12.75" customHeight="1">
       <c r="A769" s="27"/>
       <c r="B769" s="39"/>
       <c r="C769" s="81"/>
@@ -22993,35 +23048,49 @@
       <c r="Y769" s="10"/>
       <c r="Z769" s="10"/>
     </row>
+    <row r="770" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A770" s="27"/>
+      <c r="B770" s="39"/>
+      <c r="C770" s="81"/>
+      <c r="D770" s="91"/>
+      <c r="E770" s="18"/>
+      <c r="F770" s="42"/>
+      <c r="G770" s="108"/>
+      <c r="H770" s="108"/>
+      <c r="I770" s="108"/>
+      <c r="J770" s="70"/>
+      <c r="K770" s="27"/>
+      <c r="L770" s="39"/>
+      <c r="M770" s="39"/>
+      <c r="N770" s="39"/>
+      <c r="O770" s="27"/>
+      <c r="P770" s="42"/>
+      <c r="Q770" s="10"/>
+      <c r="R770" s="10"/>
+      <c r="S770" s="10"/>
+      <c r="T770" s="10"/>
+      <c r="U770" s="10"/>
+      <c r="V770" s="10"/>
+      <c r="W770" s="10"/>
+      <c r="X770" s="10"/>
+      <c r="Y770" s="10"/>
+      <c r="Z770" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:O2"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="M7:M8">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="N3:N22 B3:B22">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
-        <x14:dataValidation type="list" allowBlank="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>M7:M8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B21</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
